--- a/Demon Lord Roguelike/Assets/Data/Excel/excel_research_info[研究信息].xlsx
+++ b/Demon Lord Roguelike/Assets/Data/Excel/excel_research_info[研究信息].xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="39">
   <si>
     <t>id</t>
   </si>
@@ -59,6 +59,9 @@
     <t>pre_research_ids</t>
   </si>
   <si>
+    <t>unlock_id</t>
+  </si>
+  <si>
     <t>pay_crystal</t>
   </si>
   <si>
@@ -113,6 +116,9 @@
     <t>前置条件</t>
   </si>
   <si>
+    <t>解锁的ID</t>
+  </si>
+  <si>
     <t>需要支付的水晶</t>
   </si>
   <si>
@@ -125,10 +131,19 @@
     <t>备注</t>
   </si>
   <si>
+    <t>ui_creature_class_1</t>
+  </si>
+  <si>
     <t>阵容上限+1</t>
   </si>
   <si>
     <t>强化-阵容上限</t>
+  </si>
+  <si>
+    <t>ui_creature_class_2</t>
+  </si>
+  <si>
+    <t>ui_creature_class_4</t>
   </si>
 </sst>
 </file>
@@ -1096,12 +1111,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N80"/>
+  <dimension ref="A1:O80"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="F1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="N8" sqref="N8"/>
+      <selection pane="topRight" activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1111,17 +1126,19 @@
     <col min="4" max="4" width="17.5" customWidth="1"/>
     <col min="5" max="5" width="19.75" customWidth="1"/>
     <col min="6" max="6" width="23.75" customWidth="1"/>
-    <col min="7" max="7" width="9.375" customWidth="1"/>
+    <col min="7" max="7" width="21.5" customWidth="1"/>
     <col min="8" max="8" width="11.5" customWidth="1"/>
     <col min="9" max="9" width="9.375" customWidth="1"/>
-    <col min="10" max="11" width="16" customWidth="1"/>
-    <col min="12" max="12" width="13" customWidth="1"/>
-    <col min="13" max="13" width="9.875" customWidth="1"/>
-    <col min="14" max="14" width="42.875" customWidth="1"/>
-    <col min="15" max="15" width="25.125" customWidth="1"/>
+    <col min="10" max="10" width="16" customWidth="1"/>
+    <col min="11" max="11" width="10.375" customWidth="1"/>
+    <col min="12" max="12" width="16" customWidth="1"/>
+    <col min="13" max="13" width="13" customWidth="1"/>
+    <col min="14" max="14" width="9.875" customWidth="1"/>
+    <col min="15" max="15" width="42.875" customWidth="1"/>
+    <col min="16" max="16" width="25.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1164,37 +1181,40 @@
       <c r="N1" t="s">
         <v>13</v>
       </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:15">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" t="s">
         <v>16</v>
       </c>
-      <c r="E2" t="s">
+      <c r="G2" t="s">
         <v>17</v>
       </c>
-      <c r="F2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" t="s">
-        <v>16</v>
-      </c>
       <c r="H2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2" t="s">
         <v>17</v>
-      </c>
-      <c r="I2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J2" t="s">
-        <v>16</v>
       </c>
       <c r="K2" t="s">
         <v>15</v>
@@ -1203,57 +1223,63 @@
         <v>16</v>
       </c>
       <c r="M2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="N2" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="O2" t="s">
+        <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N3" t="s">
-        <v>31</v>
+        <v>32</v>
+      </c>
+      <c r="O3" t="s">
+        <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:15">
       <c r="A4">
         <v>2000001</v>
       </c>
@@ -1264,7 +1290,9 @@
       <c r="F4">
         <v>2</v>
       </c>
-      <c r="G4"/>
+      <c r="G4" t="s">
+        <v>34</v>
+      </c>
       <c r="H4">
         <v>0</v>
       </c>
@@ -1272,23 +1300,29 @@
         <v>0</v>
       </c>
       <c r="K4">
+        <v>22000001</v>
+      </c>
+      <c r="L4">
         <v>1</v>
       </c>
-      <c r="L4" t="s">
-        <v>32</v>
-      </c>
-      <c r="M4"/>
-      <c r="N4" t="s">
-        <v>33</v>
+      <c r="M4" t="s">
+        <v>35</v>
+      </c>
+      <c r="N4"/>
+      <c r="O4" t="s">
+        <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:15">
       <c r="A5">
         <v>2000002</v>
       </c>
       <c r="F5">
         <v>2</v>
       </c>
+      <c r="G5" t="s">
+        <v>37</v>
+      </c>
       <c r="H5">
         <v>0</v>
       </c>
@@ -1299,22 +1333,28 @@
         <v>2000001</v>
       </c>
       <c r="K5">
+        <v>22000002</v>
+      </c>
+      <c r="L5">
         <v>2</v>
       </c>
-      <c r="L5" t="s">
-        <v>32</v>
-      </c>
-      <c r="N5" t="s">
-        <v>33</v>
+      <c r="M5" t="s">
+        <v>35</v>
+      </c>
+      <c r="O5" t="s">
+        <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:15">
       <c r="A6">
         <v>2000003</v>
       </c>
       <c r="F6">
         <v>2</v>
       </c>
+      <c r="G6" t="s">
+        <v>38</v>
+      </c>
       <c r="H6">
         <v>0</v>
       </c>
@@ -1325,22 +1365,28 @@
         <v>2000002</v>
       </c>
       <c r="K6">
+        <v>22000003</v>
+      </c>
+      <c r="L6">
         <v>3</v>
       </c>
-      <c r="L6" t="s">
-        <v>32</v>
-      </c>
-      <c r="N6" t="s">
-        <v>33</v>
+      <c r="M6" t="s">
+        <v>35</v>
+      </c>
+      <c r="O6" t="s">
+        <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:15">
       <c r="A7">
         <v>2000004</v>
       </c>
       <c r="F7">
         <v>2</v>
       </c>
+      <c r="G7" t="s">
+        <v>38</v>
+      </c>
       <c r="H7">
         <v>0</v>
       </c>
@@ -1351,22 +1397,28 @@
         <v>2000003</v>
       </c>
       <c r="K7">
+        <v>22000004</v>
+      </c>
+      <c r="L7">
         <v>4</v>
       </c>
-      <c r="L7" t="s">
-        <v>32</v>
-      </c>
-      <c r="N7" t="s">
-        <v>33</v>
+      <c r="M7" t="s">
+        <v>35</v>
+      </c>
+      <c r="O7" t="s">
+        <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:15">
       <c r="A8">
         <v>2000005</v>
       </c>
       <c r="F8">
         <v>2</v>
       </c>
+      <c r="G8" t="s">
+        <v>38</v>
+      </c>
       <c r="H8">
         <v>0</v>
       </c>
@@ -1377,22 +1429,28 @@
         <v>2000004</v>
       </c>
       <c r="K8">
+        <v>22000005</v>
+      </c>
+      <c r="L8">
         <v>5</v>
       </c>
-      <c r="L8" t="s">
-        <v>32</v>
-      </c>
-      <c r="N8" t="s">
-        <v>33</v>
+      <c r="M8" t="s">
+        <v>35</v>
+      </c>
+      <c r="O8" t="s">
+        <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:15">
       <c r="A9">
         <v>2000006</v>
       </c>
       <c r="F9">
         <v>2</v>
       </c>
+      <c r="G9" t="s">
+        <v>38</v>
+      </c>
       <c r="H9">
         <v>0</v>
       </c>
@@ -1403,22 +1461,28 @@
         <v>2000005</v>
       </c>
       <c r="K9">
+        <v>22000006</v>
+      </c>
+      <c r="L9">
         <v>6</v>
       </c>
-      <c r="L9" t="s">
-        <v>32</v>
-      </c>
-      <c r="N9" t="s">
-        <v>33</v>
+      <c r="M9" t="s">
+        <v>35</v>
+      </c>
+      <c r="O9" t="s">
+        <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:15">
       <c r="A10">
         <v>2000007</v>
       </c>
       <c r="F10">
         <v>2</v>
       </c>
+      <c r="G10" t="s">
+        <v>38</v>
+      </c>
       <c r="H10">
         <v>0</v>
       </c>
@@ -1429,22 +1493,28 @@
         <v>2000006</v>
       </c>
       <c r="K10">
+        <v>22000007</v>
+      </c>
+      <c r="L10">
         <v>7</v>
       </c>
-      <c r="L10" t="s">
-        <v>32</v>
-      </c>
-      <c r="N10" t="s">
-        <v>33</v>
+      <c r="M10" t="s">
+        <v>35</v>
+      </c>
+      <c r="O10" t="s">
+        <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:15">
       <c r="A11">
         <v>2000008</v>
       </c>
       <c r="F11">
         <v>2</v>
       </c>
+      <c r="G11" t="s">
+        <v>38</v>
+      </c>
       <c r="H11">
         <v>0</v>
       </c>
@@ -1455,22 +1525,28 @@
         <v>2000007</v>
       </c>
       <c r="K11">
+        <v>22000008</v>
+      </c>
+      <c r="L11">
         <v>8</v>
       </c>
-      <c r="L11" t="s">
-        <v>32</v>
-      </c>
-      <c r="N11" t="s">
-        <v>33</v>
+      <c r="M11" t="s">
+        <v>35</v>
+      </c>
+      <c r="O11" t="s">
+        <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:15">
       <c r="A12">
         <v>2000009</v>
       </c>
       <c r="F12">
         <v>2</v>
       </c>
+      <c r="G12" t="s">
+        <v>38</v>
+      </c>
       <c r="H12">
         <v>0</v>
       </c>
@@ -1481,22 +1557,28 @@
         <v>2000008</v>
       </c>
       <c r="K12">
+        <v>22000009</v>
+      </c>
+      <c r="L12">
         <v>9</v>
       </c>
-      <c r="L12" t="s">
-        <v>32</v>
-      </c>
-      <c r="N12" t="s">
-        <v>33</v>
+      <c r="M12" t="s">
+        <v>35</v>
+      </c>
+      <c r="O12" t="s">
+        <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:15">
       <c r="A13">
         <v>2000010</v>
       </c>
       <c r="F13">
         <v>2</v>
       </c>
+      <c r="G13" t="s">
+        <v>38</v>
+      </c>
       <c r="H13">
         <v>0</v>
       </c>
@@ -1507,13 +1589,16 @@
         <v>2000009</v>
       </c>
       <c r="K13">
+        <v>22000010</v>
+      </c>
+      <c r="L13">
         <v>10</v>
       </c>
-      <c r="L13" t="s">
-        <v>32</v>
-      </c>
-      <c r="N13" t="s">
-        <v>33</v>
+      <c r="M13" t="s">
+        <v>35</v>
+      </c>
+      <c r="O13" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="30" ht="15" customHeight="1"/>
@@ -1537,7 +1622,7 @@
     <row r="79" ht="12" customHeight="1"/>
     <row r="80" ht="12" customHeight="1"/>
   </sheetData>
-  <sortState ref="A4:T88">
+  <sortState ref="A4:U88">
     <sortCondition ref="A4"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Demon Lord Roguelike/Assets/Data/Excel/excel_research_info[研究信息].xlsx
+++ b/Demon Lord Roguelike/Assets/Data/Excel/excel_research_info[研究信息].xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="43">
   <si>
     <t>id</t>
   </si>
@@ -134,13 +134,25 @@
     <t>ui_creature_class_1</t>
   </si>
   <si>
+    <t>解锁进阶设施</t>
+  </si>
+  <si>
+    <t>设施-解锁</t>
+  </si>
+  <si>
+    <t>进阶设施+1</t>
+  </si>
+  <si>
+    <t>ui_creature_class_2</t>
+  </si>
+  <si>
+    <t>解锁献祭设施</t>
+  </si>
+  <si>
     <t>阵容上限+1</t>
   </si>
   <si>
     <t>强化-阵容上限</t>
-  </si>
-  <si>
-    <t>ui_creature_class_2</t>
   </si>
   <si>
     <t>ui_creature_class_4</t>
@@ -1111,16 +1123,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O80"/>
+  <dimension ref="A1:O87"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="F1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="G24" sqref="G24"/>
+      <selection pane="topRight" activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
+    <col min="1" max="1" width="9.375"/>
     <col min="2" max="2" width="45.375" customWidth="1"/>
     <col min="3" max="3" width="21.25" customWidth="1"/>
     <col min="4" max="4" width="17.5" customWidth="1"/>
@@ -1281,14 +1294,10 @@
     </row>
     <row r="4" spans="1:15">
       <c r="A4">
-        <v>2000001</v>
-      </c>
-      <c r="B4"/>
-      <c r="C4"/>
-      <c r="D4"/>
-      <c r="E4"/>
+        <v>1000001</v>
+      </c>
       <c r="F4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G4" t="s">
         <v>34</v>
@@ -1300,28 +1309,27 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>22000001</v>
+        <v>21000001</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="M4" t="s">
         <v>35</v>
       </c>
-      <c r="N4"/>
       <c r="O4" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5">
-        <v>2000002</v>
+        <v>1000002</v>
       </c>
       <c r="F5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -1330,30 +1338,30 @@
         <v>200</v>
       </c>
       <c r="J5">
-        <v>2000001</v>
+        <v>21000001</v>
       </c>
       <c r="K5">
-        <v>22000002</v>
+        <v>21000002</v>
       </c>
       <c r="L5">
-        <v>2</v>
+        <v>500</v>
       </c>
       <c r="M5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="O5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6">
-        <v>2000003</v>
+        <v>1000003</v>
       </c>
       <c r="F6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G6" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -1362,30 +1370,30 @@
         <v>400</v>
       </c>
       <c r="J6">
-        <v>2000002</v>
+        <v>21000002</v>
       </c>
       <c r="K6">
-        <v>22000003</v>
+        <v>21000003</v>
       </c>
       <c r="L6">
-        <v>3</v>
+        <v>1000</v>
       </c>
       <c r="M6" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="O6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7">
-        <v>2000004</v>
+        <v>1000004</v>
       </c>
       <c r="F7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G7" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -1394,30 +1402,30 @@
         <v>600</v>
       </c>
       <c r="J7">
-        <v>2000003</v>
+        <v>21000003</v>
       </c>
       <c r="K7">
-        <v>22000004</v>
+        <v>21000004</v>
       </c>
       <c r="L7">
-        <v>4</v>
+        <v>2000</v>
       </c>
       <c r="M7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="O7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:15">
       <c r="A8">
-        <v>2000005</v>
+        <v>1000005</v>
       </c>
       <c r="F8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G8" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -1426,30 +1434,30 @@
         <v>800</v>
       </c>
       <c r="J8">
-        <v>2000004</v>
+        <v>21000004</v>
       </c>
       <c r="K8">
-        <v>22000005</v>
+        <v>21000005</v>
       </c>
       <c r="L8">
-        <v>5</v>
+        <v>3000</v>
       </c>
       <c r="M8" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="O8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:15">
       <c r="A9">
-        <v>2000006</v>
+        <v>1000006</v>
       </c>
       <c r="F9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G9" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -1458,48 +1466,45 @@
         <v>1000</v>
       </c>
       <c r="J9">
-        <v>2000005</v>
+        <v>21000005</v>
       </c>
       <c r="K9">
-        <v>22000006</v>
+        <v>21000006</v>
       </c>
       <c r="L9">
-        <v>6</v>
+        <v>6000</v>
       </c>
       <c r="M9" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="O9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:15">
       <c r="A10">
-        <v>2000007</v>
+        <v>1001001</v>
       </c>
       <c r="F10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G10" t="s">
         <v>38</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="I10">
-        <v>1200</v>
-      </c>
-      <c r="J10">
-        <v>2000006</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>22000007</v>
+        <v>21001001</v>
       </c>
       <c r="L10">
-        <v>7</v>
+        <v>100</v>
       </c>
       <c r="M10" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="O10" t="s">
         <v>36</v>
@@ -1507,39 +1512,36 @@
     </row>
     <row r="11" spans="1:15">
       <c r="A11">
-        <v>2000008</v>
+        <v>2000001</v>
       </c>
       <c r="F11">
         <v>2</v>
       </c>
       <c r="G11" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>1400</v>
-      </c>
-      <c r="J11">
-        <v>2000007</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>22000008</v>
+        <v>22000001</v>
       </c>
       <c r="L11">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="M11" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="O11" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:15">
       <c r="A12">
-        <v>2000009</v>
+        <v>2000002</v>
       </c>
       <c r="F12">
         <v>2</v>
@@ -1551,76 +1553,300 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>1600</v>
+        <v>200</v>
       </c>
       <c r="J12">
-        <v>2000008</v>
+        <v>2000001</v>
       </c>
       <c r="K12">
-        <v>22000009</v>
+        <v>22000002</v>
       </c>
       <c r="L12">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="M12" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="O12" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:15">
       <c r="A13">
-        <v>2000010</v>
+        <v>2000003</v>
       </c>
       <c r="F13">
         <v>2</v>
       </c>
       <c r="G13" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
+        <v>400</v>
+      </c>
+      <c r="J13">
+        <v>2000002</v>
+      </c>
+      <c r="K13">
+        <v>22000003</v>
+      </c>
+      <c r="L13">
+        <v>3</v>
+      </c>
+      <c r="M13" t="s">
+        <v>40</v>
+      </c>
+      <c r="O13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
+      <c r="A14">
+        <v>2000004</v>
+      </c>
+      <c r="F14">
+        <v>2</v>
+      </c>
+      <c r="G14" t="s">
+        <v>42</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>600</v>
+      </c>
+      <c r="J14">
+        <v>2000003</v>
+      </c>
+      <c r="K14">
+        <v>22000004</v>
+      </c>
+      <c r="L14">
+        <v>4</v>
+      </c>
+      <c r="M14" t="s">
+        <v>40</v>
+      </c>
+      <c r="O14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
+      <c r="A15">
+        <v>2000005</v>
+      </c>
+      <c r="F15">
+        <v>2</v>
+      </c>
+      <c r="G15" t="s">
+        <v>42</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>800</v>
+      </c>
+      <c r="J15">
+        <v>2000004</v>
+      </c>
+      <c r="K15">
+        <v>22000005</v>
+      </c>
+      <c r="L15">
+        <v>5</v>
+      </c>
+      <c r="M15" t="s">
+        <v>40</v>
+      </c>
+      <c r="O15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
+      <c r="A16">
+        <v>2000006</v>
+      </c>
+      <c r="F16">
+        <v>2</v>
+      </c>
+      <c r="G16" t="s">
+        <v>42</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>1000</v>
+      </c>
+      <c r="J16">
+        <v>2000005</v>
+      </c>
+      <c r="K16">
+        <v>22000006</v>
+      </c>
+      <c r="L16">
+        <v>6</v>
+      </c>
+      <c r="M16" t="s">
+        <v>40</v>
+      </c>
+      <c r="O16" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
+      <c r="A17">
+        <v>2000007</v>
+      </c>
+      <c r="F17">
+        <v>2</v>
+      </c>
+      <c r="G17" t="s">
+        <v>42</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>1200</v>
+      </c>
+      <c r="J17">
+        <v>2000006</v>
+      </c>
+      <c r="K17">
+        <v>22000007</v>
+      </c>
+      <c r="L17">
+        <v>7</v>
+      </c>
+      <c r="M17" t="s">
+        <v>40</v>
+      </c>
+      <c r="O17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
+      <c r="A18">
+        <v>2000008</v>
+      </c>
+      <c r="F18">
+        <v>2</v>
+      </c>
+      <c r="G18" t="s">
+        <v>42</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>1400</v>
+      </c>
+      <c r="J18">
+        <v>2000007</v>
+      </c>
+      <c r="K18">
+        <v>22000008</v>
+      </c>
+      <c r="L18">
+        <v>8</v>
+      </c>
+      <c r="M18" t="s">
+        <v>40</v>
+      </c>
+      <c r="O18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
+      <c r="A19">
+        <v>2000009</v>
+      </c>
+      <c r="F19">
+        <v>2</v>
+      </c>
+      <c r="G19" t="s">
+        <v>42</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>1600</v>
+      </c>
+      <c r="J19">
+        <v>2000008</v>
+      </c>
+      <c r="K19">
+        <v>22000009</v>
+      </c>
+      <c r="L19">
+        <v>9</v>
+      </c>
+      <c r="M19" t="s">
+        <v>40</v>
+      </c>
+      <c r="O19" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
+      <c r="A20">
+        <v>2000010</v>
+      </c>
+      <c r="F20">
+        <v>2</v>
+      </c>
+      <c r="G20" t="s">
+        <v>42</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
         <v>1800</v>
       </c>
-      <c r="J13">
+      <c r="J20">
         <v>2000009</v>
       </c>
-      <c r="K13">
+      <c r="K20">
         <v>22000010</v>
       </c>
-      <c r="L13">
+      <c r="L20">
         <v>10</v>
       </c>
-      <c r="M13" t="s">
-        <v>35</v>
-      </c>
-      <c r="O13" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="30" ht="15" customHeight="1"/>
-    <row r="31" ht="15" customHeight="1"/>
-    <row r="32" ht="15" customHeight="1"/>
-    <row r="33" ht="15" customHeight="1"/>
-    <row r="34" ht="15" customHeight="1"/>
-    <row r="35" ht="15" customHeight="1"/>
-    <row r="36" ht="15" customHeight="1"/>
+      <c r="M20" t="s">
+        <v>40</v>
+      </c>
+      <c r="O20" t="s">
+        <v>41</v>
+      </c>
+    </row>
     <row r="37" ht="15" customHeight="1"/>
     <row r="38" ht="15" customHeight="1"/>
     <row r="39" ht="15" customHeight="1"/>
     <row r="40" ht="15" customHeight="1"/>
-    <row r="72" ht="12" customHeight="1"/>
-    <row r="73" ht="12" customHeight="1"/>
-    <row r="74" ht="12" customHeight="1"/>
-    <row r="75" ht="12" customHeight="1"/>
-    <row r="76" ht="12" customHeight="1"/>
-    <row r="77" ht="12" customHeight="1"/>
-    <row r="78" ht="12" customHeight="1"/>
+    <row r="41" ht="15" customHeight="1"/>
+    <row r="42" ht="15" customHeight="1"/>
+    <row r="43" ht="15" customHeight="1"/>
+    <row r="44" ht="15" customHeight="1"/>
+    <row r="45" ht="15" customHeight="1"/>
+    <row r="46" ht="15" customHeight="1"/>
+    <row r="47" ht="15" customHeight="1"/>
     <row r="79" ht="12" customHeight="1"/>
     <row r="80" ht="12" customHeight="1"/>
+    <row r="81" ht="12" customHeight="1"/>
+    <row r="82" ht="12" customHeight="1"/>
+    <row r="83" ht="12" customHeight="1"/>
+    <row r="84" ht="12" customHeight="1"/>
+    <row r="85" ht="12" customHeight="1"/>
+    <row r="86" ht="12" customHeight="1"/>
+    <row r="87" ht="12" customHeight="1"/>
   </sheetData>
   <sortState ref="A4:U88">
     <sortCondition ref="A4"/>

--- a/Demon Lord Roguelike/Assets/Data/Excel/excel_research_info[研究信息].xlsx
+++ b/Demon Lord Roguelike/Assets/Data/Excel/excel_research_info[研究信息].xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
@@ -1126,7 +1126,7 @@
   <dimension ref="A1:O87"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="F1" activePane="topRight" state="frozen"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection/>
       <selection pane="topRight" activeCell="A10" sqref="A10"/>
     </sheetView>

--- a/Demon Lord Roguelike/Assets/Data/Excel/excel_research_info[研究信息].xlsx
+++ b/Demon Lord Roguelike/Assets/Data/Excel/excel_research_info[研究信息].xlsx
@@ -1128,7 +1128,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="A10" sqref="A10"/>
+      <selection pane="topRight" activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/Demon Lord Roguelike/Assets/Data/Excel/excel_research_info[研究信息].xlsx
+++ b/Demon Lord Roguelike/Assets/Data/Excel/excel_research_info[研究信息].xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255"/>
+    <workbookView windowHeight="17655"/>
   </bookViews>
   <sheets>
     <sheet name="ResearchInfo" sheetId="1" r:id="rId1"/>
@@ -32,18 +32,6 @@
     <t>id</t>
   </si>
   <si>
-    <t>creature_type</t>
-  </si>
-  <si>
-    <t>create_magic</t>
-  </si>
-  <si>
-    <t>name_res</t>
-  </si>
-  <si>
-    <t>speed_move</t>
-  </si>
-  <si>
     <t>research_type</t>
   </si>
   <si>
@@ -56,19 +44,16 @@
     <t>position_y</t>
   </si>
   <si>
-    <t>pre_research_ids</t>
-  </si>
-  <si>
     <t>unlock_id</t>
   </si>
   <si>
+    <t>pre_unlock_ids</t>
+  </si>
+  <si>
     <t>pay_crystal</t>
   </si>
   <si>
-    <t>name_cn</t>
-  </si>
-  <si>
-    <t>name_en</t>
+    <t>name[language]</t>
   </si>
   <si>
     <t>remark</t>
@@ -89,18 +74,6 @@
     <t>序号</t>
   </si>
   <si>
-    <t>生物类型1：防御 2进攻</t>
-  </si>
-  <si>
-    <t>创建魔力</t>
-  </si>
-  <si>
-    <t>内容</t>
-  </si>
-  <si>
-    <t>移动速度</t>
-  </si>
-  <si>
     <t>类型 1设施 2强化 3魔物</t>
   </si>
   <si>
@@ -113,49 +86,76 @@
     <t>位置y</t>
   </si>
   <si>
+    <t>解锁的ID</t>
+  </si>
+  <si>
     <t>前置条件</t>
   </si>
   <si>
-    <t>解锁的ID</t>
-  </si>
-  <si>
     <t>需要支付的水晶</t>
   </si>
   <si>
     <t>名字-中文</t>
   </si>
   <si>
-    <t>名字-英文</t>
-  </si>
-  <si>
     <t>备注</t>
   </si>
   <si>
-    <t>ui_creature_class_1</t>
-  </si>
-  <si>
-    <t>解锁进阶设施</t>
-  </si>
-  <si>
-    <t>设施-解锁</t>
+    <t>ui_research_1</t>
+  </si>
+  <si>
+    <t>开启进阶设施</t>
+  </si>
+  <si>
+    <t>ui_research_2</t>
   </si>
   <si>
     <t>进阶设施+1</t>
   </si>
   <si>
-    <t>ui_creature_class_2</t>
-  </si>
-  <si>
-    <t>解锁献祭设施</t>
+    <t>ui_research_3</t>
+  </si>
+  <si>
+    <t>开启献祭设施</t>
+  </si>
+  <si>
+    <t>ui_research_7</t>
+  </si>
+  <si>
+    <t>开启终焉议会</t>
+  </si>
+  <si>
+    <t>ui_research_8</t>
+  </si>
+  <si>
+    <t>传送门可选择世界+1</t>
+  </si>
+  <si>
+    <t>ui_research_5</t>
   </si>
   <si>
     <t>阵容上限+1</t>
   </si>
   <si>
-    <t>强化-阵容上限</t>
-  </si>
-  <si>
-    <t>ui_creature_class_4</t>
+    <t>ui_research_6</t>
+  </si>
+  <si>
+    <t>解锁第二阵容</t>
+  </si>
+  <si>
+    <t>解锁第三阵容</t>
+  </si>
+  <si>
+    <t>解锁第四阵容</t>
+  </si>
+  <si>
+    <t>解锁第五阵容</t>
+  </si>
+  <si>
+    <t>ui_research_4</t>
+  </si>
+  <si>
+    <t>种族：人类</t>
   </si>
 </sst>
 </file>
@@ -1123,35 +1123,30 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O87"/>
+  <dimension ref="A1:J98"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="G20" sqref="G20"/>
+      <selection pane="topRight" activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="9.375"/>
-    <col min="2" max="2" width="45.375" customWidth="1"/>
-    <col min="3" max="3" width="21.25" customWidth="1"/>
-    <col min="4" max="4" width="17.5" customWidth="1"/>
-    <col min="5" max="5" width="19.75" customWidth="1"/>
-    <col min="6" max="6" width="23.75" customWidth="1"/>
-    <col min="7" max="7" width="21.5" customWidth="1"/>
-    <col min="8" max="8" width="11.5" customWidth="1"/>
-    <col min="9" max="9" width="9.375" customWidth="1"/>
-    <col min="10" max="10" width="16" customWidth="1"/>
-    <col min="11" max="11" width="10.375" customWidth="1"/>
-    <col min="12" max="12" width="16" customWidth="1"/>
-    <col min="13" max="13" width="13" customWidth="1"/>
-    <col min="14" max="14" width="9.875" customWidth="1"/>
-    <col min="15" max="15" width="42.875" customWidth="1"/>
-    <col min="16" max="16" width="25.125" customWidth="1"/>
+    <col min="1" max="1" width="37.75" customWidth="1"/>
+    <col min="2" max="2" width="23.75" customWidth="1"/>
+    <col min="3" max="3" width="21.5" customWidth="1"/>
+    <col min="4" max="4" width="11.5" customWidth="1"/>
+    <col min="5" max="5" width="9.375" customWidth="1"/>
+    <col min="6" max="6" width="11.5" customWidth="1"/>
+    <col min="7" max="7" width="18.25" customWidth="1"/>
+    <col min="8" max="8" width="16" customWidth="1"/>
+    <col min="9" max="9" width="20" customWidth="1"/>
+    <col min="10" max="10" width="42.875" customWidth="1"/>
+    <col min="11" max="11" width="25.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1182,671 +1177,1126 @@
       <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="B2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="C2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="D2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="E2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
-      <c r="A2" t="s">
+      <c r="B3" t="s">
         <v>15</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C3" t="s">
         <v>16</v>
       </c>
-      <c r="C2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="D3" t="s">
         <v>17</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E3" t="s">
         <v>18</v>
       </c>
-      <c r="F2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J2" t="s">
-        <v>17</v>
-      </c>
-      <c r="K2" t="s">
-        <v>15</v>
-      </c>
-      <c r="L2" t="s">
-        <v>16</v>
-      </c>
-      <c r="M2" t="s">
-        <v>17</v>
-      </c>
-      <c r="N2" t="s">
-        <v>17</v>
-      </c>
-      <c r="O2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
-      <c r="A3" t="s">
+      <c r="F3" t="s">
         <v>19</v>
       </c>
-      <c r="B3" t="s">
+      <c r="G3" t="s">
         <v>20</v>
       </c>
-      <c r="C3" t="s">
+      <c r="H3" t="s">
         <v>21</v>
       </c>
-      <c r="D3" t="s">
+      <c r="I3" t="s">
         <v>22</v>
       </c>
-      <c r="E3" t="s">
+      <c r="J3" t="s">
         <v>23</v>
       </c>
-      <c r="F3" t="s">
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4">
+        <v>100000001</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
         <v>24</v>
       </c>
-      <c r="G3" t="s">
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>100000001</v>
+      </c>
+      <c r="H4">
+        <v>100</v>
+      </c>
+      <c r="I4">
+        <v>100000001</v>
+      </c>
+      <c r="J4" t="s">
         <v>25</v>
       </c>
-      <c r="H3" t="s">
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5">
+        <v>100000002</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
         <v>26</v>
       </c>
-      <c r="I3" t="s">
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>200</v>
+      </c>
+      <c r="F5">
+        <v>100000002</v>
+      </c>
+      <c r="G5">
+        <v>2100000001</v>
+      </c>
+      <c r="H5">
+        <v>100</v>
+      </c>
+      <c r="I5">
+        <v>100000002</v>
+      </c>
+      <c r="J5" t="s">
         <v>27</v>
       </c>
-      <c r="J3" t="s">
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6">
+        <v>100000003</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>400</v>
+      </c>
+      <c r="F6">
+        <v>100000003</v>
+      </c>
+      <c r="G6">
+        <v>2100000002</v>
+      </c>
+      <c r="H6">
+        <v>100</v>
+      </c>
+      <c r="I6">
+        <v>100000003</v>
+      </c>
+      <c r="J6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7">
+        <v>100000004</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>600</v>
+      </c>
+      <c r="F7">
+        <v>100000004</v>
+      </c>
+      <c r="G7">
+        <v>2100000003</v>
+      </c>
+      <c r="H7">
+        <v>100</v>
+      </c>
+      <c r="I7">
+        <v>100000004</v>
+      </c>
+      <c r="J7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8">
+        <v>100000005</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>800</v>
+      </c>
+      <c r="F8">
+        <v>100000005</v>
+      </c>
+      <c r="G8">
+        <v>2100000004</v>
+      </c>
+      <c r="H8">
+        <v>100</v>
+      </c>
+      <c r="I8">
+        <v>100000005</v>
+      </c>
+      <c r="J8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9">
+        <v>100000006</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>1000</v>
+      </c>
+      <c r="F9">
+        <v>100000006</v>
+      </c>
+      <c r="G9">
+        <v>2100000005</v>
+      </c>
+      <c r="H9">
+        <v>100</v>
+      </c>
+      <c r="I9">
+        <v>100000006</v>
+      </c>
+      <c r="J9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10">
+        <v>100100001</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
         <v>28</v>
       </c>
-      <c r="K3" t="s">
+      <c r="D10">
+        <v>200</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>100100001</v>
+      </c>
+      <c r="H10">
+        <v>100</v>
+      </c>
+      <c r="I10">
+        <v>100100001</v>
+      </c>
+      <c r="J10" t="s">
         <v>29</v>
       </c>
-      <c r="L3" t="s">
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11">
+        <v>100200001</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
         <v>30</v>
       </c>
-      <c r="M3" t="s">
+      <c r="D11">
+        <v>200</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>100200001</v>
+      </c>
+      <c r="H11">
+        <v>100</v>
+      </c>
+      <c r="I11">
+        <v>100200001</v>
+      </c>
+      <c r="J11" t="s">
         <v>31</v>
       </c>
-      <c r="N3" t="s">
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12">
+        <v>100300001</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12" t="s">
         <v>32</v>
       </c>
-      <c r="O3" t="s">
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>100300001</v>
+      </c>
+      <c r="H12">
+        <v>100</v>
+      </c>
+      <c r="I12">
+        <v>100300001</v>
+      </c>
+      <c r="J12" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
-      <c r="A4">
-        <v>1000001</v>
-      </c>
-      <c r="F4">
+    <row r="13" spans="1:10">
+      <c r="A13">
+        <v>100300002</v>
+      </c>
+      <c r="B13">
         <v>1</v>
       </c>
-      <c r="G4" t="s">
+      <c r="C13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>100300002</v>
+      </c>
+      <c r="G13">
+        <v>2100300001</v>
+      </c>
+      <c r="H13">
+        <v>100</v>
+      </c>
+      <c r="I13">
+        <v>100300002</v>
+      </c>
+      <c r="J13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14">
+        <v>100300003</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14">
+        <v>2</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>100300003</v>
+      </c>
+      <c r="G14">
+        <v>2100300002</v>
+      </c>
+      <c r="H14">
+        <v>100</v>
+      </c>
+      <c r="I14">
+        <v>100300003</v>
+      </c>
+      <c r="J14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15">
+        <v>100300004</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15">
+        <v>3</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>100300004</v>
+      </c>
+      <c r="G15">
+        <v>2100300003</v>
+      </c>
+      <c r="H15">
+        <v>100</v>
+      </c>
+      <c r="I15">
+        <v>100300004</v>
+      </c>
+      <c r="J15" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16">
+        <v>100300005</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>32</v>
+      </c>
+      <c r="D16">
+        <v>4</v>
+      </c>
+      <c r="E16">
+        <v>4</v>
+      </c>
+      <c r="F16">
+        <v>100300005</v>
+      </c>
+      <c r="G16">
+        <v>2100300004</v>
+      </c>
+      <c r="H16">
+        <v>100</v>
+      </c>
+      <c r="I16">
+        <v>100300005</v>
+      </c>
+      <c r="J16" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17">
+        <v>100300006</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>32</v>
+      </c>
+      <c r="D17">
+        <v>5</v>
+      </c>
+      <c r="E17">
+        <v>5</v>
+      </c>
+      <c r="F17">
+        <v>100300006</v>
+      </c>
+      <c r="G17">
+        <v>2100300005</v>
+      </c>
+      <c r="H17">
+        <v>100</v>
+      </c>
+      <c r="I17">
+        <v>100300006</v>
+      </c>
+      <c r="J17" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18">
+        <v>100300007</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18" t="s">
+        <v>32</v>
+      </c>
+      <c r="D18">
+        <v>6</v>
+      </c>
+      <c r="E18">
+        <v>6</v>
+      </c>
+      <c r="F18">
+        <v>100300007</v>
+      </c>
+      <c r="G18">
+        <v>2100300006</v>
+      </c>
+      <c r="H18">
+        <v>100</v>
+      </c>
+      <c r="I18">
+        <v>100300007</v>
+      </c>
+      <c r="J18" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19">
+        <v>100300008</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19" t="s">
+        <v>32</v>
+      </c>
+      <c r="D19">
+        <v>7</v>
+      </c>
+      <c r="E19">
+        <v>7</v>
+      </c>
+      <c r="F19">
+        <v>100300008</v>
+      </c>
+      <c r="G19">
+        <v>2100300007</v>
+      </c>
+      <c r="H19">
+        <v>100</v>
+      </c>
+      <c r="I19">
+        <v>100300008</v>
+      </c>
+      <c r="J19" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20">
+        <v>100300009</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20" t="s">
+        <v>32</v>
+      </c>
+      <c r="D20">
+        <v>8</v>
+      </c>
+      <c r="E20">
+        <v>8</v>
+      </c>
+      <c r="F20">
+        <v>100300009</v>
+      </c>
+      <c r="G20">
+        <v>2100300008</v>
+      </c>
+      <c r="H20">
+        <v>100</v>
+      </c>
+      <c r="I20">
+        <v>100300009</v>
+      </c>
+      <c r="J20" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21">
+        <v>100300010</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21" t="s">
+        <v>32</v>
+      </c>
+      <c r="D21">
+        <v>9</v>
+      </c>
+      <c r="E21">
+        <v>9</v>
+      </c>
+      <c r="F21">
+        <v>100300010</v>
+      </c>
+      <c r="G21">
+        <v>2100300009</v>
+      </c>
+      <c r="H21">
+        <v>100</v>
+      </c>
+      <c r="I21">
+        <v>100300010</v>
+      </c>
+      <c r="J21" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" customFormat="1" spans="1:10">
+      <c r="A22">
+        <v>200000001</v>
+      </c>
+      <c r="B22">
+        <v>2</v>
+      </c>
+      <c r="C22" t="s">
         <v>34</v>
       </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="K4">
-        <v>21000001</v>
-      </c>
-      <c r="L4">
-        <v>100</v>
-      </c>
-      <c r="M4" t="s">
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>200</v>
+      </c>
+      <c r="F22">
+        <v>200000001</v>
+      </c>
+      <c r="H22">
+        <v>100</v>
+      </c>
+      <c r="I22">
+        <v>200000001</v>
+      </c>
+      <c r="J22" t="s">
         <v>35</v>
       </c>
-      <c r="O4" t="s">
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23">
+        <v>200000002</v>
+      </c>
+      <c r="B23">
+        <v>2</v>
+      </c>
+      <c r="C23" t="s">
+        <v>34</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>200</v>
+      </c>
+      <c r="F23">
+        <v>200000002</v>
+      </c>
+      <c r="G23">
+        <v>2200000001</v>
+      </c>
+      <c r="H23">
+        <v>100</v>
+      </c>
+      <c r="I23">
+        <v>200000002</v>
+      </c>
+      <c r="J23" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24">
+        <v>200000003</v>
+      </c>
+      <c r="B24">
+        <v>2</v>
+      </c>
+      <c r="C24" t="s">
+        <v>34</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>400</v>
+      </c>
+      <c r="F24">
+        <v>200000003</v>
+      </c>
+      <c r="G24">
+        <v>2200000002</v>
+      </c>
+      <c r="H24">
+        <v>100</v>
+      </c>
+      <c r="I24">
+        <v>200000003</v>
+      </c>
+      <c r="J24" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25">
+        <v>200000004</v>
+      </c>
+      <c r="B25">
+        <v>2</v>
+      </c>
+      <c r="C25" t="s">
+        <v>34</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>600</v>
+      </c>
+      <c r="F25">
+        <v>200000004</v>
+      </c>
+      <c r="G25">
+        <v>2200000003</v>
+      </c>
+      <c r="H25">
+        <v>100</v>
+      </c>
+      <c r="I25">
+        <v>200000004</v>
+      </c>
+      <c r="J25" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26">
+        <v>200000005</v>
+      </c>
+      <c r="B26">
+        <v>2</v>
+      </c>
+      <c r="C26" t="s">
+        <v>34</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>800</v>
+      </c>
+      <c r="F26">
+        <v>200000005</v>
+      </c>
+      <c r="G26">
+        <v>2200000004</v>
+      </c>
+      <c r="H26">
+        <v>100</v>
+      </c>
+      <c r="I26">
+        <v>200000005</v>
+      </c>
+      <c r="J26" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27">
+        <v>200000006</v>
+      </c>
+      <c r="B27">
+        <v>2</v>
+      </c>
+      <c r="C27" t="s">
+        <v>34</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>1000</v>
+      </c>
+      <c r="F27">
+        <v>200000006</v>
+      </c>
+      <c r="G27">
+        <v>2200000005</v>
+      </c>
+      <c r="H27">
+        <v>100</v>
+      </c>
+      <c r="I27">
+        <v>200000006</v>
+      </c>
+      <c r="J27" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28">
+        <v>200000007</v>
+      </c>
+      <c r="B28">
+        <v>2</v>
+      </c>
+      <c r="C28" t="s">
+        <v>34</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>1200</v>
+      </c>
+      <c r="F28">
+        <v>200000007</v>
+      </c>
+      <c r="G28">
+        <v>2200000006</v>
+      </c>
+      <c r="H28">
+        <v>100</v>
+      </c>
+      <c r="I28">
+        <v>200000007</v>
+      </c>
+      <c r="J28" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29">
+        <v>200000008</v>
+      </c>
+      <c r="B29">
+        <v>2</v>
+      </c>
+      <c r="C29" t="s">
+        <v>34</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>1400</v>
+      </c>
+      <c r="F29">
+        <v>200000008</v>
+      </c>
+      <c r="G29">
+        <v>2200000007</v>
+      </c>
+      <c r="H29">
+        <v>100</v>
+      </c>
+      <c r="I29">
+        <v>200000008</v>
+      </c>
+      <c r="J29" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30">
+        <v>200000009</v>
+      </c>
+      <c r="B30">
+        <v>2</v>
+      </c>
+      <c r="C30" t="s">
+        <v>34</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>1600</v>
+      </c>
+      <c r="F30">
+        <v>200000009</v>
+      </c>
+      <c r="G30">
+        <v>2200000008</v>
+      </c>
+      <c r="H30">
+        <v>100</v>
+      </c>
+      <c r="I30">
+        <v>200000009</v>
+      </c>
+      <c r="J30" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31">
+        <v>200000010</v>
+      </c>
+      <c r="B31">
+        <v>2</v>
+      </c>
+      <c r="C31" t="s">
+        <v>34</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>1800</v>
+      </c>
+      <c r="F31">
+        <v>200000010</v>
+      </c>
+      <c r="G31">
+        <v>2200000009</v>
+      </c>
+      <c r="H31">
+        <v>100</v>
+      </c>
+      <c r="I31">
+        <v>200000010</v>
+      </c>
+      <c r="J31" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="A32">
+        <v>200100001</v>
+      </c>
+      <c r="B32">
+        <v>2</v>
+      </c>
+      <c r="C32" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="5" spans="1:15">
-      <c r="A5">
-        <v>1000002</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5" t="s">
-        <v>34</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>200</v>
-      </c>
-      <c r="J5">
-        <v>21000001</v>
-      </c>
-      <c r="K5">
-        <v>21000002</v>
-      </c>
-      <c r="L5">
-        <v>500</v>
-      </c>
-      <c r="M5" t="s">
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>200100001</v>
+      </c>
+      <c r="H32">
+        <v>100</v>
+      </c>
+      <c r="I32">
+        <v>200100001</v>
+      </c>
+      <c r="J32" t="s">
         <v>37</v>
       </c>
-      <c r="O5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
-      <c r="A6">
-        <v>1000003</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6" t="s">
-        <v>34</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>400</v>
-      </c>
-      <c r="J6">
-        <v>21000002</v>
-      </c>
-      <c r="K6">
-        <v>21000003</v>
-      </c>
-      <c r="L6">
-        <v>1000</v>
-      </c>
-      <c r="M6" t="s">
-        <v>37</v>
-      </c>
-      <c r="O6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
-      <c r="A7">
-        <v>1000004</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7" t="s">
-        <v>34</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>600</v>
-      </c>
-      <c r="J7">
-        <v>21000003</v>
-      </c>
-      <c r="K7">
-        <v>21000004</v>
-      </c>
-      <c r="L7">
-        <v>2000</v>
-      </c>
-      <c r="M7" t="s">
-        <v>37</v>
-      </c>
-      <c r="O7" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
-      <c r="A8">
-        <v>1000005</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8" t="s">
-        <v>34</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <v>800</v>
-      </c>
-      <c r="J8">
-        <v>21000004</v>
-      </c>
-      <c r="K8">
-        <v>21000005</v>
-      </c>
-      <c r="L8">
-        <v>3000</v>
-      </c>
-      <c r="M8" t="s">
-        <v>37</v>
-      </c>
-      <c r="O8" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
-      <c r="A9">
-        <v>1000006</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9" t="s">
-        <v>34</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <v>1000</v>
-      </c>
-      <c r="J9">
-        <v>21000005</v>
-      </c>
-      <c r="K9">
-        <v>21000006</v>
-      </c>
-      <c r="L9">
-        <v>6000</v>
-      </c>
-      <c r="M9" t="s">
-        <v>37</v>
-      </c>
-      <c r="O9" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
-      <c r="A10">
-        <v>1001001</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10" t="s">
+    </row>
+    <row r="33" spans="1:10">
+      <c r="A33">
+        <v>200100002</v>
+      </c>
+      <c r="B33">
+        <v>2</v>
+      </c>
+      <c r="C33" t="s">
+        <v>36</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>200100002</v>
+      </c>
+      <c r="G33">
+        <v>2200100001</v>
+      </c>
+      <c r="H33">
+        <v>100</v>
+      </c>
+      <c r="I33">
+        <v>200100002</v>
+      </c>
+      <c r="J33" t="s">
         <v>38</v>
       </c>
-      <c r="H10">
-        <v>200</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="K10">
-        <v>21001001</v>
-      </c>
-      <c r="L10">
-        <v>100</v>
-      </c>
-      <c r="M10" t="s">
+    </row>
+    <row r="34" spans="1:10">
+      <c r="A34">
+        <v>200100003</v>
+      </c>
+      <c r="B34">
+        <v>2</v>
+      </c>
+      <c r="C34" t="s">
+        <v>36</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>200100003</v>
+      </c>
+      <c r="G34">
+        <v>2200100002</v>
+      </c>
+      <c r="H34">
+        <v>100</v>
+      </c>
+      <c r="I34">
+        <v>200100003</v>
+      </c>
+      <c r="J34" t="s">
         <v>39</v>
       </c>
-      <c r="O10" t="s">
+    </row>
+    <row r="35" spans="1:10">
+      <c r="A35">
+        <v>200100004</v>
+      </c>
+      <c r="B35">
+        <v>2</v>
+      </c>
+      <c r="C35" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="11" spans="1:15">
-      <c r="A11">
-        <v>2000001</v>
-      </c>
-      <c r="F11">
-        <v>2</v>
-      </c>
-      <c r="G11" t="s">
-        <v>34</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="I11">
-        <v>0</v>
-      </c>
-      <c r="K11">
-        <v>22000001</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11" t="s">
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>200100004</v>
+      </c>
+      <c r="G35">
+        <v>2200100003</v>
+      </c>
+      <c r="H35">
+        <v>100</v>
+      </c>
+      <c r="I35">
+        <v>200100004</v>
+      </c>
+      <c r="J35" t="s">
         <v>40</v>
       </c>
-      <c r="O11" t="s">
+    </row>
+    <row r="36" spans="1:10">
+      <c r="A36">
+        <v>300000000</v>
+      </c>
+      <c r="B36">
+        <v>3</v>
+      </c>
+      <c r="C36" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="12" spans="1:15">
-      <c r="A12">
-        <v>2000002</v>
-      </c>
-      <c r="F12">
-        <v>2</v>
-      </c>
-      <c r="G12" t="s">
-        <v>38</v>
-      </c>
-      <c r="H12">
-        <v>0</v>
-      </c>
-      <c r="I12">
-        <v>200</v>
-      </c>
-      <c r="J12">
-        <v>2000001</v>
-      </c>
-      <c r="K12">
-        <v>22000002</v>
-      </c>
-      <c r="L12">
-        <v>2</v>
-      </c>
-      <c r="M12" t="s">
-        <v>40</v>
-      </c>
-      <c r="O12" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
-      <c r="A13">
-        <v>2000003</v>
-      </c>
-      <c r="F13">
-        <v>2</v>
-      </c>
-      <c r="G13" t="s">
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>300000000</v>
+      </c>
+      <c r="H36">
+        <v>100</v>
+      </c>
+      <c r="I36">
+        <v>300000000</v>
+      </c>
+      <c r="J36" t="s">
         <v>42</v>
       </c>
-      <c r="H13">
-        <v>0</v>
-      </c>
-      <c r="I13">
-        <v>400</v>
-      </c>
-      <c r="J13">
-        <v>2000002</v>
-      </c>
-      <c r="K13">
-        <v>22000003</v>
-      </c>
-      <c r="L13">
-        <v>3</v>
-      </c>
-      <c r="M13" t="s">
-        <v>40</v>
-      </c>
-      <c r="O13" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
-      <c r="A14">
-        <v>2000004</v>
-      </c>
-      <c r="F14">
-        <v>2</v>
-      </c>
-      <c r="G14" t="s">
-        <v>42</v>
-      </c>
-      <c r="H14">
-        <v>0</v>
-      </c>
-      <c r="I14">
-        <v>600</v>
-      </c>
-      <c r="J14">
-        <v>2000003</v>
-      </c>
-      <c r="K14">
-        <v>22000004</v>
-      </c>
-      <c r="L14">
-        <v>4</v>
-      </c>
-      <c r="M14" t="s">
-        <v>40</v>
-      </c>
-      <c r="O14" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
-      <c r="A15">
-        <v>2000005</v>
-      </c>
-      <c r="F15">
-        <v>2</v>
-      </c>
-      <c r="G15" t="s">
-        <v>42</v>
-      </c>
-      <c r="H15">
-        <v>0</v>
-      </c>
-      <c r="I15">
-        <v>800</v>
-      </c>
-      <c r="J15">
-        <v>2000004</v>
-      </c>
-      <c r="K15">
-        <v>22000005</v>
-      </c>
-      <c r="L15">
-        <v>5</v>
-      </c>
-      <c r="M15" t="s">
-        <v>40</v>
-      </c>
-      <c r="O15" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
-      <c r="A16">
-        <v>2000006</v>
-      </c>
-      <c r="F16">
-        <v>2</v>
-      </c>
-      <c r="G16" t="s">
-        <v>42</v>
-      </c>
-      <c r="H16">
-        <v>0</v>
-      </c>
-      <c r="I16">
-        <v>1000</v>
-      </c>
-      <c r="J16">
-        <v>2000005</v>
-      </c>
-      <c r="K16">
-        <v>22000006</v>
-      </c>
-      <c r="L16">
-        <v>6</v>
-      </c>
-      <c r="M16" t="s">
-        <v>40</v>
-      </c>
-      <c r="O16" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
-      <c r="A17">
-        <v>2000007</v>
-      </c>
-      <c r="F17">
-        <v>2</v>
-      </c>
-      <c r="G17" t="s">
-        <v>42</v>
-      </c>
-      <c r="H17">
-        <v>0</v>
-      </c>
-      <c r="I17">
-        <v>1200</v>
-      </c>
-      <c r="J17">
-        <v>2000006</v>
-      </c>
-      <c r="K17">
-        <v>22000007</v>
-      </c>
-      <c r="L17">
-        <v>7</v>
-      </c>
-      <c r="M17" t="s">
-        <v>40</v>
-      </c>
-      <c r="O17" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
-      <c r="A18">
-        <v>2000008</v>
-      </c>
-      <c r="F18">
-        <v>2</v>
-      </c>
-      <c r="G18" t="s">
-        <v>42</v>
-      </c>
-      <c r="H18">
-        <v>0</v>
-      </c>
-      <c r="I18">
-        <v>1400</v>
-      </c>
-      <c r="J18">
-        <v>2000007</v>
-      </c>
-      <c r="K18">
-        <v>22000008</v>
-      </c>
-      <c r="L18">
-        <v>8</v>
-      </c>
-      <c r="M18" t="s">
-        <v>40</v>
-      </c>
-      <c r="O18" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
-      <c r="A19">
-        <v>2000009</v>
-      </c>
-      <c r="F19">
-        <v>2</v>
-      </c>
-      <c r="G19" t="s">
-        <v>42</v>
-      </c>
-      <c r="H19">
-        <v>0</v>
-      </c>
-      <c r="I19">
-        <v>1600</v>
-      </c>
-      <c r="J19">
-        <v>2000008</v>
-      </c>
-      <c r="K19">
-        <v>22000009</v>
-      </c>
-      <c r="L19">
-        <v>9</v>
-      </c>
-      <c r="M19" t="s">
-        <v>40</v>
-      </c>
-      <c r="O19" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
-      <c r="A20">
-        <v>2000010</v>
-      </c>
-      <c r="F20">
-        <v>2</v>
-      </c>
-      <c r="G20" t="s">
-        <v>42</v>
-      </c>
-      <c r="H20">
-        <v>0</v>
-      </c>
-      <c r="I20">
-        <v>1800</v>
-      </c>
-      <c r="J20">
-        <v>2000009</v>
-      </c>
-      <c r="K20">
-        <v>22000010</v>
-      </c>
-      <c r="L20">
-        <v>10</v>
-      </c>
-      <c r="M20" t="s">
-        <v>40</v>
-      </c>
-      <c r="O20" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="37" ht="15" customHeight="1"/>
-    <row r="38" ht="15" customHeight="1"/>
-    <row r="39" ht="15" customHeight="1"/>
-    <row r="40" ht="15" customHeight="1"/>
-    <row r="41" ht="15" customHeight="1"/>
-    <row r="42" ht="15" customHeight="1"/>
-    <row r="43" ht="15" customHeight="1"/>
-    <row r="44" ht="15" customHeight="1"/>
-    <row r="45" ht="15" customHeight="1"/>
-    <row r="46" ht="15" customHeight="1"/>
-    <row r="47" ht="15" customHeight="1"/>
-    <row r="79" ht="12" customHeight="1"/>
-    <row r="80" ht="12" customHeight="1"/>
-    <row r="81" ht="12" customHeight="1"/>
-    <row r="82" ht="12" customHeight="1"/>
-    <row r="83" ht="12" customHeight="1"/>
-    <row r="84" ht="12" customHeight="1"/>
-    <row r="85" ht="12" customHeight="1"/>
-    <row r="86" ht="12" customHeight="1"/>
-    <row r="87" ht="12" customHeight="1"/>
+    </row>
+    <row r="48" ht="15" customHeight="1"/>
+    <row r="49" ht="15" customHeight="1"/>
+    <row r="50" ht="15" customHeight="1"/>
+    <row r="51" ht="15" customHeight="1"/>
+    <row r="52" ht="15" customHeight="1"/>
+    <row r="53" ht="15" customHeight="1"/>
+    <row r="54" ht="15" customHeight="1"/>
+    <row r="55" ht="15" customHeight="1"/>
+    <row r="56" ht="15" customHeight="1"/>
+    <row r="57" ht="15" customHeight="1"/>
+    <row r="58" ht="15" customHeight="1"/>
+    <row r="90" ht="12" customHeight="1"/>
+    <row r="91" ht="12" customHeight="1"/>
+    <row r="92" ht="12" customHeight="1"/>
+    <row r="93" ht="12" customHeight="1"/>
+    <row r="94" ht="12" customHeight="1"/>
+    <row r="95" ht="12" customHeight="1"/>
+    <row r="96" ht="12" customHeight="1"/>
+    <row r="97" ht="12" customHeight="1"/>
+    <row r="98" ht="12" customHeight="1"/>
   </sheetData>
   <sortState ref="A4:U88">
     <sortCondition ref="A4"/>

--- a/Demon Lord Roguelike/Assets/Data/Excel/excel_research_info[研究信息].xlsx
+++ b/Demon Lord Roguelike/Assets/Data/Excel/excel_research_info[研究信息].xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17655"/>
+    <workbookView windowWidth="27945" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="ResearchInfo" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="61">
   <si>
     <t>id</t>
   </si>
@@ -38,6 +38,9 @@
     <t>icon_res</t>
   </si>
   <si>
+    <t>level_max</t>
+  </si>
+  <si>
     <t>position_x</t>
   </si>
   <si>
@@ -80,6 +83,9 @@
     <t>图标资源</t>
   </si>
   <si>
+    <t>升级上限</t>
+  </si>
+  <si>
     <t>位置x</t>
   </si>
   <si>
@@ -122,19 +128,10 @@
     <t>100</t>
   </si>
   <si>
+    <t>100,200,300,400,500,</t>
+  </si>
+  <si>
     <t>进阶设施+1</t>
-  </si>
-  <si>
-    <t>250</t>
-  </si>
-  <si>
-    <t>400</t>
-  </si>
-  <si>
-    <t>550</t>
-  </si>
-  <si>
-    <t>700</t>
   </si>
   <si>
     <t>ui_research_3</t>
@@ -230,6 +227,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -237,6 +235,7 @@
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -244,12 +243,14 @@
       <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -257,6 +258,7 @@
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -264,6 +266,7 @@
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -271,6 +274,7 @@
       <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -278,6 +282,7 @@
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -285,12 +290,14 @@
       <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -298,6 +305,7 @@
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -305,6 +313,7 @@
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -312,12 +321,14 @@
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -325,30 +336,35 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -802,158 +818,8 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="51">
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="1" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="2" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="3" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="4" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="5" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="6" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="7" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="2" applyFill="1" borderId="1" applyBorder="1" xfId="8" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="9" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="4" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="10" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="5" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="11" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="0" applyFill="1" borderId="2" applyBorder="1" xfId="12" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="7" applyFont="1" fillId="0" applyFill="1" borderId="2" applyBorder="1" xfId="13" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="8" applyFont="1" fillId="0" applyFill="1" borderId="3" applyBorder="1" xfId="14" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="8" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="15" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="9" applyFont="1" fillId="3" applyFill="1" borderId="4" applyBorder="1" xfId="16" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="10" applyFont="1" fillId="4" applyFill="1" borderId="5" applyBorder="1" xfId="17" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="11" applyFont="1" fillId="4" applyFill="1" borderId="4" applyBorder="1" xfId="18" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="12" applyFont="1" fillId="5" applyFill="1" borderId="6" applyBorder="1" xfId="19" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="13" applyFont="1" fillId="0" applyFill="1" borderId="7" applyBorder="1" xfId="20" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="14" applyFont="1" fillId="0" applyFill="1" borderId="8" applyBorder="1" xfId="21" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="15" applyFont="1" fillId="6" applyFill="1" borderId="0" applyBorder="1" xfId="22" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="16" applyFont="1" fillId="7" applyFill="1" borderId="0" applyBorder="1" xfId="23" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="17" applyFont="1" fillId="8" applyFill="1" borderId="0" applyBorder="1" xfId="24" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="9" applyFill="1" borderId="0" applyBorder="1" xfId="25" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="10" applyFill="1" borderId="0" applyBorder="1" xfId="26" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="11" applyFill="1" borderId="0" applyBorder="1" xfId="27" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="12" applyFill="1" borderId="0" applyBorder="1" xfId="28" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="13" applyFill="1" borderId="0" applyBorder="1" xfId="29" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="14" applyFill="1" borderId="0" applyBorder="1" xfId="30" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="15" applyFill="1" borderId="0" applyBorder="1" xfId="31" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="16" applyFill="1" borderId="0" applyBorder="1" xfId="32" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="17" applyFill="1" borderId="0" applyBorder="1" xfId="33" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="18" applyFill="1" borderId="0" applyBorder="1" xfId="34" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="19" applyFill="1" borderId="0" applyBorder="1" xfId="35" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="20" applyFill="1" borderId="0" applyBorder="1" xfId="36" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="21" applyFill="1" borderId="0" applyBorder="1" xfId="37" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="22" applyFill="1" borderId="0" applyBorder="1" xfId="38" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="23" applyFill="1" borderId="0" applyBorder="1" xfId="39" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="24" applyFill="1" borderId="0" applyBorder="1" xfId="40" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="25" applyFill="1" borderId="0" applyBorder="1" xfId="41" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="26" applyFill="1" borderId="0" applyBorder="1" xfId="42" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="27" applyFill="1" borderId="0" applyBorder="1" xfId="43" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="28" applyFill="1" borderId="0" applyBorder="1" xfId="44" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="29" applyFill="1" borderId="0" applyBorder="1" xfId="45" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="30" applyFill="1" borderId="0" applyBorder="1" xfId="46" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="31" applyFill="1" borderId="0" applyBorder="1" xfId="47" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="32" applyFill="1" borderId="0" applyBorder="1" xfId="48" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+  <cellXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1304,1160 +1170,1133 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J36"/>
+  <dimension ref="A1:K94"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="G11" sqref="G11"/>
+      <selection pane="topRight" activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="37.75" customWidth="1" style="50"/>
-    <col min="2" max="2" width="23.75" customWidth="1" style="50"/>
-    <col min="3" max="3" width="21.5" customWidth="1" style="50"/>
-    <col min="4" max="4" width="11.5" customWidth="1" style="50"/>
-    <col min="5" max="5" width="9.375" customWidth="1" style="50"/>
-    <col min="6" max="6" width="11.5" customWidth="1" style="50"/>
-    <col min="7" max="7" width="18.25" customWidth="1" style="50"/>
-    <col min="8" max="8" width="16" customWidth="1" style="50"/>
-    <col min="9" max="9" width="20" customWidth="1" style="50"/>
-    <col min="10" max="10" width="42.875" customWidth="1" style="50"/>
-    <col min="11" max="11" width="25.125" customWidth="1" style="50"/>
+    <col min="1" max="1" width="37.75" customWidth="1"/>
+    <col min="2" max="2" width="23.75" customWidth="1"/>
+    <col min="3" max="3" width="21.5" customWidth="1"/>
+    <col min="4" max="4" width="12.625" customWidth="1"/>
+    <col min="5" max="5" width="11.5" customWidth="1"/>
+    <col min="6" max="6" width="9.375" customWidth="1"/>
+    <col min="7" max="7" width="11.5" customWidth="1"/>
+    <col min="8" max="8" width="18.25" customWidth="1"/>
+    <col min="9" max="9" width="22.625" customWidth="1"/>
+    <col min="10" max="10" width="20" customWidth="1"/>
+    <col min="11" max="11" width="42.875" customWidth="1"/>
+    <col min="12" max="12" width="25.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="50" t="s">
+    <row r="1" spans="1:11">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="50" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="50" t="s">
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="50" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="50" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="50" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="50" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="50" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="50" t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="50" t="s">
+      <c r="J1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="50" t="s">
+      <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="50" t="s">
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="50" t="s">
+      <c r="B2" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="50" t="s">
+      <c r="C2" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="50" t="s">
+      <c r="D2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="50" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="50" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" s="50" t="s">
+      <c r="I2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="50" t="s">
-        <v>10</v>
-      </c>
-      <c r="J2" s="50" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="50" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="50" t="s">
+      <c r="K2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="50" t="s">
+      <c r="B3" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="50" t="s">
+      <c r="C3" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="50" t="s">
+      <c r="D3" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="50" t="s">
+      <c r="E3" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="50" t="s">
+      <c r="F3" t="s">
         <v>20</v>
       </c>
-      <c r="H3" s="50" t="s">
+      <c r="G3" t="s">
         <v>21</v>
       </c>
-      <c r="I3" s="50" t="s">
+      <c r="H3" t="s">
         <v>22</v>
       </c>
-      <c r="J3" s="50" t="s">
+      <c r="I3" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="50">
+      <c r="J3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4">
         <v>100000001</v>
       </c>
-      <c r="B4" s="50">
-        <v>1</v>
-      </c>
-      <c r="C4" s="50" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" s="50" t="s">
-        <v>25</v>
-      </c>
-      <c r="E4" s="50" t="s">
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
         <v>26</v>
       </c>
-      <c r="F4" s="50">
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4">
+        <v>100000000</v>
+      </c>
+      <c r="I4">
+        <v>100</v>
+      </c>
+      <c r="J4">
+        <v>100000000</v>
+      </c>
+      <c r="K4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5">
+        <v>100000002</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5">
+        <v>5</v>
+      </c>
+      <c r="E5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G5">
         <v>100000001</v>
       </c>
-      <c r="H4" s="50">
-        <v>100</v>
-      </c>
-      <c r="I4" s="50">
+      <c r="H5">
+        <v>100000000</v>
+      </c>
+      <c r="I5" t="s">
+        <v>33</v>
+      </c>
+      <c r="J5">
         <v>100000001</v>
       </c>
-      <c r="J4" s="50" t="s">
+      <c r="K5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6">
+        <v>100100001</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6">
+        <v>100100001</v>
+      </c>
+      <c r="I6">
+        <v>100</v>
+      </c>
+      <c r="J6">
+        <v>100100001</v>
+      </c>
+      <c r="K6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7">
+        <v>100200001</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="50">
-        <v>100000002</v>
-      </c>
-      <c r="B5" s="50">
-        <v>1</v>
-      </c>
-      <c r="C5" s="50" t="s">
+      <c r="G7">
+        <v>100200001</v>
+      </c>
+      <c r="I7">
+        <v>100</v>
+      </c>
+      <c r="J7">
+        <v>100200001</v>
+      </c>
+      <c r="K7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8">
+        <v>100300001</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8" t="s">
         <v>28</v>
       </c>
-      <c r="D5" s="50" t="s">
-        <v>29</v>
-      </c>
-      <c r="E5" s="50" t="s">
-        <v>30</v>
-      </c>
-      <c r="F5" s="50">
-        <v>100000002</v>
-      </c>
-      <c r="G5" s="50">
-        <v>100000001</v>
-      </c>
-      <c r="H5" s="50">
-        <v>100</v>
-      </c>
-      <c r="I5" s="50">
-        <v>100000002</v>
-      </c>
-      <c r="J5" s="50" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="50">
-        <v>100000003</v>
-      </c>
-      <c r="B6" s="50">
-        <v>1</v>
-      </c>
-      <c r="C6" s="50" t="s">
-        <v>28</v>
-      </c>
-      <c r="D6" s="50" t="s">
-        <v>29</v>
-      </c>
-      <c r="E6" s="50" t="s">
-        <v>32</v>
-      </c>
-      <c r="F6" s="50">
-        <v>100000003</v>
-      </c>
-      <c r="G6" s="50">
-        <v>100000002</v>
-      </c>
-      <c r="H6" s="50">
-        <v>100</v>
-      </c>
-      <c r="I6" s="50">
-        <v>100000003</v>
-      </c>
-      <c r="J6" s="50" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="50">
-        <v>100000004</v>
-      </c>
-      <c r="B7" s="50">
-        <v>1</v>
-      </c>
-      <c r="C7" s="50" t="s">
-        <v>28</v>
-      </c>
-      <c r="D7" s="50" t="s">
-        <v>29</v>
-      </c>
-      <c r="E7" s="50" t="s">
-        <v>33</v>
-      </c>
-      <c r="F7" s="50">
-        <v>100000004</v>
-      </c>
-      <c r="G7" s="50">
-        <v>100000003</v>
-      </c>
-      <c r="H7" s="50">
-        <v>100</v>
-      </c>
-      <c r="I7" s="50">
-        <v>100000004</v>
-      </c>
-      <c r="J7" s="50" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="50">
-        <v>100000005</v>
-      </c>
-      <c r="B8" s="50">
-        <v>1</v>
-      </c>
-      <c r="C8" s="50" t="s">
-        <v>28</v>
-      </c>
-      <c r="D8" s="50" t="s">
-        <v>29</v>
-      </c>
-      <c r="E8" s="50" t="s">
-        <v>34</v>
-      </c>
-      <c r="F8" s="50">
-        <v>100000005</v>
-      </c>
-      <c r="G8" s="50">
-        <v>100000004</v>
-      </c>
-      <c r="H8" s="50">
-        <v>100</v>
-      </c>
-      <c r="I8" s="50">
-        <v>100000005</v>
-      </c>
-      <c r="J8" s="50" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="50">
-        <v>100000006</v>
-      </c>
-      <c r="B9" s="50">
-        <v>1</v>
-      </c>
-      <c r="C9" s="50" t="s">
-        <v>28</v>
-      </c>
-      <c r="D9" s="50" t="s">
-        <v>29</v>
-      </c>
-      <c r="E9" s="50" t="s">
-        <v>35</v>
-      </c>
-      <c r="F9" s="50">
-        <v>100000006</v>
-      </c>
-      <c r="G9" s="50">
-        <v>100000005</v>
-      </c>
-      <c r="H9" s="50">
-        <v>100</v>
-      </c>
-      <c r="I9" s="50">
-        <v>100000006</v>
-      </c>
-      <c r="J9" s="50" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="50">
-        <v>100100001</v>
-      </c>
-      <c r="B10" s="50">
-        <v>1</v>
-      </c>
-      <c r="C10" s="50" t="s">
+      <c r="F8" t="s">
         <v>36</v>
       </c>
-      <c r="D10" s="50" t="s">
-        <v>37</v>
-      </c>
-      <c r="E10" s="50" t="s">
-        <v>26</v>
-      </c>
-      <c r="F10" s="50">
-        <v>100100001</v>
-      </c>
-      <c r="H10" s="50">
-        <v>100</v>
-      </c>
-      <c r="I10" s="50">
-        <v>100100001</v>
-      </c>
-      <c r="J10" s="50" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="50">
-        <v>100200001</v>
-      </c>
-      <c r="B11" s="50">
-        <v>1</v>
-      </c>
-      <c r="C11" s="50" t="s">
-        <v>39</v>
-      </c>
-      <c r="D11" s="50" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11" s="50" t="s">
-        <v>25</v>
-      </c>
-      <c r="F11" s="50">
-        <v>100200001</v>
-      </c>
-      <c r="H11" s="50">
-        <v>100</v>
-      </c>
-      <c r="I11" s="50">
-        <v>100200001</v>
-      </c>
-      <c r="J11" s="50" t="s">
+      <c r="G8">
+        <v>100300001</v>
+      </c>
+      <c r="I8">
+        <v>100</v>
+      </c>
+      <c r="J8">
+        <v>100300001</v>
+      </c>
+      <c r="K8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9">
+        <v>100300002</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="50">
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9" t="s">
+        <v>42</v>
+      </c>
+      <c r="F9" t="s">
+        <v>43</v>
+      </c>
+      <c r="G9">
+        <v>100300002</v>
+      </c>
+      <c r="H9">
         <v>100300001</v>
       </c>
-      <c r="B12" s="50">
-        <v>1</v>
-      </c>
-      <c r="C12" s="50" t="s">
+      <c r="I9">
+        <v>100</v>
+      </c>
+      <c r="J9">
+        <v>100300002</v>
+      </c>
+      <c r="K9" t="s">
         <v>41</v>
       </c>
-      <c r="D12" s="50" t="s">
-        <v>26</v>
-      </c>
-      <c r="E12" s="50" t="s">
-        <v>37</v>
-      </c>
-      <c r="F12" s="50">
-        <v>100300001</v>
-      </c>
-      <c r="H12" s="50">
-        <v>100</v>
-      </c>
-      <c r="I12" s="50">
-        <v>100300001</v>
-      </c>
-      <c r="J12" s="50" t="s">
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10">
+        <v>100300003</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="50">
+      <c r="F10" t="s">
+        <v>44</v>
+      </c>
+      <c r="G10">
+        <v>100300003</v>
+      </c>
+      <c r="H10">
         <v>100300002</v>
       </c>
-      <c r="B13" s="50">
-        <v>1</v>
-      </c>
-      <c r="C13" s="50" t="s">
+      <c r="I10">
+        <v>100</v>
+      </c>
+      <c r="J10">
+        <v>100300003</v>
+      </c>
+      <c r="K10" t="s">
         <v>41</v>
       </c>
-      <c r="D13" s="50" t="s">
-        <v>43</v>
-      </c>
-      <c r="E13" s="50" t="s">
-        <v>44</v>
-      </c>
-      <c r="F13" s="50">
-        <v>100300002</v>
-      </c>
-      <c r="G13" s="50">
-        <v>100300001</v>
-      </c>
-      <c r="H13" s="50">
-        <v>100</v>
-      </c>
-      <c r="I13" s="50">
-        <v>100300002</v>
-      </c>
-      <c r="J13" s="50" t="s">
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11">
+        <v>100300004</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="50">
+      <c r="F11" t="s">
+        <v>45</v>
+      </c>
+      <c r="G11">
+        <v>100300004</v>
+      </c>
+      <c r="H11">
         <v>100300003</v>
       </c>
-      <c r="B14" s="50">
-        <v>1</v>
-      </c>
-      <c r="C14" s="50" t="s">
+      <c r="I11">
+        <v>100</v>
+      </c>
+      <c r="J11">
+        <v>100300004</v>
+      </c>
+      <c r="K11" t="s">
         <v>41</v>
       </c>
-      <c r="D14" s="50" t="s">
-        <v>43</v>
-      </c>
-      <c r="E14" s="50" t="s">
-        <v>45</v>
-      </c>
-      <c r="F14" s="50">
-        <v>100300003</v>
-      </c>
-      <c r="G14" s="50">
-        <v>100300002</v>
-      </c>
-      <c r="H14" s="50">
-        <v>100</v>
-      </c>
-      <c r="I14" s="50">
-        <v>100300003</v>
-      </c>
-      <c r="J14" s="50" t="s">
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12">
+        <v>100300005</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="50">
+      <c r="F12" t="s">
+        <v>46</v>
+      </c>
+      <c r="G12">
+        <v>100300005</v>
+      </c>
+      <c r="H12">
         <v>100300004</v>
       </c>
-      <c r="B15" s="50">
-        <v>1</v>
-      </c>
-      <c r="C15" s="50" t="s">
+      <c r="I12">
+        <v>100</v>
+      </c>
+      <c r="J12">
+        <v>100300005</v>
+      </c>
+      <c r="K12" t="s">
         <v>41</v>
       </c>
-      <c r="D15" s="50" t="s">
-        <v>43</v>
-      </c>
-      <c r="E15" s="50" t="s">
-        <v>46</v>
-      </c>
-      <c r="F15" s="50">
-        <v>100300004</v>
-      </c>
-      <c r="G15" s="50">
-        <v>100300003</v>
-      </c>
-      <c r="H15" s="50">
-        <v>100</v>
-      </c>
-      <c r="I15" s="50">
-        <v>100300004</v>
-      </c>
-      <c r="J15" s="50" t="s">
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13">
+        <v>100300006</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="50">
+      <c r="F13" t="s">
+        <v>47</v>
+      </c>
+      <c r="G13">
+        <v>100300006</v>
+      </c>
+      <c r="H13">
         <v>100300005</v>
       </c>
-      <c r="B16" s="50">
-        <v>1</v>
-      </c>
-      <c r="C16" s="50" t="s">
+      <c r="I13">
+        <v>100</v>
+      </c>
+      <c r="J13">
+        <v>100300006</v>
+      </c>
+      <c r="K13" t="s">
         <v>41</v>
       </c>
-      <c r="D16" s="50" t="s">
-        <v>43</v>
-      </c>
-      <c r="E16" s="50" t="s">
-        <v>47</v>
-      </c>
-      <c r="F16" s="50">
-        <v>100300005</v>
-      </c>
-      <c r="G16" s="50">
-        <v>100300004</v>
-      </c>
-      <c r="H16" s="50">
-        <v>100</v>
-      </c>
-      <c r="I16" s="50">
-        <v>100300005</v>
-      </c>
-      <c r="J16" s="50" t="s">
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14">
+        <v>100300007</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="50">
+      <c r="F14" t="s">
+        <v>48</v>
+      </c>
+      <c r="G14">
+        <v>100300007</v>
+      </c>
+      <c r="H14">
         <v>100300006</v>
       </c>
-      <c r="B17" s="50">
-        <v>1</v>
-      </c>
-      <c r="C17" s="50" t="s">
+      <c r="I14">
+        <v>100</v>
+      </c>
+      <c r="J14">
+        <v>100300007</v>
+      </c>
+      <c r="K14" t="s">
         <v>41</v>
       </c>
-      <c r="D17" s="50" t="s">
-        <v>43</v>
-      </c>
-      <c r="E17" s="50" t="s">
-        <v>48</v>
-      </c>
-      <c r="F17" s="50">
-        <v>100300006</v>
-      </c>
-      <c r="G17" s="50">
-        <v>100300005</v>
-      </c>
-      <c r="H17" s="50">
-        <v>100</v>
-      </c>
-      <c r="I17" s="50">
-        <v>100300006</v>
-      </c>
-      <c r="J17" s="50" t="s">
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15">
+        <v>100300008</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>40</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="50">
+      <c r="F15" t="s">
+        <v>49</v>
+      </c>
+      <c r="G15">
+        <v>100300008</v>
+      </c>
+      <c r="H15">
         <v>100300007</v>
       </c>
-      <c r="B18" s="50">
-        <v>1</v>
-      </c>
-      <c r="C18" s="50" t="s">
+      <c r="I15">
+        <v>100</v>
+      </c>
+      <c r="J15">
+        <v>100300008</v>
+      </c>
+      <c r="K15" t="s">
         <v>41</v>
       </c>
-      <c r="D18" s="50" t="s">
-        <v>43</v>
-      </c>
-      <c r="E18" s="50" t="s">
-        <v>49</v>
-      </c>
-      <c r="F18" s="50">
-        <v>100300007</v>
-      </c>
-      <c r="G18" s="50">
-        <v>100300006</v>
-      </c>
-      <c r="H18" s="50">
-        <v>100</v>
-      </c>
-      <c r="I18" s="50">
-        <v>100300007</v>
-      </c>
-      <c r="J18" s="50" t="s">
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16">
+        <v>100300009</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>40</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="50">
+      <c r="F16" t="s">
+        <v>50</v>
+      </c>
+      <c r="G16">
+        <v>100300009</v>
+      </c>
+      <c r="H16">
         <v>100300008</v>
       </c>
-      <c r="B19" s="50">
-        <v>1</v>
-      </c>
-      <c r="C19" s="50" t="s">
+      <c r="I16">
+        <v>100</v>
+      </c>
+      <c r="J16">
+        <v>100300009</v>
+      </c>
+      <c r="K16" t="s">
         <v>41</v>
       </c>
-      <c r="D19" s="50" t="s">
-        <v>43</v>
-      </c>
-      <c r="E19" s="50" t="s">
-        <v>50</v>
-      </c>
-      <c r="F19" s="50">
-        <v>100300008</v>
-      </c>
-      <c r="G19" s="50">
-        <v>100300007</v>
-      </c>
-      <c r="H19" s="50">
-        <v>100</v>
-      </c>
-      <c r="I19" s="50">
-        <v>100300008</v>
-      </c>
-      <c r="J19" s="50" t="s">
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17">
+        <v>100300010</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>40</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="50">
+      <c r="F17" t="s">
+        <v>51</v>
+      </c>
+      <c r="G17">
+        <v>100300010</v>
+      </c>
+      <c r="H17">
         <v>100300009</v>
       </c>
-      <c r="B20" s="50">
-        <v>1</v>
-      </c>
-      <c r="C20" s="50" t="s">
+      <c r="I17">
+        <v>100</v>
+      </c>
+      <c r="J17">
+        <v>100300010</v>
+      </c>
+      <c r="K17" t="s">
         <v>41</v>
       </c>
-      <c r="D20" s="50" t="s">
-        <v>43</v>
-      </c>
-      <c r="E20" s="50" t="s">
-        <v>51</v>
-      </c>
-      <c r="F20" s="50">
-        <v>100300009</v>
-      </c>
-      <c r="G20" s="50">
-        <v>100300008</v>
-      </c>
-      <c r="H20" s="50">
-        <v>100</v>
-      </c>
-      <c r="I20" s="50">
-        <v>100300009</v>
-      </c>
-      <c r="J20" s="50" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="50">
-        <v>100300010</v>
-      </c>
-      <c r="B21" s="50">
-        <v>1</v>
-      </c>
-      <c r="C21" s="50" t="s">
-        <v>41</v>
-      </c>
-      <c r="D21" s="50" t="s">
-        <v>43</v>
-      </c>
-      <c r="E21" s="50" t="s">
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18">
+        <v>200000001</v>
+      </c>
+      <c r="B18">
+        <v>2</v>
+      </c>
+      <c r="C18" t="s">
         <v>52</v>
       </c>
-      <c r="F21" s="50">
-        <v>100300010</v>
-      </c>
-      <c r="G21" s="50">
-        <v>100300009</v>
-      </c>
-      <c r="H21" s="50">
-        <v>100</v>
-      </c>
-      <c r="I21" s="50">
-        <v>100300010</v>
-      </c>
-      <c r="J21" s="50" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="50">
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>200</v>
+      </c>
+      <c r="G18">
         <v>200000001</v>
       </c>
-      <c r="B22" s="50">
+      <c r="I18">
+        <v>100</v>
+      </c>
+      <c r="J18">
+        <v>200000001</v>
+      </c>
+      <c r="K18" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19">
+        <v>200000002</v>
+      </c>
+      <c r="B19">
         <v>2</v>
       </c>
-      <c r="C22" s="50" t="s">
+      <c r="C19" t="s">
+        <v>52</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>200</v>
+      </c>
+      <c r="G19">
+        <v>200000002</v>
+      </c>
+      <c r="H19">
+        <v>200000001</v>
+      </c>
+      <c r="I19">
+        <v>100</v>
+      </c>
+      <c r="J19">
+        <v>200000002</v>
+      </c>
+      <c r="K19" t="s">
         <v>53</v>
       </c>
-      <c r="D22" s="50">
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20">
+        <v>200000003</v>
+      </c>
+      <c r="B20">
+        <v>2</v>
+      </c>
+      <c r="C20" t="s">
+        <v>52</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20">
         <v>0</v>
       </c>
-      <c r="E22" s="50">
-        <v>200</v>
-      </c>
-      <c r="F22" s="50">
-        <v>200000001</v>
-      </c>
-      <c r="H22" s="50">
-        <v>100</v>
-      </c>
-      <c r="I22" s="50">
-        <v>200000001</v>
-      </c>
-      <c r="J22" s="50" t="s">
+      <c r="F20">
+        <v>400</v>
+      </c>
+      <c r="G20">
+        <v>200000003</v>
+      </c>
+      <c r="H20">
+        <v>200000002</v>
+      </c>
+      <c r="I20">
+        <v>100</v>
+      </c>
+      <c r="J20">
+        <v>200000003</v>
+      </c>
+      <c r="K20" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21">
+        <v>200000004</v>
+      </c>
+      <c r="B21">
+        <v>2</v>
+      </c>
+      <c r="C21" t="s">
+        <v>52</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>600</v>
+      </c>
+      <c r="G21">
+        <v>200000004</v>
+      </c>
+      <c r="H21">
+        <v>200000003</v>
+      </c>
+      <c r="I21">
+        <v>100</v>
+      </c>
+      <c r="J21">
+        <v>200000004</v>
+      </c>
+      <c r="K21" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22">
+        <v>200000005</v>
+      </c>
+      <c r="B22">
+        <v>2</v>
+      </c>
+      <c r="C22" t="s">
+        <v>52</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>800</v>
+      </c>
+      <c r="G22">
+        <v>200000005</v>
+      </c>
+      <c r="H22">
+        <v>200000004</v>
+      </c>
+      <c r="I22">
+        <v>100</v>
+      </c>
+      <c r="J22">
+        <v>200000005</v>
+      </c>
+      <c r="K22" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23">
+        <v>200000006</v>
+      </c>
+      <c r="B23">
+        <v>2</v>
+      </c>
+      <c r="C23" t="s">
+        <v>52</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>1000</v>
+      </c>
+      <c r="G23">
+        <v>200000006</v>
+      </c>
+      <c r="H23">
+        <v>200000005</v>
+      </c>
+      <c r="I23">
+        <v>100</v>
+      </c>
+      <c r="J23">
+        <v>200000006</v>
+      </c>
+      <c r="K23" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24">
+        <v>200000007</v>
+      </c>
+      <c r="B24">
+        <v>2</v>
+      </c>
+      <c r="C24" t="s">
+        <v>52</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>1200</v>
+      </c>
+      <c r="G24">
+        <v>200000007</v>
+      </c>
+      <c r="H24">
+        <v>200000006</v>
+      </c>
+      <c r="I24">
+        <v>100</v>
+      </c>
+      <c r="J24">
+        <v>200000007</v>
+      </c>
+      <c r="K24" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25">
+        <v>200000008</v>
+      </c>
+      <c r="B25">
+        <v>2</v>
+      </c>
+      <c r="C25" t="s">
+        <v>52</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>1400</v>
+      </c>
+      <c r="G25">
+        <v>200000008</v>
+      </c>
+      <c r="H25">
+        <v>200000007</v>
+      </c>
+      <c r="I25">
+        <v>100</v>
+      </c>
+      <c r="J25">
+        <v>200000008</v>
+      </c>
+      <c r="K25" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="A26">
+        <v>200000009</v>
+      </c>
+      <c r="B26">
+        <v>2</v>
+      </c>
+      <c r="C26" t="s">
+        <v>52</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>1600</v>
+      </c>
+      <c r="G26">
+        <v>200000009</v>
+      </c>
+      <c r="H26">
+        <v>200000008</v>
+      </c>
+      <c r="I26">
+        <v>100</v>
+      </c>
+      <c r="J26">
+        <v>200000009</v>
+      </c>
+      <c r="K26" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="A27">
+        <v>200000010</v>
+      </c>
+      <c r="B27">
+        <v>2</v>
+      </c>
+      <c r="C27" t="s">
+        <v>52</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>1800</v>
+      </c>
+      <c r="G27">
+        <v>200000010</v>
+      </c>
+      <c r="H27">
+        <v>200000009</v>
+      </c>
+      <c r="I27">
+        <v>100</v>
+      </c>
+      <c r="J27">
+        <v>200000010</v>
+      </c>
+      <c r="K27" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="A28">
+        <v>200100001</v>
+      </c>
+      <c r="B28">
+        <v>2</v>
+      </c>
+      <c r="C28" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="50">
-        <v>200000002</v>
-      </c>
-      <c r="B23" s="50">
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>200100001</v>
+      </c>
+      <c r="I28">
+        <v>100</v>
+      </c>
+      <c r="J28">
+        <v>200100001</v>
+      </c>
+      <c r="K28" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="A29">
+        <v>200100002</v>
+      </c>
+      <c r="B29">
         <v>2</v>
       </c>
-      <c r="C23" s="50" t="s">
-        <v>53</v>
-      </c>
-      <c r="D23" s="50">
+      <c r="C29" t="s">
+        <v>54</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="E29">
         <v>0</v>
       </c>
-      <c r="E23" s="50">
-        <v>200</v>
-      </c>
-      <c r="F23" s="50">
-        <v>200000002</v>
-      </c>
-      <c r="G23" s="50">
-        <v>200000001</v>
-      </c>
-      <c r="H23" s="50">
-        <v>100</v>
-      </c>
-      <c r="I23" s="50">
-        <v>200000002</v>
-      </c>
-      <c r="J23" s="50" t="s">
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>200100002</v>
+      </c>
+      <c r="H29">
+        <v>200100001</v>
+      </c>
+      <c r="I29">
+        <v>100</v>
+      </c>
+      <c r="J29">
+        <v>200100002</v>
+      </c>
+      <c r="K29" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="A30">
+        <v>200100003</v>
+      </c>
+      <c r="B30">
+        <v>2</v>
+      </c>
+      <c r="C30" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="50">
-        <v>200000003</v>
-      </c>
-      <c r="B24" s="50">
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>200100003</v>
+      </c>
+      <c r="H30">
+        <v>200100002</v>
+      </c>
+      <c r="I30">
+        <v>100</v>
+      </c>
+      <c r="J30">
+        <v>200100003</v>
+      </c>
+      <c r="K30" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
+      <c r="A31">
+        <v>200100004</v>
+      </c>
+      <c r="B31">
         <v>2</v>
       </c>
-      <c r="C24" s="50" t="s">
-        <v>53</v>
-      </c>
-      <c r="D24" s="50">
+      <c r="C31" t="s">
+        <v>54</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="E31">
         <v>0</v>
       </c>
-      <c r="E24" s="50">
-        <v>400</v>
-      </c>
-      <c r="F24" s="50">
-        <v>200000003</v>
-      </c>
-      <c r="G24" s="50">
-        <v>200000002</v>
-      </c>
-      <c r="H24" s="50">
-        <v>100</v>
-      </c>
-      <c r="I24" s="50">
-        <v>200000003</v>
-      </c>
-      <c r="J24" s="50" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="50">
-        <v>200000004</v>
-      </c>
-      <c r="B25" s="50">
-        <v>2</v>
-      </c>
-      <c r="C25" s="50" t="s">
-        <v>53</v>
-      </c>
-      <c r="D25" s="50">
+      <c r="F31">
         <v>0</v>
       </c>
-      <c r="E25" s="50">
-        <v>600</v>
-      </c>
-      <c r="F25" s="50">
-        <v>200000004</v>
-      </c>
-      <c r="G25" s="50">
-        <v>200000003</v>
-      </c>
-      <c r="H25" s="50">
-        <v>100</v>
-      </c>
-      <c r="I25" s="50">
-        <v>200000004</v>
-      </c>
-      <c r="J25" s="50" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="50">
-        <v>200000005</v>
-      </c>
-      <c r="B26" s="50">
-        <v>2</v>
-      </c>
-      <c r="C26" s="50" t="s">
-        <v>53</v>
-      </c>
-      <c r="D26" s="50">
+      <c r="G31">
+        <v>200100004</v>
+      </c>
+      <c r="H31">
+        <v>200100003</v>
+      </c>
+      <c r="I31">
+        <v>100</v>
+      </c>
+      <c r="J31">
+        <v>200100004</v>
+      </c>
+      <c r="K31" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
+      <c r="A32">
+        <v>300000000</v>
+      </c>
+      <c r="B32">
+        <v>3</v>
+      </c>
+      <c r="C32" t="s">
+        <v>59</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="E32">
         <v>0</v>
       </c>
-      <c r="E26" s="50">
-        <v>800</v>
-      </c>
-      <c r="F26" s="50">
-        <v>200000005</v>
-      </c>
-      <c r="G26" s="50">
-        <v>200000004</v>
-      </c>
-      <c r="H26" s="50">
-        <v>100</v>
-      </c>
-      <c r="I26" s="50">
-        <v>200000005</v>
-      </c>
-      <c r="J26" s="50" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="50">
-        <v>200000006</v>
-      </c>
-      <c r="B27" s="50">
-        <v>2</v>
-      </c>
-      <c r="C27" s="50" t="s">
-        <v>53</v>
-      </c>
-      <c r="D27" s="50">
+      <c r="F32">
         <v>0</v>
       </c>
-      <c r="E27" s="50">
-        <v>1000</v>
-      </c>
-      <c r="F27" s="50">
-        <v>200000006</v>
-      </c>
-      <c r="G27" s="50">
-        <v>200000005</v>
-      </c>
-      <c r="H27" s="50">
-        <v>100</v>
-      </c>
-      <c r="I27" s="50">
-        <v>200000006</v>
-      </c>
-      <c r="J27" s="50" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="50">
-        <v>200000007</v>
-      </c>
-      <c r="B28" s="50">
-        <v>2</v>
-      </c>
-      <c r="C28" s="50" t="s">
-        <v>53</v>
-      </c>
-      <c r="D28" s="50">
-        <v>0</v>
-      </c>
-      <c r="E28" s="50">
-        <v>1200</v>
-      </c>
-      <c r="F28" s="50">
-        <v>200000007</v>
-      </c>
-      <c r="G28" s="50">
-        <v>200000006</v>
-      </c>
-      <c r="H28" s="50">
-        <v>100</v>
-      </c>
-      <c r="I28" s="50">
-        <v>200000007</v>
-      </c>
-      <c r="J28" s="50" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="50">
-        <v>200000008</v>
-      </c>
-      <c r="B29" s="50">
-        <v>2</v>
-      </c>
-      <c r="C29" s="50" t="s">
-        <v>53</v>
-      </c>
-      <c r="D29" s="50">
-        <v>0</v>
-      </c>
-      <c r="E29" s="50">
-        <v>1400</v>
-      </c>
-      <c r="F29" s="50">
-        <v>200000008</v>
-      </c>
-      <c r="G29" s="50">
-        <v>200000007</v>
-      </c>
-      <c r="H29" s="50">
-        <v>100</v>
-      </c>
-      <c r="I29" s="50">
-        <v>200000008</v>
-      </c>
-      <c r="J29" s="50" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="50">
-        <v>200000009</v>
-      </c>
-      <c r="B30" s="50">
-        <v>2</v>
-      </c>
-      <c r="C30" s="50" t="s">
-        <v>53</v>
-      </c>
-      <c r="D30" s="50">
-        <v>0</v>
-      </c>
-      <c r="E30" s="50">
-        <v>1600</v>
-      </c>
-      <c r="F30" s="50">
-        <v>200000009</v>
-      </c>
-      <c r="G30" s="50">
-        <v>200000008</v>
-      </c>
-      <c r="H30" s="50">
-        <v>100</v>
-      </c>
-      <c r="I30" s="50">
-        <v>200000009</v>
-      </c>
-      <c r="J30" s="50" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="50">
-        <v>200000010</v>
-      </c>
-      <c r="B31" s="50">
-        <v>2</v>
-      </c>
-      <c r="C31" s="50" t="s">
-        <v>53</v>
-      </c>
-      <c r="D31" s="50">
-        <v>0</v>
-      </c>
-      <c r="E31" s="50">
-        <v>1800</v>
-      </c>
-      <c r="F31" s="50">
-        <v>200000010</v>
-      </c>
-      <c r="G31" s="50">
-        <v>200000009</v>
-      </c>
-      <c r="H31" s="50">
-        <v>100</v>
-      </c>
-      <c r="I31" s="50">
-        <v>200000010</v>
-      </c>
-      <c r="J31" s="50" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="50">
-        <v>200100001</v>
-      </c>
-      <c r="B32" s="50">
-        <v>2</v>
-      </c>
-      <c r="C32" s="50" t="s">
-        <v>55</v>
-      </c>
-      <c r="D32" s="50">
-        <v>0</v>
-      </c>
-      <c r="E32" s="50">
-        <v>0</v>
-      </c>
-      <c r="F32" s="50">
-        <v>200100001</v>
-      </c>
-      <c r="H32" s="50">
-        <v>100</v>
-      </c>
-      <c r="I32" s="50">
-        <v>200100001</v>
-      </c>
-      <c r="J32" s="50" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="50">
-        <v>200100002</v>
-      </c>
-      <c r="B33" s="50">
-        <v>2</v>
-      </c>
-      <c r="C33" s="50" t="s">
-        <v>55</v>
-      </c>
-      <c r="D33" s="50">
-        <v>0</v>
-      </c>
-      <c r="E33" s="50">
-        <v>0</v>
-      </c>
-      <c r="F33" s="50">
-        <v>200100002</v>
-      </c>
-      <c r="G33" s="50">
-        <v>200100001</v>
-      </c>
-      <c r="H33" s="50">
-        <v>100</v>
-      </c>
-      <c r="I33" s="50">
-        <v>200100002</v>
-      </c>
-      <c r="J33" s="50" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="50">
-        <v>200100003</v>
-      </c>
-      <c r="B34" s="50">
-        <v>2</v>
-      </c>
-      <c r="C34" s="50" t="s">
-        <v>55</v>
-      </c>
-      <c r="D34" s="50">
-        <v>0</v>
-      </c>
-      <c r="E34" s="50">
-        <v>0</v>
-      </c>
-      <c r="F34" s="50">
-        <v>200100003</v>
-      </c>
-      <c r="G34" s="50">
-        <v>200100002</v>
-      </c>
-      <c r="H34" s="50">
-        <v>100</v>
-      </c>
-      <c r="I34" s="50">
-        <v>200100003</v>
-      </c>
-      <c r="J34" s="50" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="50">
-        <v>200100004</v>
-      </c>
-      <c r="B35" s="50">
-        <v>2</v>
-      </c>
-      <c r="C35" s="50" t="s">
-        <v>55</v>
-      </c>
-      <c r="D35" s="50">
-        <v>0</v>
-      </c>
-      <c r="E35" s="50">
-        <v>0</v>
-      </c>
-      <c r="F35" s="50">
-        <v>200100004</v>
-      </c>
-      <c r="G35" s="50">
-        <v>200100003</v>
-      </c>
-      <c r="H35" s="50">
-        <v>100</v>
-      </c>
-      <c r="I35" s="50">
-        <v>200100004</v>
-      </c>
-      <c r="J35" s="50" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="50">
+      <c r="G32">
         <v>300000000</v>
       </c>
-      <c r="B36" s="50">
-        <v>3</v>
-      </c>
-      <c r="C36" s="50" t="s">
+      <c r="I32">
+        <v>100</v>
+      </c>
+      <c r="J32">
+        <v>300000000</v>
+      </c>
+      <c r="K32" t="s">
         <v>60</v>
       </c>
-      <c r="D36" s="50">
-        <v>0</v>
-      </c>
-      <c r="E36" s="50">
-        <v>0</v>
-      </c>
-      <c r="F36" s="50">
-        <v>300000000</v>
-      </c>
-      <c r="H36" s="50">
-        <v>100</v>
-      </c>
-      <c r="I36" s="50">
-        <v>300000000</v>
-      </c>
-      <c r="J36" s="50" t="s">
-        <v>61</v>
-      </c>
-    </row>
+    </row>
+    <row r="44" ht="15" customHeight="1"/>
+    <row r="45" ht="15" customHeight="1"/>
+    <row r="46" ht="15" customHeight="1"/>
+    <row r="47" ht="15" customHeight="1"/>
     <row r="48" ht="15" customHeight="1"/>
     <row r="49" ht="15" customHeight="1"/>
     <row r="50" ht="15" customHeight="1"/>
@@ -2465,21 +2304,17 @@
     <row r="52" ht="15" customHeight="1"/>
     <row r="53" ht="15" customHeight="1"/>
     <row r="54" ht="15" customHeight="1"/>
-    <row r="55" ht="15" customHeight="1"/>
-    <row r="56" ht="15" customHeight="1"/>
-    <row r="57" ht="15" customHeight="1"/>
-    <row r="58" ht="15" customHeight="1"/>
+    <row r="86" ht="12" customHeight="1"/>
+    <row r="87" ht="12" customHeight="1"/>
+    <row r="88" ht="12" customHeight="1"/>
+    <row r="89" ht="12" customHeight="1"/>
     <row r="90" ht="12" customHeight="1"/>
     <row r="91" ht="12" customHeight="1"/>
     <row r="92" ht="12" customHeight="1"/>
     <row r="93" ht="12" customHeight="1"/>
     <row r="94" ht="12" customHeight="1"/>
-    <row r="95" ht="12" customHeight="1"/>
-    <row r="96" ht="12" customHeight="1"/>
-    <row r="97" ht="12" customHeight="1"/>
-    <row r="98" ht="12" customHeight="1"/>
   </sheetData>
-  <sortState ref="A4:U88">
+  <sortState ref="A4:V88">
     <sortCondition ref="A4"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Demon Lord Roguelike/Assets/Data/Excel/excel_research_info[研究信息].xlsx
+++ b/Demon Lord Roguelike/Assets/Data/Excel/excel_research_info[研究信息].xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255"/>
+    <workbookView windowHeight="17655"/>
   </bookViews>
   <sheets>
     <sheet name="ResearchInfo" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="160">
   <si>
     <t>id</t>
   </si>
@@ -152,64 +152,361 @@
     <t>ui_research_8</t>
   </si>
   <si>
+    <t>100,200,300,400,500,600,700,800,900,1000,</t>
+  </si>
+  <si>
     <t>传送门可选择世界+1</t>
   </si>
   <si>
-    <t>-150</t>
-  </si>
-  <si>
-    <t>350</t>
-  </si>
-  <si>
-    <t>500</t>
-  </si>
-  <si>
-    <t>650</t>
+    <t>ui_research_5</t>
+  </si>
+  <si>
+    <t>阵容上限+1</t>
+  </si>
+  <si>
+    <t>ui_research_6</t>
+  </si>
+  <si>
+    <t>100,200,300,400,</t>
+  </si>
+  <si>
+    <t>解锁第二阵容</t>
+  </si>
+  <si>
+    <t>ui_research_36</t>
   </si>
   <si>
     <t>800</t>
   </si>
   <si>
-    <t>950</t>
-  </si>
-  <si>
-    <t>1100</t>
-  </si>
-  <si>
-    <t>1250</t>
-  </si>
-  <si>
-    <t>1400</t>
-  </si>
-  <si>
-    <t>1550</t>
-  </si>
-  <si>
-    <t>ui_research_5</t>
-  </si>
-  <si>
-    <t>阵容上限+1</t>
-  </si>
-  <si>
-    <t>ui_research_6</t>
-  </si>
-  <si>
-    <t>解锁第二阵容</t>
-  </si>
-  <si>
-    <t>解锁第三阵容</t>
-  </si>
-  <si>
-    <t>解锁第四阵容</t>
-  </si>
-  <si>
-    <t>解锁第五阵容</t>
-  </si>
-  <si>
-    <t>ui_research_4</t>
-  </si>
-  <si>
-    <t>种族：人类</t>
+    <t>解锁种族：人类</t>
+  </si>
+  <si>
+    <t>ui_research_43</t>
+  </si>
+  <si>
+    <t>575</t>
+  </si>
+  <si>
+    <t>解锁职业：人类战士</t>
+  </si>
+  <si>
+    <t>ui_research_42</t>
+  </si>
+  <si>
+    <t>725</t>
+  </si>
+  <si>
+    <t>解锁职业：人类弓箭手</t>
+  </si>
+  <si>
+    <t>ui_research_48</t>
+  </si>
+  <si>
+    <t>875</t>
+  </si>
+  <si>
+    <t>解锁职业：人类魔法师（火）</t>
+  </si>
+  <si>
+    <t>ui_research_47</t>
+  </si>
+  <si>
+    <t>1025</t>
+  </si>
+  <si>
+    <t>解锁职业：人类魔法师（冰）</t>
+  </si>
+  <si>
+    <t>ui_research_33</t>
+  </si>
+  <si>
+    <t>400</t>
+  </si>
+  <si>
+    <t>300100001|300100002|300100003|300100004|</t>
+  </si>
+  <si>
+    <t>孕育人类x5</t>
+  </si>
+  <si>
+    <t>ui_research_34</t>
+  </si>
+  <si>
+    <t>600</t>
+  </si>
+  <si>
+    <t>孕育人类x10</t>
+  </si>
+  <si>
+    <t>ui_research_35</t>
+  </si>
+  <si>
+    <t>解锁种族：骷髅</t>
+  </si>
+  <si>
+    <t>-225</t>
+  </si>
+  <si>
+    <t>解锁职业：骷髅战士</t>
+  </si>
+  <si>
+    <t>-75</t>
+  </si>
+  <si>
+    <t>解锁职业：骷髅投手</t>
+  </si>
+  <si>
+    <t>75</t>
+  </si>
+  <si>
+    <t>解锁职业：骷髅魔法师（火）</t>
+  </si>
+  <si>
+    <t>225</t>
+  </si>
+  <si>
+    <t>解锁职业：骷髅魔法师（冰）</t>
+  </si>
+  <si>
+    <t>300200001|300200002|300200003|300200004|</t>
+  </si>
+  <si>
+    <t>孕育骷髅x5</t>
+  </si>
+  <si>
+    <t>孕育骷髅x10</t>
+  </si>
+  <si>
+    <t>ui_research_37</t>
+  </si>
+  <si>
+    <t>-800</t>
+  </si>
+  <si>
+    <t>解锁种族：史莱姆</t>
+  </si>
+  <si>
+    <t>ui_research_51</t>
+  </si>
+  <si>
+    <t>-1025</t>
+  </si>
+  <si>
+    <t>解锁职业：守护史莱姆</t>
+  </si>
+  <si>
+    <t>ui_research_54</t>
+  </si>
+  <si>
+    <t>-875</t>
+  </si>
+  <si>
+    <t>解锁职业：自爆史莱姆</t>
+  </si>
+  <si>
+    <t>-725</t>
+  </si>
+  <si>
+    <t>解锁职业：烂泥史莱姆</t>
+  </si>
+  <si>
+    <t>ui_research_53</t>
+  </si>
+  <si>
+    <t>-575</t>
+  </si>
+  <si>
+    <t>解锁职业：毒液史莱姆</t>
+  </si>
+  <si>
+    <t>300300001|300300002|300300003|300300004|</t>
+  </si>
+  <si>
+    <t>孕育史莱姆x5</t>
+  </si>
+  <si>
+    <t>孕育史莱姆x10</t>
+  </si>
+  <si>
+    <t>ui_research_41</t>
+  </si>
+  <si>
+    <t>-2400</t>
+  </si>
+  <si>
+    <t>解锁种族：魅魔</t>
+  </si>
+  <si>
+    <t>-2700</t>
+  </si>
+  <si>
+    <t>解锁职业：战之魅魔</t>
+  </si>
+  <si>
+    <t>ui_research_45</t>
+  </si>
+  <si>
+    <t>-2550</t>
+  </si>
+  <si>
+    <t>解锁职业：愈之魅魔</t>
+  </si>
+  <si>
+    <t>ui_research_52</t>
+  </si>
+  <si>
+    <t>解锁职业：惑之魅魔</t>
+  </si>
+  <si>
+    <t>ui_research_49</t>
+  </si>
+  <si>
+    <t>-2250</t>
+  </si>
+  <si>
+    <t>解锁职业：奥之魅魔</t>
+  </si>
+  <si>
+    <t>-2100</t>
+  </si>
+  <si>
+    <t>解锁职业：盾之魅魔</t>
+  </si>
+  <si>
+    <t>300400001|300400002|300400003|300400004|300400005|</t>
+  </si>
+  <si>
+    <t>孕育魅魔x5</t>
+  </si>
+  <si>
+    <t>孕育魅魔x10</t>
+  </si>
+  <si>
+    <t>ui_research_40</t>
+  </si>
+  <si>
+    <t>2400</t>
+  </si>
+  <si>
+    <t>解锁种族：牛头人</t>
+  </si>
+  <si>
+    <t>2175</t>
+  </si>
+  <si>
+    <t>解锁职业：牛头人战士</t>
+  </si>
+  <si>
+    <t>2325</t>
+  </si>
+  <si>
+    <t>解锁职业：牛头人投手</t>
+  </si>
+  <si>
+    <t>2475</t>
+  </si>
+  <si>
+    <t>解锁职业：牛头人魔法师（火）</t>
+  </si>
+  <si>
+    <t>2625</t>
+  </si>
+  <si>
+    <t>解锁职业：牛头人魔法师（冰）</t>
+  </si>
+  <si>
+    <t>300500001|300500002|300500003|300500004|</t>
+  </si>
+  <si>
+    <t>孕育牛头人x5</t>
+  </si>
+  <si>
+    <t>孕育牛头人x10</t>
+  </si>
+  <si>
+    <t>ui_research_39</t>
+  </si>
+  <si>
+    <t>-1600</t>
+  </si>
+  <si>
+    <t>解锁种族：哥布林</t>
+  </si>
+  <si>
+    <t>ui_research_44</t>
+  </si>
+  <si>
+    <t>-1900</t>
+  </si>
+  <si>
+    <t>解锁职业：哥布林刺客</t>
+  </si>
+  <si>
+    <t>-1750</t>
+  </si>
+  <si>
+    <t>解锁职业：哥布林弓箭手</t>
+  </si>
+  <si>
+    <t>解锁职业：哥布林敢死队</t>
+  </si>
+  <si>
+    <t>-1450</t>
+  </si>
+  <si>
+    <t>解锁职业：哥布林魔法师（火）</t>
+  </si>
+  <si>
+    <t>-1300</t>
+  </si>
+  <si>
+    <t>解锁职业：哥布林魔法师（冰）</t>
+  </si>
+  <si>
+    <t>300600001|300600002|300600003|300600004|</t>
+  </si>
+  <si>
+    <t>ui_research_38</t>
+  </si>
+  <si>
+    <t>1600</t>
+  </si>
+  <si>
+    <t>解锁种族：兽人</t>
+  </si>
+  <si>
+    <t>1375</t>
+  </si>
+  <si>
+    <t>解锁职业：兽人战士</t>
+  </si>
+  <si>
+    <t>1525</t>
+  </si>
+  <si>
+    <t>解锁职业：兽人弓箭手</t>
+  </si>
+  <si>
+    <t>1675</t>
+  </si>
+  <si>
+    <t>解锁职业：兽人魔法师（火）</t>
+  </si>
+  <si>
+    <t>1825</t>
+  </si>
+  <si>
+    <t>解锁职业：兽人魔法师（冰）</t>
+  </si>
+  <si>
+    <t>300700001|300700002|300700003|300700004|</t>
+  </si>
+  <si>
+    <t>孕育兽人x5</t>
+  </si>
+  <si>
+    <t>孕育兽人x10</t>
   </si>
 </sst>
 </file>
@@ -1170,12 +1467,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K94"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="E11" sqref="E11"/>
+      <selection pane="topRight" activeCell="K35" sqref="K35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1187,8 +1484,8 @@
     <col min="5" max="5" width="11.5" customWidth="1"/>
     <col min="6" max="6" width="9.375" customWidth="1"/>
     <col min="7" max="7" width="11.5" customWidth="1"/>
-    <col min="8" max="8" width="18.25" customWidth="1"/>
-    <col min="9" max="9" width="22.625" customWidth="1"/>
+    <col min="8" max="8" width="16.125" customWidth="1"/>
+    <col min="9" max="9" width="14.875" customWidth="1"/>
     <col min="10" max="10" width="20" customWidth="1"/>
     <col min="11" max="11" width="42.875" customWidth="1"/>
     <col min="12" max="12" width="25.125" customWidth="1"/>
@@ -1441,7 +1738,7 @@
         <v>40</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
         <v>28</v>
@@ -1452,867 +1749,1871 @@
       <c r="G8">
         <v>100300001</v>
       </c>
-      <c r="I8">
-        <v>100</v>
+      <c r="I8" t="s">
+        <v>41</v>
       </c>
       <c r="J8">
         <v>100300001</v>
       </c>
       <c r="K8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9">
-        <v>100300002</v>
+        <v>200000001</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C9" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D9">
-        <v>1</v>
-      </c>
-      <c r="E9" t="s">
-        <v>42</v>
-      </c>
-      <c r="F9" t="s">
-        <v>43</v>
+        <v>30</v>
+      </c>
+      <c r="E9">
+        <v>-200</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
       </c>
       <c r="G9">
-        <v>100300002</v>
-      </c>
-      <c r="H9">
-        <v>100300001</v>
-      </c>
-      <c r="I9">
-        <v>100</v>
+        <v>200000001</v>
+      </c>
+      <c r="I9" t="s">
+        <v>41</v>
       </c>
       <c r="J9">
-        <v>100300002</v>
+        <v>200000001</v>
       </c>
       <c r="K9" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10">
-        <v>100300003</v>
+        <v>200100001</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C10" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E10" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="F10" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="G10">
-        <v>100300003</v>
-      </c>
-      <c r="H10">
-        <v>100300002</v>
-      </c>
-      <c r="I10">
-        <v>100</v>
+        <v>200100001</v>
+      </c>
+      <c r="I10" t="s">
+        <v>46</v>
       </c>
       <c r="J10">
-        <v>100300003</v>
+        <v>200100001</v>
       </c>
       <c r="K10" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11">
-        <v>100300004</v>
+        <v>300100000</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C11" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="D11">
         <v>1</v>
       </c>
       <c r="E11" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="F11" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="G11">
-        <v>100300004</v>
+        <v>300100000</v>
       </c>
       <c r="H11">
-        <v>100300003</v>
+        <v>300200000</v>
       </c>
       <c r="I11">
         <v>100</v>
       </c>
       <c r="J11">
-        <v>100300004</v>
+        <v>300100000</v>
       </c>
       <c r="K11" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12">
-        <v>100300005</v>
+        <v>300100001</v>
       </c>
       <c r="B12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C12" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="D12">
         <v>1</v>
       </c>
       <c r="E12" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="F12" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="G12">
-        <v>100300005</v>
+        <v>300100001</v>
       </c>
       <c r="H12">
-        <v>100300004</v>
+        <v>300100000</v>
       </c>
       <c r="I12">
         <v>100</v>
       </c>
       <c r="J12">
-        <v>100300005</v>
+        <v>300100001</v>
       </c>
       <c r="K12" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13">
-        <v>100300006</v>
+        <v>300100002</v>
       </c>
       <c r="B13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C13" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="D13">
         <v>1</v>
       </c>
       <c r="E13" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="F13" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="G13">
-        <v>100300006</v>
+        <v>300100002</v>
       </c>
       <c r="H13">
-        <v>100300005</v>
+        <v>300100000</v>
       </c>
       <c r="I13">
         <v>100</v>
       </c>
       <c r="J13">
-        <v>100300006</v>
+        <v>300100002</v>
       </c>
       <c r="K13" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:11">
       <c r="A14">
-        <v>100300007</v>
+        <v>300100003</v>
       </c>
       <c r="B14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C14" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="D14">
         <v>1</v>
       </c>
       <c r="E14" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="F14" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="G14">
-        <v>100300007</v>
+        <v>300100003</v>
       </c>
       <c r="H14">
-        <v>100300006</v>
+        <v>300100000</v>
       </c>
       <c r="I14">
         <v>100</v>
       </c>
       <c r="J14">
-        <v>100300007</v>
+        <v>300100003</v>
       </c>
       <c r="K14" t="s">
-        <v>41</v>
+        <v>59</v>
       </c>
     </row>
     <row r="15" spans="1:11">
       <c r="A15">
-        <v>100300008</v>
+        <v>300100004</v>
       </c>
       <c r="B15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C15" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="D15">
         <v>1</v>
       </c>
       <c r="E15" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="F15" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="G15">
-        <v>100300008</v>
+        <v>300100004</v>
       </c>
       <c r="H15">
-        <v>100300007</v>
+        <v>300100000</v>
       </c>
       <c r="I15">
         <v>100</v>
       </c>
       <c r="J15">
-        <v>100300008</v>
+        <v>300100004</v>
       </c>
       <c r="K15" t="s">
-        <v>41</v>
+        <v>62</v>
       </c>
     </row>
     <row r="16" spans="1:11">
       <c r="A16">
-        <v>100300009</v>
+        <v>300100101</v>
       </c>
       <c r="B16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C16" t="s">
-        <v>40</v>
+        <v>63</v>
       </c>
       <c r="D16">
         <v>1</v>
       </c>
       <c r="E16" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="F16" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="G16">
-        <v>100300009</v>
-      </c>
-      <c r="H16">
-        <v>100300008</v>
+        <v>300100101</v>
+      </c>
+      <c r="H16" t="s">
+        <v>65</v>
       </c>
       <c r="I16">
         <v>100</v>
       </c>
       <c r="J16">
-        <v>100300009</v>
+        <v>300100101</v>
       </c>
       <c r="K16" t="s">
-        <v>41</v>
+        <v>66</v>
       </c>
     </row>
     <row r="17" spans="1:11">
       <c r="A17">
-        <v>100300010</v>
+        <v>300100102</v>
       </c>
       <c r="B17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C17" t="s">
-        <v>40</v>
+        <v>67</v>
       </c>
       <c r="D17">
         <v>1</v>
       </c>
       <c r="E17" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="F17" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="G17">
-        <v>100300010</v>
+        <v>300100102</v>
       </c>
       <c r="H17">
-        <v>100300009</v>
+        <v>300100101</v>
       </c>
       <c r="I17">
         <v>100</v>
       </c>
       <c r="J17">
-        <v>100300010</v>
+        <v>300100102</v>
       </c>
       <c r="K17" t="s">
-        <v>41</v>
+        <v>69</v>
       </c>
     </row>
     <row r="18" spans="1:11">
       <c r="A18">
-        <v>200000001</v>
+        <v>300200000</v>
       </c>
       <c r="B18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C18" t="s">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="D18">
         <v>1</v>
       </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-      <c r="F18">
-        <v>200</v>
+      <c r="E18" t="s">
+        <v>28</v>
+      </c>
+      <c r="F18" t="s">
+        <v>28</v>
       </c>
       <c r="G18">
-        <v>200000001</v>
+        <v>300200000</v>
       </c>
       <c r="I18">
         <v>100</v>
       </c>
       <c r="J18">
-        <v>200000001</v>
+        <v>300200000</v>
       </c>
       <c r="K18" t="s">
-        <v>53</v>
+        <v>71</v>
       </c>
     </row>
     <row r="19" spans="1:11">
       <c r="A19">
-        <v>200000002</v>
+        <v>300200001</v>
       </c>
       <c r="B19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C19" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D19">
         <v>1</v>
       </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-      <c r="F19">
-        <v>200</v>
+      <c r="E19" t="s">
+        <v>72</v>
+      </c>
+      <c r="F19" t="s">
+        <v>36</v>
       </c>
       <c r="G19">
-        <v>200000002</v>
+        <v>300200001</v>
       </c>
       <c r="H19">
-        <v>200000001</v>
+        <v>300200000</v>
       </c>
       <c r="I19">
         <v>100</v>
       </c>
       <c r="J19">
-        <v>200000002</v>
+        <v>300200001</v>
       </c>
       <c r="K19" t="s">
-        <v>53</v>
+        <v>73</v>
       </c>
     </row>
     <row r="20" spans="1:11">
       <c r="A20">
-        <v>200000003</v>
+        <v>300200002</v>
       </c>
       <c r="B20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C20" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D20">
         <v>1</v>
       </c>
-      <c r="E20">
-        <v>0</v>
-      </c>
-      <c r="F20">
-        <v>400</v>
+      <c r="E20" t="s">
+        <v>74</v>
+      </c>
+      <c r="F20" t="s">
+        <v>36</v>
       </c>
       <c r="G20">
-        <v>200000003</v>
+        <v>300200002</v>
       </c>
       <c r="H20">
-        <v>200000002</v>
+        <v>300200000</v>
       </c>
       <c r="I20">
         <v>100</v>
       </c>
       <c r="J20">
-        <v>200000003</v>
+        <v>300200002</v>
       </c>
       <c r="K20" t="s">
-        <v>53</v>
+        <v>75</v>
       </c>
     </row>
     <row r="21" spans="1:11">
       <c r="A21">
-        <v>200000004</v>
+        <v>300200003</v>
       </c>
       <c r="B21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C21" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="D21">
         <v>1</v>
       </c>
-      <c r="E21">
-        <v>0</v>
-      </c>
-      <c r="F21">
-        <v>600</v>
+      <c r="E21" t="s">
+        <v>76</v>
+      </c>
+      <c r="F21" t="s">
+        <v>36</v>
       </c>
       <c r="G21">
-        <v>200000004</v>
+        <v>300200003</v>
       </c>
       <c r="H21">
-        <v>200000003</v>
+        <v>300200000</v>
       </c>
       <c r="I21">
         <v>100</v>
       </c>
       <c r="J21">
-        <v>200000004</v>
+        <v>300200003</v>
       </c>
       <c r="K21" t="s">
-        <v>53</v>
+        <v>77</v>
       </c>
     </row>
     <row r="22" spans="1:11">
       <c r="A22">
-        <v>200000005</v>
+        <v>300200004</v>
       </c>
       <c r="B22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C22" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="D22">
         <v>1</v>
       </c>
-      <c r="E22">
-        <v>0</v>
-      </c>
-      <c r="F22">
-        <v>800</v>
+      <c r="E22" t="s">
+        <v>78</v>
+      </c>
+      <c r="F22" t="s">
+        <v>36</v>
       </c>
       <c r="G22">
-        <v>200000005</v>
+        <v>300200004</v>
       </c>
       <c r="H22">
-        <v>200000004</v>
+        <v>300200000</v>
       </c>
       <c r="I22">
         <v>100</v>
       </c>
       <c r="J22">
-        <v>200000005</v>
+        <v>300200004</v>
       </c>
       <c r="K22" t="s">
-        <v>53</v>
+        <v>79</v>
       </c>
     </row>
     <row r="23" spans="1:11">
       <c r="A23">
-        <v>200000006</v>
+        <v>300200101</v>
       </c>
       <c r="B23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C23" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="D23">
         <v>1</v>
       </c>
-      <c r="E23">
-        <v>0</v>
-      </c>
-      <c r="F23">
-        <v>1000</v>
+      <c r="E23" t="s">
+        <v>28</v>
+      </c>
+      <c r="F23" t="s">
+        <v>64</v>
       </c>
       <c r="G23">
-        <v>200000006</v>
-      </c>
-      <c r="H23">
-        <v>200000005</v>
+        <v>300200101</v>
+      </c>
+      <c r="H23" t="s">
+        <v>80</v>
       </c>
       <c r="I23">
         <v>100</v>
       </c>
       <c r="J23">
-        <v>200000006</v>
+        <v>300200101</v>
       </c>
       <c r="K23" t="s">
-        <v>53</v>
+        <v>81</v>
       </c>
     </row>
     <row r="24" spans="1:11">
       <c r="A24">
-        <v>200000007</v>
+        <v>300200102</v>
       </c>
       <c r="B24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C24" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="D24">
         <v>1</v>
       </c>
-      <c r="E24">
-        <v>0</v>
-      </c>
-      <c r="F24">
-        <v>1200</v>
+      <c r="E24" t="s">
+        <v>28</v>
+      </c>
+      <c r="F24" t="s">
+        <v>68</v>
       </c>
       <c r="G24">
-        <v>200000007</v>
+        <v>300200102</v>
       </c>
       <c r="H24">
-        <v>200000006</v>
+        <v>300200101</v>
       </c>
       <c r="I24">
         <v>100</v>
       </c>
       <c r="J24">
-        <v>200000007</v>
+        <v>300200102</v>
       </c>
       <c r="K24" t="s">
-        <v>53</v>
+        <v>82</v>
       </c>
     </row>
     <row r="25" spans="1:11">
       <c r="A25">
-        <v>200000008</v>
+        <v>300300000</v>
       </c>
       <c r="B25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C25" t="s">
-        <v>52</v>
+        <v>83</v>
       </c>
       <c r="D25">
         <v>1</v>
       </c>
-      <c r="E25">
-        <v>0</v>
-      </c>
-      <c r="F25">
-        <v>1400</v>
+      <c r="E25" t="s">
+        <v>84</v>
+      </c>
+      <c r="F25" t="s">
+        <v>28</v>
       </c>
       <c r="G25">
-        <v>200000008</v>
+        <v>300300000</v>
       </c>
       <c r="H25">
-        <v>200000007</v>
+        <v>300200000</v>
       </c>
       <c r="I25">
         <v>100</v>
       </c>
       <c r="J25">
-        <v>200000008</v>
+        <v>300300000</v>
       </c>
       <c r="K25" t="s">
-        <v>53</v>
+        <v>85</v>
       </c>
     </row>
     <row r="26" spans="1:11">
       <c r="A26">
-        <v>200000009</v>
+        <v>300300001</v>
       </c>
       <c r="B26">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C26" t="s">
-        <v>52</v>
+        <v>86</v>
       </c>
       <c r="D26">
         <v>1</v>
       </c>
-      <c r="E26">
-        <v>0</v>
-      </c>
-      <c r="F26">
-        <v>1600</v>
+      <c r="E26" t="s">
+        <v>87</v>
+      </c>
+      <c r="F26" t="s">
+        <v>36</v>
       </c>
       <c r="G26">
-        <v>200000009</v>
+        <v>300300001</v>
       </c>
       <c r="H26">
-        <v>200000008</v>
+        <v>300300000</v>
       </c>
       <c r="I26">
         <v>100</v>
       </c>
       <c r="J26">
-        <v>200000009</v>
+        <v>300300001</v>
       </c>
       <c r="K26" t="s">
-        <v>53</v>
+        <v>88</v>
       </c>
     </row>
     <row r="27" spans="1:11">
       <c r="A27">
-        <v>200000010</v>
+        <v>300300002</v>
       </c>
       <c r="B27">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C27" t="s">
-        <v>52</v>
+        <v>89</v>
       </c>
       <c r="D27">
         <v>1</v>
       </c>
-      <c r="E27">
-        <v>0</v>
-      </c>
-      <c r="F27">
-        <v>1800</v>
+      <c r="E27" t="s">
+        <v>90</v>
+      </c>
+      <c r="F27" t="s">
+        <v>36</v>
       </c>
       <c r="G27">
-        <v>200000010</v>
+        <v>300300002</v>
       </c>
       <c r="H27">
-        <v>200000009</v>
+        <v>300300000</v>
       </c>
       <c r="I27">
         <v>100</v>
       </c>
       <c r="J27">
-        <v>200000010</v>
+        <v>300300002</v>
       </c>
       <c r="K27" t="s">
-        <v>53</v>
+        <v>91</v>
       </c>
     </row>
     <row r="28" spans="1:11">
       <c r="A28">
-        <v>200100001</v>
+        <v>300300003</v>
       </c>
       <c r="B28">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C28" t="s">
-        <v>54</v>
+        <v>89</v>
       </c>
       <c r="D28">
         <v>1</v>
       </c>
-      <c r="E28">
-        <v>0</v>
-      </c>
-      <c r="F28">
-        <v>0</v>
+      <c r="E28" t="s">
+        <v>92</v>
+      </c>
+      <c r="F28" t="s">
+        <v>36</v>
       </c>
       <c r="G28">
-        <v>200100001</v>
+        <v>300300003</v>
+      </c>
+      <c r="H28">
+        <v>300300000</v>
       </c>
       <c r="I28">
         <v>100</v>
       </c>
       <c r="J28">
-        <v>200100001</v>
+        <v>300300003</v>
       </c>
       <c r="K28" t="s">
-        <v>55</v>
+        <v>93</v>
       </c>
     </row>
     <row r="29" spans="1:11">
       <c r="A29">
-        <v>200100002</v>
+        <v>300300004</v>
       </c>
       <c r="B29">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C29" t="s">
-        <v>54</v>
+        <v>94</v>
       </c>
       <c r="D29">
         <v>1</v>
       </c>
-      <c r="E29">
-        <v>0</v>
-      </c>
-      <c r="F29">
-        <v>0</v>
+      <c r="E29" t="s">
+        <v>95</v>
+      </c>
+      <c r="F29" t="s">
+        <v>36</v>
       </c>
       <c r="G29">
-        <v>200100002</v>
+        <v>300300004</v>
       </c>
       <c r="H29">
-        <v>200100001</v>
+        <v>300300000</v>
       </c>
       <c r="I29">
         <v>100</v>
       </c>
       <c r="J29">
-        <v>200100002</v>
+        <v>300300004</v>
       </c>
       <c r="K29" t="s">
-        <v>56</v>
+        <v>96</v>
       </c>
     </row>
     <row r="30" spans="1:11">
       <c r="A30">
-        <v>200100003</v>
+        <v>300300101</v>
       </c>
       <c r="B30">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C30" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="D30">
         <v>1</v>
       </c>
-      <c r="E30">
-        <v>0</v>
-      </c>
-      <c r="F30">
-        <v>0</v>
+      <c r="E30" t="s">
+        <v>84</v>
+      </c>
+      <c r="F30" t="s">
+        <v>64</v>
       </c>
       <c r="G30">
-        <v>200100003</v>
-      </c>
-      <c r="H30">
-        <v>200100002</v>
+        <v>300300101</v>
+      </c>
+      <c r="H30" t="s">
+        <v>97</v>
       </c>
       <c r="I30">
         <v>100</v>
       </c>
       <c r="J30">
-        <v>200100003</v>
+        <v>300300101</v>
       </c>
       <c r="K30" t="s">
-        <v>57</v>
+        <v>98</v>
       </c>
     </row>
     <row r="31" spans="1:11">
       <c r="A31">
-        <v>200100004</v>
+        <v>300300102</v>
       </c>
       <c r="B31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C31" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="D31">
         <v>1</v>
       </c>
-      <c r="E31">
-        <v>0</v>
-      </c>
-      <c r="F31">
-        <v>0</v>
+      <c r="E31" t="s">
+        <v>84</v>
+      </c>
+      <c r="F31" t="s">
+        <v>68</v>
       </c>
       <c r="G31">
-        <v>200100004</v>
+        <v>300300102</v>
       </c>
       <c r="H31">
-        <v>200100003</v>
+        <v>300300101</v>
       </c>
       <c r="I31">
         <v>100</v>
       </c>
       <c r="J31">
-        <v>200100004</v>
+        <v>300300102</v>
       </c>
       <c r="K31" t="s">
-        <v>58</v>
+        <v>99</v>
       </c>
     </row>
     <row r="32" spans="1:11">
       <c r="A32">
-        <v>300000000</v>
+        <v>300400000</v>
       </c>
       <c r="B32">
         <v>3</v>
       </c>
       <c r="C32" t="s">
-        <v>59</v>
+        <v>100</v>
       </c>
       <c r="D32">
         <v>1</v>
       </c>
-      <c r="E32">
-        <v>0</v>
-      </c>
-      <c r="F32">
-        <v>0</v>
+      <c r="E32" t="s">
+        <v>101</v>
+      </c>
+      <c r="F32" t="s">
+        <v>28</v>
       </c>
       <c r="G32">
-        <v>300000000</v>
+        <v>300400000</v>
+      </c>
+      <c r="H32">
+        <v>300600000</v>
       </c>
       <c r="I32">
         <v>100</v>
       </c>
       <c r="J32">
-        <v>300000000</v>
+        <v>300400000</v>
       </c>
       <c r="K32" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
+      <c r="A33">
+        <v>300400001</v>
+      </c>
+      <c r="B33">
+        <v>3</v>
+      </c>
+      <c r="C33" t="s">
+        <v>51</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+      <c r="E33" t="s">
+        <v>103</v>
+      </c>
+      <c r="F33" t="s">
+        <v>36</v>
+      </c>
+      <c r="G33">
+        <v>300400001</v>
+      </c>
+      <c r="H33">
+        <v>300400000</v>
+      </c>
+      <c r="I33">
+        <v>100</v>
+      </c>
+      <c r="J33">
+        <v>300400001</v>
+      </c>
+      <c r="K33" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
+      <c r="A34">
+        <v>300400002</v>
+      </c>
+      <c r="B34">
+        <v>3</v>
+      </c>
+      <c r="C34" t="s">
+        <v>105</v>
+      </c>
+      <c r="D34">
+        <v>1</v>
+      </c>
+      <c r="E34" t="s">
+        <v>106</v>
+      </c>
+      <c r="F34" t="s">
+        <v>36</v>
+      </c>
+      <c r="G34">
+        <v>300400002</v>
+      </c>
+      <c r="H34">
+        <v>300400000</v>
+      </c>
+      <c r="I34">
+        <v>100</v>
+      </c>
+      <c r="J34">
+        <v>300400002</v>
+      </c>
+      <c r="K34" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
+      <c r="A35">
+        <v>300400003</v>
+      </c>
+      <c r="B35">
+        <v>3</v>
+      </c>
+      <c r="C35" t="s">
+        <v>108</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
+      <c r="E35" t="s">
+        <v>101</v>
+      </c>
+      <c r="F35" t="s">
+        <v>36</v>
+      </c>
+      <c r="G35">
+        <v>300400003</v>
+      </c>
+      <c r="H35">
+        <v>300400000</v>
+      </c>
+      <c r="I35">
+        <v>100</v>
+      </c>
+      <c r="J35">
+        <v>300400003</v>
+      </c>
+      <c r="K35" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
+      <c r="A36">
+        <v>300400004</v>
+      </c>
+      <c r="B36">
+        <v>3</v>
+      </c>
+      <c r="C36" t="s">
+        <v>110</v>
+      </c>
+      <c r="D36">
+        <v>1</v>
+      </c>
+      <c r="E36" t="s">
+        <v>111</v>
+      </c>
+      <c r="F36" t="s">
+        <v>36</v>
+      </c>
+      <c r="G36">
+        <v>300400004</v>
+      </c>
+      <c r="H36">
+        <v>300400000</v>
+      </c>
+      <c r="I36">
+        <v>100</v>
+      </c>
+      <c r="J36">
+        <v>300400004</v>
+      </c>
+      <c r="K36" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
+      <c r="A37">
+        <v>300400005</v>
+      </c>
+      <c r="B37">
+        <v>3</v>
+      </c>
+      <c r="C37" t="s">
+        <v>86</v>
+      </c>
+      <c r="D37">
+        <v>1</v>
+      </c>
+      <c r="E37" t="s">
+        <v>113</v>
+      </c>
+      <c r="F37" t="s">
+        <v>36</v>
+      </c>
+      <c r="G37">
+        <v>300400005</v>
+      </c>
+      <c r="H37">
+        <v>300400000</v>
+      </c>
+      <c r="I37">
+        <v>100</v>
+      </c>
+      <c r="J37">
+        <v>300400005</v>
+      </c>
+      <c r="K37" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
+      <c r="A38">
+        <v>300400101</v>
+      </c>
+      <c r="B38">
+        <v>3</v>
+      </c>
+      <c r="C38" t="s">
+        <v>63</v>
+      </c>
+      <c r="D38">
+        <v>1</v>
+      </c>
+      <c r="E38" t="s">
+        <v>101</v>
+      </c>
+      <c r="F38" t="s">
+        <v>64</v>
+      </c>
+      <c r="G38">
+        <v>300400101</v>
+      </c>
+      <c r="H38" t="s">
+        <v>115</v>
+      </c>
+      <c r="I38">
+        <v>100</v>
+      </c>
+      <c r="J38">
+        <v>300400101</v>
+      </c>
+      <c r="K38" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
+      <c r="A39">
+        <v>300400102</v>
+      </c>
+      <c r="B39">
+        <v>3</v>
+      </c>
+      <c r="C39" t="s">
+        <v>67</v>
+      </c>
+      <c r="D39">
+        <v>1</v>
+      </c>
+      <c r="E39" t="s">
+        <v>101</v>
+      </c>
+      <c r="F39" t="s">
+        <v>68</v>
+      </c>
+      <c r="G39">
+        <v>300400102</v>
+      </c>
+      <c r="H39">
+        <v>300400101</v>
+      </c>
+      <c r="I39">
+        <v>100</v>
+      </c>
+      <c r="J39">
+        <v>300400102</v>
+      </c>
+      <c r="K39" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="40" ht="12" customHeight="1" spans="1:11">
+      <c r="A40">
+        <v>300500000</v>
+      </c>
+      <c r="B40">
+        <v>3</v>
+      </c>
+      <c r="C40" t="s">
+        <v>118</v>
+      </c>
+      <c r="D40">
+        <v>1</v>
+      </c>
+      <c r="E40" t="s">
+        <v>119</v>
+      </c>
+      <c r="F40" t="s">
+        <v>28</v>
+      </c>
+      <c r="G40">
+        <v>300500000</v>
+      </c>
+      <c r="H40">
+        <v>300700000</v>
+      </c>
+      <c r="I40">
+        <v>100</v>
+      </c>
+      <c r="J40">
+        <v>300500000</v>
+      </c>
+      <c r="K40" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="41" ht="12" customHeight="1" spans="1:11">
+      <c r="A41">
+        <v>300500001</v>
+      </c>
+      <c r="B41">
+        <v>3</v>
+      </c>
+      <c r="C41" t="s">
+        <v>51</v>
+      </c>
+      <c r="D41">
+        <v>1</v>
+      </c>
+      <c r="E41" t="s">
+        <v>121</v>
+      </c>
+      <c r="F41" t="s">
+        <v>36</v>
+      </c>
+      <c r="G41">
+        <v>300500001</v>
+      </c>
+      <c r="H41">
+        <v>300500000</v>
+      </c>
+      <c r="I41">
+        <v>100</v>
+      </c>
+      <c r="J41">
+        <v>300500001</v>
+      </c>
+      <c r="K41" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="42" ht="12" customHeight="1" spans="1:11">
+      <c r="A42">
+        <v>300500002</v>
+      </c>
+      <c r="B42">
+        <v>3</v>
+      </c>
+      <c r="C42" t="s">
+        <v>54</v>
+      </c>
+      <c r="D42">
+        <v>1</v>
+      </c>
+      <c r="E42" t="s">
+        <v>123</v>
+      </c>
+      <c r="F42" t="s">
+        <v>36</v>
+      </c>
+      <c r="G42">
+        <v>300500002</v>
+      </c>
+      <c r="H42">
+        <v>300500000</v>
+      </c>
+      <c r="I42">
+        <v>100</v>
+      </c>
+      <c r="J42">
+        <v>300500002</v>
+      </c>
+      <c r="K42" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="43" ht="12" customHeight="1" spans="1:11">
+      <c r="A43">
+        <v>300500003</v>
+      </c>
+      <c r="B43">
+        <v>3</v>
+      </c>
+      <c r="C43" t="s">
+        <v>57</v>
+      </c>
+      <c r="D43">
+        <v>1</v>
+      </c>
+      <c r="E43" t="s">
+        <v>125</v>
+      </c>
+      <c r="F43" t="s">
+        <v>36</v>
+      </c>
+      <c r="G43">
+        <v>300500003</v>
+      </c>
+      <c r="H43">
+        <v>300500000</v>
+      </c>
+      <c r="I43">
+        <v>100</v>
+      </c>
+      <c r="J43">
+        <v>300500003</v>
+      </c>
+      <c r="K43" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="44" ht="12" customHeight="1" spans="1:11">
+      <c r="A44">
+        <v>300500004</v>
+      </c>
+      <c r="B44">
+        <v>3</v>
+      </c>
+      <c r="C44" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="44" ht="15" customHeight="1"/>
-    <row r="45" ht="15" customHeight="1"/>
-    <row r="46" ht="15" customHeight="1"/>
-    <row r="47" ht="15" customHeight="1"/>
-    <row r="48" ht="15" customHeight="1"/>
-    <row r="49" ht="15" customHeight="1"/>
-    <row r="50" ht="15" customHeight="1"/>
-    <row r="51" ht="15" customHeight="1"/>
-    <row r="52" ht="15" customHeight="1"/>
-    <row r="53" ht="15" customHeight="1"/>
-    <row r="54" ht="15" customHeight="1"/>
-    <row r="86" ht="12" customHeight="1"/>
-    <row r="87" ht="12" customHeight="1"/>
-    <row r="88" ht="12" customHeight="1"/>
-    <row r="89" ht="12" customHeight="1"/>
-    <row r="90" ht="12" customHeight="1"/>
-    <row r="91" ht="12" customHeight="1"/>
-    <row r="92" ht="12" customHeight="1"/>
+      <c r="D44">
+        <v>1</v>
+      </c>
+      <c r="E44" t="s">
+        <v>127</v>
+      </c>
+      <c r="F44" t="s">
+        <v>36</v>
+      </c>
+      <c r="G44">
+        <v>300500004</v>
+      </c>
+      <c r="H44">
+        <v>300500000</v>
+      </c>
+      <c r="I44">
+        <v>100</v>
+      </c>
+      <c r="J44">
+        <v>300500004</v>
+      </c>
+      <c r="K44" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="45" ht="12" customHeight="1" spans="1:11">
+      <c r="A45">
+        <v>300500101</v>
+      </c>
+      <c r="B45">
+        <v>3</v>
+      </c>
+      <c r="C45" t="s">
+        <v>63</v>
+      </c>
+      <c r="D45">
+        <v>1</v>
+      </c>
+      <c r="E45" t="s">
+        <v>119</v>
+      </c>
+      <c r="F45" t="s">
+        <v>64</v>
+      </c>
+      <c r="G45">
+        <v>300500101</v>
+      </c>
+      <c r="H45" t="s">
+        <v>129</v>
+      </c>
+      <c r="I45">
+        <v>100</v>
+      </c>
+      <c r="J45">
+        <v>300500101</v>
+      </c>
+      <c r="K45" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="46" ht="12" customHeight="1" spans="1:11">
+      <c r="A46">
+        <v>300500102</v>
+      </c>
+      <c r="B46">
+        <v>3</v>
+      </c>
+      <c r="C46" t="s">
+        <v>67</v>
+      </c>
+      <c r="D46">
+        <v>1</v>
+      </c>
+      <c r="E46" t="s">
+        <v>119</v>
+      </c>
+      <c r="F46" t="s">
+        <v>68</v>
+      </c>
+      <c r="G46">
+        <v>300500102</v>
+      </c>
+      <c r="H46">
+        <v>300500101</v>
+      </c>
+      <c r="I46">
+        <v>100</v>
+      </c>
+      <c r="J46">
+        <v>300500102</v>
+      </c>
+      <c r="K46" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="47" ht="12" customHeight="1" spans="1:11">
+      <c r="A47">
+        <v>300600000</v>
+      </c>
+      <c r="B47">
+        <v>3</v>
+      </c>
+      <c r="C47" t="s">
+        <v>132</v>
+      </c>
+      <c r="D47">
+        <v>1</v>
+      </c>
+      <c r="E47" t="s">
+        <v>133</v>
+      </c>
+      <c r="F47" t="s">
+        <v>28</v>
+      </c>
+      <c r="G47">
+        <v>300600000</v>
+      </c>
+      <c r="H47">
+        <v>300300000</v>
+      </c>
+      <c r="I47">
+        <v>100</v>
+      </c>
+      <c r="J47">
+        <v>300600000</v>
+      </c>
+      <c r="K47" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="48" ht="12" customHeight="1" spans="1:11">
+      <c r="A48">
+        <v>300600001</v>
+      </c>
+      <c r="B48">
+        <v>3</v>
+      </c>
+      <c r="C48" t="s">
+        <v>135</v>
+      </c>
+      <c r="D48">
+        <v>1</v>
+      </c>
+      <c r="E48" t="s">
+        <v>136</v>
+      </c>
+      <c r="F48" t="s">
+        <v>36</v>
+      </c>
+      <c r="G48">
+        <v>300600001</v>
+      </c>
+      <c r="H48">
+        <v>300600000</v>
+      </c>
+      <c r="I48">
+        <v>100</v>
+      </c>
+      <c r="J48">
+        <v>300600001</v>
+      </c>
+      <c r="K48" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="49" ht="12" customHeight="1" spans="1:11">
+      <c r="A49">
+        <v>300600002</v>
+      </c>
+      <c r="B49">
+        <v>3</v>
+      </c>
+      <c r="C49" t="s">
+        <v>51</v>
+      </c>
+      <c r="D49">
+        <v>1</v>
+      </c>
+      <c r="E49" t="s">
+        <v>138</v>
+      </c>
+      <c r="F49" t="s">
+        <v>36</v>
+      </c>
+      <c r="G49">
+        <v>300600002</v>
+      </c>
+      <c r="H49">
+        <v>300600000</v>
+      </c>
+      <c r="I49">
+        <v>100</v>
+      </c>
+      <c r="J49">
+        <v>300600002</v>
+      </c>
+      <c r="K49" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="50" ht="12" customHeight="1" spans="1:11">
+      <c r="A50">
+        <v>300600003</v>
+      </c>
+      <c r="B50">
+        <v>3</v>
+      </c>
+      <c r="C50" t="s">
+        <v>54</v>
+      </c>
+      <c r="D50">
+        <v>1</v>
+      </c>
+      <c r="E50" t="s">
+        <v>133</v>
+      </c>
+      <c r="F50" t="s">
+        <v>36</v>
+      </c>
+      <c r="G50">
+        <v>300600003</v>
+      </c>
+      <c r="H50">
+        <v>300600000</v>
+      </c>
+      <c r="I50">
+        <v>100</v>
+      </c>
+      <c r="J50">
+        <v>300600003</v>
+      </c>
+      <c r="K50" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="51" ht="12" customHeight="1" spans="1:11">
+      <c r="A51">
+        <v>300600004</v>
+      </c>
+      <c r="B51">
+        <v>3</v>
+      </c>
+      <c r="C51" t="s">
+        <v>57</v>
+      </c>
+      <c r="D51">
+        <v>1</v>
+      </c>
+      <c r="E51" t="s">
+        <v>141</v>
+      </c>
+      <c r="F51" t="s">
+        <v>36</v>
+      </c>
+      <c r="G51">
+        <v>300600004</v>
+      </c>
+      <c r="H51">
+        <v>300600000</v>
+      </c>
+      <c r="I51">
+        <v>100</v>
+      </c>
+      <c r="J51">
+        <v>300600004</v>
+      </c>
+      <c r="K51" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="52" ht="12" customHeight="1" spans="1:11">
+      <c r="A52">
+        <v>300600005</v>
+      </c>
+      <c r="B52">
+        <v>3</v>
+      </c>
+      <c r="C52" t="s">
+        <v>60</v>
+      </c>
+      <c r="D52">
+        <v>1</v>
+      </c>
+      <c r="E52" t="s">
+        <v>143</v>
+      </c>
+      <c r="F52" t="s">
+        <v>36</v>
+      </c>
+      <c r="G52">
+        <v>300600005</v>
+      </c>
+      <c r="H52">
+        <v>300600000</v>
+      </c>
+      <c r="I52">
+        <v>100</v>
+      </c>
+      <c r="J52">
+        <v>300600005</v>
+      </c>
+      <c r="K52" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="53" ht="12" customHeight="1" spans="1:11">
+      <c r="A53">
+        <v>300600101</v>
+      </c>
+      <c r="B53">
+        <v>3</v>
+      </c>
+      <c r="C53" t="s">
+        <v>63</v>
+      </c>
+      <c r="D53">
+        <v>1</v>
+      </c>
+      <c r="E53" t="s">
+        <v>133</v>
+      </c>
+      <c r="F53" t="s">
+        <v>64</v>
+      </c>
+      <c r="G53">
+        <v>300600101</v>
+      </c>
+      <c r="H53" t="s">
+        <v>145</v>
+      </c>
+      <c r="I53">
+        <v>100</v>
+      </c>
+      <c r="J53">
+        <v>300600101</v>
+      </c>
+      <c r="K53" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="54" ht="12" customHeight="1" spans="1:11">
+      <c r="A54">
+        <v>300600102</v>
+      </c>
+      <c r="B54">
+        <v>3</v>
+      </c>
+      <c r="C54" t="s">
+        <v>67</v>
+      </c>
+      <c r="D54">
+        <v>1</v>
+      </c>
+      <c r="E54" t="s">
+        <v>133</v>
+      </c>
+      <c r="F54" t="s">
+        <v>68</v>
+      </c>
+      <c r="G54">
+        <v>300600102</v>
+      </c>
+      <c r="H54">
+        <v>300600101</v>
+      </c>
+      <c r="I54">
+        <v>100</v>
+      </c>
+      <c r="J54">
+        <v>300600102</v>
+      </c>
+      <c r="K54" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
+      <c r="A55">
+        <v>300700000</v>
+      </c>
+      <c r="B55">
+        <v>3</v>
+      </c>
+      <c r="C55" t="s">
+        <v>146</v>
+      </c>
+      <c r="D55">
+        <v>1</v>
+      </c>
+      <c r="E55" t="s">
+        <v>147</v>
+      </c>
+      <c r="F55" t="s">
+        <v>28</v>
+      </c>
+      <c r="G55">
+        <v>300700000</v>
+      </c>
+      <c r="H55">
+        <v>300100000</v>
+      </c>
+      <c r="I55">
+        <v>100</v>
+      </c>
+      <c r="J55">
+        <v>300700000</v>
+      </c>
+      <c r="K55" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="56" ht="15" customHeight="1" spans="1:11">
+      <c r="A56">
+        <v>300700001</v>
+      </c>
+      <c r="B56">
+        <v>3</v>
+      </c>
+      <c r="C56" t="s">
+        <v>51</v>
+      </c>
+      <c r="D56">
+        <v>1</v>
+      </c>
+      <c r="E56" t="s">
+        <v>149</v>
+      </c>
+      <c r="F56" t="s">
+        <v>36</v>
+      </c>
+      <c r="G56">
+        <v>300700001</v>
+      </c>
+      <c r="H56">
+        <v>300700000</v>
+      </c>
+      <c r="I56">
+        <v>100</v>
+      </c>
+      <c r="J56">
+        <v>300700001</v>
+      </c>
+      <c r="K56" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="57" ht="15" customHeight="1" spans="1:11">
+      <c r="A57">
+        <v>300700002</v>
+      </c>
+      <c r="B57">
+        <v>3</v>
+      </c>
+      <c r="C57" t="s">
+        <v>54</v>
+      </c>
+      <c r="D57">
+        <v>1</v>
+      </c>
+      <c r="E57" t="s">
+        <v>151</v>
+      </c>
+      <c r="F57" t="s">
+        <v>36</v>
+      </c>
+      <c r="G57">
+        <v>300700002</v>
+      </c>
+      <c r="H57">
+        <v>300700000</v>
+      </c>
+      <c r="I57">
+        <v>100</v>
+      </c>
+      <c r="J57">
+        <v>300700002</v>
+      </c>
+      <c r="K57" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="58" ht="15" customHeight="1" spans="1:11">
+      <c r="A58">
+        <v>300700003</v>
+      </c>
+      <c r="B58">
+        <v>3</v>
+      </c>
+      <c r="C58" t="s">
+        <v>57</v>
+      </c>
+      <c r="D58">
+        <v>1</v>
+      </c>
+      <c r="E58" t="s">
+        <v>153</v>
+      </c>
+      <c r="F58" t="s">
+        <v>36</v>
+      </c>
+      <c r="G58">
+        <v>300700003</v>
+      </c>
+      <c r="H58">
+        <v>300700000</v>
+      </c>
+      <c r="I58">
+        <v>100</v>
+      </c>
+      <c r="J58">
+        <v>300700003</v>
+      </c>
+      <c r="K58" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="59" ht="15" customHeight="1" spans="1:11">
+      <c r="A59">
+        <v>300700004</v>
+      </c>
+      <c r="B59">
+        <v>3</v>
+      </c>
+      <c r="C59" t="s">
+        <v>60</v>
+      </c>
+      <c r="D59">
+        <v>1</v>
+      </c>
+      <c r="E59" t="s">
+        <v>155</v>
+      </c>
+      <c r="F59" t="s">
+        <v>36</v>
+      </c>
+      <c r="G59">
+        <v>300700004</v>
+      </c>
+      <c r="H59">
+        <v>300700000</v>
+      </c>
+      <c r="I59">
+        <v>100</v>
+      </c>
+      <c r="J59">
+        <v>300700004</v>
+      </c>
+      <c r="K59" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="60" ht="15" customHeight="1" spans="1:11">
+      <c r="A60">
+        <v>300700101</v>
+      </c>
+      <c r="B60">
+        <v>3</v>
+      </c>
+      <c r="C60" t="s">
+        <v>63</v>
+      </c>
+      <c r="D60">
+        <v>1</v>
+      </c>
+      <c r="E60" t="s">
+        <v>147</v>
+      </c>
+      <c r="F60" t="s">
+        <v>64</v>
+      </c>
+      <c r="G60">
+        <v>300700101</v>
+      </c>
+      <c r="H60" t="s">
+        <v>157</v>
+      </c>
+      <c r="I60">
+        <v>100</v>
+      </c>
+      <c r="J60">
+        <v>300700101</v>
+      </c>
+      <c r="K60" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="61" ht="15" customHeight="1" spans="1:11">
+      <c r="A61">
+        <v>300700102</v>
+      </c>
+      <c r="B61">
+        <v>3</v>
+      </c>
+      <c r="C61" t="s">
+        <v>67</v>
+      </c>
+      <c r="D61">
+        <v>1</v>
+      </c>
+      <c r="E61" t="s">
+        <v>147</v>
+      </c>
+      <c r="F61" t="s">
+        <v>68</v>
+      </c>
+      <c r="G61">
+        <v>300700102</v>
+      </c>
+      <c r="H61">
+        <v>300700101</v>
+      </c>
+      <c r="I61">
+        <v>100</v>
+      </c>
+      <c r="J61">
+        <v>300700102</v>
+      </c>
+      <c r="K61" t="s">
+        <v>159</v>
+      </c>
+    </row>
     <row r="93" ht="12" customHeight="1"/>
     <row r="94" ht="12" customHeight="1"/>
+    <row r="95" ht="12" customHeight="1"/>
+    <row r="96" ht="12" customHeight="1"/>
+    <row r="97" ht="12" customHeight="1"/>
+    <row r="98" ht="12" customHeight="1"/>
+    <row r="99" ht="12" customHeight="1"/>
+    <row r="100" ht="12" customHeight="1"/>
+    <row r="101" ht="12" customHeight="1"/>
   </sheetData>
   <sortState ref="A4:V88">
     <sortCondition ref="A4"/>

--- a/Demon Lord Roguelike/Assets/Data/Excel/excel_research_info[研究信息].xlsx
+++ b/Demon Lord Roguelike/Assets/Data/Excel/excel_research_info[研究信息].xlsx
@@ -1469,10 +1469,10 @@
   <sheetPr/>
   <dimension ref="A1:K101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="K35" sqref="K35"/>
+      <selection pane="topRight" activeCell="C56" sqref="C56:C59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/Demon Lord Roguelike/Assets/Data/Excel/excel_research_info[研究信息].xlsx
+++ b/Demon Lord Roguelike/Assets/Data/Excel/excel_research_info[研究信息].xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="195">
   <si>
     <t>id</t>
   </si>
@@ -182,6 +182,42 @@
     <t>孕育可跳过</t>
   </si>
   <si>
+    <t>解锁孕育稀有度：R</t>
+  </si>
+  <si>
+    <t>100*1</t>
+  </si>
+  <si>
+    <t>孕育稀有度：R 概率+1%</t>
+  </si>
+  <si>
+    <t>100401000,100401001,</t>
+  </si>
+  <si>
+    <t>解锁孕育稀有度：SR</t>
+  </si>
+  <si>
+    <t>1000*1</t>
+  </si>
+  <si>
+    <t>孕育稀有度：SR 概率+1%</t>
+  </si>
+  <si>
+    <t>-800</t>
+  </si>
+  <si>
+    <t>100402000,100402001,</t>
+  </si>
+  <si>
+    <t>解锁孕育稀有度：SSR</t>
+  </si>
+  <si>
+    <t>10000*1</t>
+  </si>
+  <si>
+    <t>孕育稀有度：SSR 概率+1%</t>
+  </si>
+  <si>
     <t>ui_research_5</t>
   </si>
   <si>
@@ -315,9 +351,6 @@
   </si>
   <si>
     <t>ui_research_37</t>
-  </si>
-  <si>
-    <t>-800</t>
   </si>
   <si>
     <t>解锁种族：史莱姆</t>
@@ -1670,12 +1703,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K71"/>
+  <dimension ref="A1:K77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="E1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="K8" sqref="K8:K9"/>
+      <selection pane="topRight" activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2066,515 +2099,518 @@
     </row>
     <row r="12">
       <c r="A12" s="50">
-        <v>200000001</v>
+        <v>100401000</v>
       </c>
       <c r="B12" s="50">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C12" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="D12" s="50">
+        <v>1</v>
+      </c>
+      <c r="E12" s="50" t="s">
+        <v>27</v>
+      </c>
+      <c r="F12" s="50" t="s">
+        <v>40</v>
+      </c>
+      <c r="G12" s="50">
+        <v>100401000</v>
+      </c>
+      <c r="H12" s="50">
+        <v>100400001</v>
+      </c>
+      <c r="I12" s="50">
+        <v>100</v>
+      </c>
+      <c r="J12" s="50">
+        <v>100401000</v>
+      </c>
+      <c r="K12" s="50" t="s">
         <v>51</v>
-      </c>
-      <c r="D12" s="50">
-        <v>30</v>
-      </c>
-      <c r="E12" s="50">
-        <v>-200</v>
-      </c>
-      <c r="F12" s="50">
-        <v>0</v>
-      </c>
-      <c r="G12" s="50">
-        <v>200000001</v>
-      </c>
-      <c r="I12" s="50" t="s">
-        <v>47</v>
-      </c>
-      <c r="J12" s="50">
-        <v>200000001</v>
-      </c>
-      <c r="K12" s="50" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="50">
-        <v>200100001</v>
+        <v>100401001</v>
       </c>
       <c r="B13" s="50">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C13" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="D13" s="50">
+        <v>50</v>
+      </c>
+      <c r="E13" s="50" t="s">
+        <v>40</v>
+      </c>
+      <c r="F13" s="50" t="s">
+        <v>40</v>
+      </c>
+      <c r="G13" s="50">
+        <v>100401001</v>
+      </c>
+      <c r="H13" s="50">
+        <v>100401000</v>
+      </c>
+      <c r="I13" s="50" t="s">
+        <v>52</v>
+      </c>
+      <c r="J13" s="50">
+        <v>100401001</v>
+      </c>
+      <c r="K13" s="50" t="s">
         <v>53</v>
-      </c>
-      <c r="D13" s="50">
-        <v>4</v>
-      </c>
-      <c r="E13" s="50" t="s">
-        <v>28</v>
-      </c>
-      <c r="F13" s="50" t="s">
-        <v>45</v>
-      </c>
-      <c r="G13" s="50">
-        <v>200100001</v>
-      </c>
-      <c r="I13" s="50" t="s">
-        <v>54</v>
-      </c>
-      <c r="J13" s="50">
-        <v>200100001</v>
-      </c>
-      <c r="K13" s="50" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="50">
-        <v>300100000</v>
+        <v>100402000</v>
       </c>
       <c r="B14" s="50">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C14" s="50" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="D14" s="50">
         <v>1</v>
       </c>
       <c r="E14" s="50" t="s">
-        <v>57</v>
+        <v>27</v>
       </c>
       <c r="F14" s="50" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G14" s="50">
-        <v>300100000</v>
-      </c>
-      <c r="H14" s="50">
-        <v>300200000</v>
+        <v>100402000</v>
+      </c>
+      <c r="H14" s="50" t="s">
+        <v>54</v>
       </c>
       <c r="I14" s="50">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="J14" s="50">
-        <v>300100000</v>
+        <v>100402000</v>
       </c>
       <c r="K14" s="50" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="50">
-        <v>300100001</v>
+        <v>100402001</v>
       </c>
       <c r="B15" s="50">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C15" s="50" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="D15" s="50">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="E15" s="50" t="s">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="F15" s="50" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="G15" s="50">
-        <v>300100001</v>
+        <v>100402001</v>
       </c>
       <c r="H15" s="50">
-        <v>300100000</v>
-      </c>
-      <c r="I15" s="50">
-        <v>100</v>
+        <v>100402000</v>
+      </c>
+      <c r="I15" s="50" t="s">
+        <v>56</v>
       </c>
       <c r="J15" s="50">
-        <v>300100001</v>
+        <v>100402001</v>
       </c>
       <c r="K15" s="50" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="50">
-        <v>300100002</v>
+        <v>100403000</v>
       </c>
       <c r="B16" s="50">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C16" s="50" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="D16" s="50">
         <v>1</v>
       </c>
       <c r="E16" s="50" t="s">
-        <v>63</v>
+        <v>27</v>
       </c>
       <c r="F16" s="50" t="s">
-        <v>28</v>
+        <v>58</v>
       </c>
       <c r="G16" s="50">
-        <v>300100002</v>
-      </c>
-      <c r="H16" s="50">
-        <v>300100000</v>
+        <v>100403000</v>
+      </c>
+      <c r="H16" s="50" t="s">
+        <v>59</v>
       </c>
       <c r="I16" s="50">
-        <v>100</v>
+        <v>10000</v>
       </c>
       <c r="J16" s="50">
-        <v>300100002</v>
+        <v>100403000</v>
       </c>
       <c r="K16" s="50" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="50">
-        <v>300100003</v>
+        <v>100403001</v>
       </c>
       <c r="B17" s="50">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C17" s="50" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="D17" s="50">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="E17" s="50" t="s">
-        <v>66</v>
+        <v>40</v>
       </c>
       <c r="F17" s="50" t="s">
-        <v>28</v>
+        <v>58</v>
       </c>
       <c r="G17" s="50">
-        <v>300100003</v>
+        <v>100403001</v>
       </c>
       <c r="H17" s="50">
-        <v>300100000</v>
-      </c>
-      <c r="I17" s="50">
-        <v>100</v>
+        <v>100403000</v>
+      </c>
+      <c r="I17" s="50" t="s">
+        <v>61</v>
       </c>
       <c r="J17" s="50">
-        <v>300100003</v>
+        <v>100403001</v>
       </c>
       <c r="K17" s="50" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="50">
-        <v>300100004</v>
+        <v>200000001</v>
       </c>
       <c r="B18" s="50">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C18" s="50" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D18" s="50">
-        <v>1</v>
-      </c>
-      <c r="E18" s="50" t="s">
-        <v>69</v>
-      </c>
-      <c r="F18" s="50" t="s">
-        <v>28</v>
+        <v>30</v>
+      </c>
+      <c r="E18" s="50">
+        <v>-200</v>
+      </c>
+      <c r="F18" s="50">
+        <v>0</v>
       </c>
       <c r="G18" s="50">
-        <v>300100004</v>
-      </c>
-      <c r="H18" s="50">
-        <v>300100000</v>
-      </c>
-      <c r="I18" s="50">
-        <v>100</v>
+        <v>200000001</v>
+      </c>
+      <c r="I18" s="50" t="s">
+        <v>47</v>
       </c>
       <c r="J18" s="50">
-        <v>300100004</v>
+        <v>200000001</v>
       </c>
       <c r="K18" s="50" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="50">
-        <v>300100101</v>
+        <v>200100001</v>
       </c>
       <c r="B19" s="50">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C19" s="50" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="D19" s="50">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E19" s="50" t="s">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="F19" s="50" t="s">
-        <v>72</v>
+        <v>45</v>
       </c>
       <c r="G19" s="50">
-        <v>300100101</v>
-      </c>
-      <c r="H19" s="50" t="s">
-        <v>73</v>
-      </c>
-      <c r="I19" s="50">
-        <v>100</v>
+        <v>200100001</v>
+      </c>
+      <c r="I19" s="50" t="s">
+        <v>66</v>
       </c>
       <c r="J19" s="50">
-        <v>300100101</v>
+        <v>200100001</v>
       </c>
       <c r="K19" s="50" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="50">
-        <v>300100102</v>
+        <v>300100000</v>
       </c>
       <c r="B20" s="50">
         <v>3</v>
       </c>
       <c r="C20" s="50" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="D20" s="50">
         <v>1</v>
       </c>
       <c r="E20" s="50" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="F20" s="50" t="s">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="G20" s="50">
-        <v>300100102</v>
+        <v>300100000</v>
       </c>
       <c r="H20" s="50">
-        <v>300100101</v>
+        <v>300200000</v>
       </c>
       <c r="I20" s="50">
         <v>100</v>
       </c>
       <c r="J20" s="50">
-        <v>300100102</v>
+        <v>300100000</v>
       </c>
       <c r="K20" s="50" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="50">
-        <v>300100201</v>
+        <v>300100001</v>
       </c>
       <c r="B21" s="50">
         <v>3</v>
       </c>
       <c r="C21" s="50" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="D21" s="50">
         <v>1</v>
       </c>
       <c r="E21" s="50" t="s">
-        <v>57</v>
-      </c>
-      <c r="F21" s="50">
-        <v>-200</v>
+        <v>72</v>
+      </c>
+      <c r="F21" s="50" t="s">
+        <v>28</v>
       </c>
       <c r="G21" s="50">
-        <v>300100201</v>
-      </c>
-      <c r="H21" s="50" t="s">
-        <v>78</v>
+        <v>300100001</v>
+      </c>
+      <c r="H21" s="50">
+        <v>300100000</v>
       </c>
       <c r="I21" s="50">
         <v>100</v>
       </c>
       <c r="J21" s="50">
-        <v>300100201</v>
+        <v>300100001</v>
       </c>
       <c r="K21" s="50" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="50">
-        <v>300200000</v>
+        <v>300100002</v>
       </c>
       <c r="B22" s="50">
         <v>3</v>
       </c>
       <c r="C22" s="50" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="D22" s="50">
         <v>1</v>
       </c>
       <c r="E22" s="50" t="s">
-        <v>45</v>
+        <v>75</v>
       </c>
       <c r="F22" s="50" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="G22" s="50">
-        <v>300200000</v>
+        <v>300100002</v>
+      </c>
+      <c r="H22" s="50">
+        <v>300100000</v>
       </c>
       <c r="I22" s="50">
         <v>100</v>
       </c>
       <c r="J22" s="50">
-        <v>300200000</v>
+        <v>300100002</v>
       </c>
       <c r="K22" s="50" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="50">
-        <v>300200001</v>
+        <v>300100003</v>
       </c>
       <c r="B23" s="50">
         <v>3</v>
       </c>
       <c r="C23" s="50" t="s">
-        <v>59</v>
+        <v>77</v>
       </c>
       <c r="D23" s="50">
         <v>1</v>
       </c>
       <c r="E23" s="50" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F23" s="50" t="s">
         <v>28</v>
       </c>
       <c r="G23" s="50">
-        <v>300200001</v>
+        <v>300100003</v>
       </c>
       <c r="H23" s="50">
-        <v>300200000</v>
+        <v>300100000</v>
       </c>
       <c r="I23" s="50">
         <v>100</v>
       </c>
       <c r="J23" s="50">
-        <v>300200001</v>
+        <v>300100003</v>
       </c>
       <c r="K23" s="50" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="50">
-        <v>300200002</v>
+        <v>300100004</v>
       </c>
       <c r="B24" s="50">
         <v>3</v>
       </c>
       <c r="C24" s="50" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="D24" s="50">
         <v>1</v>
       </c>
       <c r="E24" s="50" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="F24" s="50" t="s">
         <v>28</v>
       </c>
       <c r="G24" s="50">
-        <v>300200002</v>
+        <v>300100004</v>
       </c>
       <c r="H24" s="50">
-        <v>300200000</v>
+        <v>300100000</v>
       </c>
       <c r="I24" s="50">
         <v>100</v>
       </c>
       <c r="J24" s="50">
-        <v>300200002</v>
+        <v>300100004</v>
       </c>
       <c r="K24" s="50" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="50">
-        <v>300200003</v>
+        <v>300100101</v>
       </c>
       <c r="B25" s="50">
         <v>3</v>
       </c>
       <c r="C25" s="50" t="s">
-        <v>65</v>
+        <v>83</v>
       </c>
       <c r="D25" s="50">
         <v>1</v>
       </c>
       <c r="E25" s="50" t="s">
+        <v>69</v>
+      </c>
+      <c r="F25" s="50" t="s">
+        <v>84</v>
+      </c>
+      <c r="G25" s="50">
+        <v>300100101</v>
+      </c>
+      <c r="H25" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="I25" s="50">
+        <v>100</v>
+      </c>
+      <c r="J25" s="50">
+        <v>300100101</v>
+      </c>
+      <c r="K25" s="50" t="s">
         <v>86</v>
-      </c>
-      <c r="F25" s="50" t="s">
-        <v>28</v>
-      </c>
-      <c r="G25" s="50">
-        <v>300200003</v>
-      </c>
-      <c r="H25" s="50">
-        <v>300200000</v>
-      </c>
-      <c r="I25" s="50">
-        <v>100</v>
-      </c>
-      <c r="J25" s="50">
-        <v>300200003</v>
-      </c>
-      <c r="K25" s="50" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="50">
-        <v>300200004</v>
+        <v>300100102</v>
       </c>
       <c r="B26" s="50">
         <v>3</v>
       </c>
       <c r="C26" s="50" t="s">
-        <v>68</v>
+        <v>87</v>
       </c>
       <c r="D26" s="50">
         <v>1</v>
       </c>
       <c r="E26" s="50" t="s">
+        <v>69</v>
+      </c>
+      <c r="F26" s="50" t="s">
         <v>88</v>
       </c>
-      <c r="F26" s="50" t="s">
-        <v>28</v>
-      </c>
       <c r="G26" s="50">
-        <v>300200004</v>
+        <v>300100102</v>
       </c>
       <c r="H26" s="50">
-        <v>300200000</v>
+        <v>300100101</v>
       </c>
       <c r="I26" s="50">
         <v>100</v>
       </c>
       <c r="J26" s="50">
-        <v>300200004</v>
+        <v>300100102</v>
       </c>
       <c r="K26" s="50" t="s">
         <v>89</v>
@@ -2582,25 +2618,25 @@
     </row>
     <row r="27">
       <c r="A27" s="50">
-        <v>300200101</v>
+        <v>300100201</v>
       </c>
       <c r="B27" s="50">
         <v>3</v>
       </c>
       <c r="C27" s="50" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D27" s="50">
         <v>1</v>
       </c>
       <c r="E27" s="50" t="s">
-        <v>45</v>
-      </c>
-      <c r="F27" s="50" t="s">
-        <v>72</v>
+        <v>69</v>
+      </c>
+      <c r="F27" s="50">
+        <v>-200</v>
       </c>
       <c r="G27" s="50">
-        <v>300200101</v>
+        <v>300100201</v>
       </c>
       <c r="H27" s="50" t="s">
         <v>90</v>
@@ -2609,7 +2645,7 @@
         <v>100</v>
       </c>
       <c r="J27" s="50">
-        <v>300200101</v>
+        <v>300100201</v>
       </c>
       <c r="K27" s="50" t="s">
         <v>91</v>
@@ -2617,13 +2653,13 @@
     </row>
     <row r="28">
       <c r="A28" s="50">
-        <v>300200102</v>
+        <v>300200000</v>
       </c>
       <c r="B28" s="50">
         <v>3</v>
       </c>
       <c r="C28" s="50" t="s">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="D28" s="50">
         <v>1</v>
@@ -2632,68 +2668,65 @@
         <v>45</v>
       </c>
       <c r="F28" s="50" t="s">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="G28" s="50">
-        <v>300200102</v>
-      </c>
-      <c r="H28" s="50">
-        <v>300200101</v>
+        <v>300200000</v>
       </c>
       <c r="I28" s="50">
         <v>100</v>
       </c>
       <c r="J28" s="50">
-        <v>300200102</v>
+        <v>300200000</v>
       </c>
       <c r="K28" s="50" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="50">
-        <v>300200201</v>
+        <v>300200001</v>
       </c>
       <c r="B29" s="50">
         <v>3</v>
       </c>
       <c r="C29" s="50" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="D29" s="50">
         <v>1</v>
       </c>
-      <c r="E29" s="50">
-        <v>0</v>
-      </c>
-      <c r="F29" s="50">
-        <v>-200</v>
+      <c r="E29" s="50" t="s">
+        <v>94</v>
+      </c>
+      <c r="F29" s="50" t="s">
+        <v>28</v>
       </c>
       <c r="G29" s="50">
-        <v>300200201</v>
-      </c>
-      <c r="H29" s="50" t="s">
-        <v>93</v>
+        <v>300200001</v>
+      </c>
+      <c r="H29" s="50">
+        <v>300200000</v>
       </c>
       <c r="I29" s="50">
         <v>100</v>
       </c>
       <c r="J29" s="50">
-        <v>300200201</v>
+        <v>300200001</v>
       </c>
       <c r="K29" s="50" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="50">
-        <v>300300000</v>
+        <v>300200002</v>
       </c>
       <c r="B30" s="50">
         <v>3</v>
       </c>
       <c r="C30" s="50" t="s">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="D30" s="50">
         <v>1</v>
@@ -2702,10 +2735,10 @@
         <v>96</v>
       </c>
       <c r="F30" s="50" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="G30" s="50">
-        <v>300300000</v>
+        <v>300200002</v>
       </c>
       <c r="H30" s="50">
         <v>300200000</v>
@@ -2714,7 +2747,7 @@
         <v>100</v>
       </c>
       <c r="J30" s="50">
-        <v>300300000</v>
+        <v>300200002</v>
       </c>
       <c r="K30" s="50" t="s">
         <v>97</v>
@@ -2722,839 +2755,839 @@
     </row>
     <row r="31">
       <c r="A31" s="50">
-        <v>300300001</v>
+        <v>300200003</v>
       </c>
       <c r="B31" s="50">
         <v>3</v>
       </c>
       <c r="C31" s="50" t="s">
+        <v>77</v>
+      </c>
+      <c r="D31" s="50">
+        <v>1</v>
+      </c>
+      <c r="E31" s="50" t="s">
         <v>98</v>
-      </c>
-      <c r="D31" s="50">
-        <v>1</v>
-      </c>
-      <c r="E31" s="50" t="s">
-        <v>99</v>
       </c>
       <c r="F31" s="50" t="s">
         <v>28</v>
       </c>
       <c r="G31" s="50">
-        <v>300300001</v>
+        <v>300200003</v>
       </c>
       <c r="H31" s="50">
-        <v>300300000</v>
+        <v>300200000</v>
       </c>
       <c r="I31" s="50">
         <v>100</v>
       </c>
       <c r="J31" s="50">
-        <v>300300001</v>
+        <v>300200003</v>
       </c>
       <c r="K31" s="50" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="50">
-        <v>300300002</v>
+        <v>300200004</v>
       </c>
       <c r="B32" s="50">
         <v>3</v>
       </c>
       <c r="C32" s="50" t="s">
-        <v>101</v>
+        <v>80</v>
       </c>
       <c r="D32" s="50">
         <v>1</v>
       </c>
       <c r="E32" s="50" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F32" s="50" t="s">
         <v>28</v>
       </c>
       <c r="G32" s="50">
-        <v>300300002</v>
+        <v>300200004</v>
       </c>
       <c r="H32" s="50">
-        <v>300300000</v>
+        <v>300200000</v>
       </c>
       <c r="I32" s="50">
         <v>100</v>
       </c>
       <c r="J32" s="50">
-        <v>300300002</v>
+        <v>300200004</v>
       </c>
       <c r="K32" s="50" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="50">
-        <v>300300003</v>
+        <v>300200101</v>
       </c>
       <c r="B33" s="50">
         <v>3</v>
       </c>
       <c r="C33" s="50" t="s">
-        <v>101</v>
+        <v>83</v>
       </c>
       <c r="D33" s="50">
         <v>1</v>
       </c>
       <c r="E33" s="50" t="s">
-        <v>104</v>
+        <v>45</v>
       </c>
       <c r="F33" s="50" t="s">
-        <v>28</v>
+        <v>84</v>
       </c>
       <c r="G33" s="50">
-        <v>300300003</v>
-      </c>
-      <c r="H33" s="50">
-        <v>300300000</v>
+        <v>300200101</v>
+      </c>
+      <c r="H33" s="50" t="s">
+        <v>102</v>
       </c>
       <c r="I33" s="50">
         <v>100</v>
       </c>
       <c r="J33" s="50">
-        <v>300300003</v>
+        <v>300200101</v>
       </c>
       <c r="K33" s="50" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="50">
-        <v>300300004</v>
+        <v>300200102</v>
       </c>
       <c r="B34" s="50">
         <v>3</v>
       </c>
       <c r="C34" s="50" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="D34" s="50">
         <v>1</v>
       </c>
       <c r="E34" s="50" t="s">
-        <v>107</v>
+        <v>45</v>
       </c>
       <c r="F34" s="50" t="s">
-        <v>28</v>
+        <v>88</v>
       </c>
       <c r="G34" s="50">
-        <v>300300004</v>
+        <v>300200102</v>
       </c>
       <c r="H34" s="50">
-        <v>300300000</v>
+        <v>300200101</v>
       </c>
       <c r="I34" s="50">
         <v>100</v>
       </c>
       <c r="J34" s="50">
-        <v>300300004</v>
+        <v>300200102</v>
       </c>
       <c r="K34" s="50" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="50">
-        <v>300300101</v>
+        <v>300200201</v>
       </c>
       <c r="B35" s="50">
         <v>3</v>
       </c>
       <c r="C35" s="50" t="s">
-        <v>71</v>
+        <v>92</v>
       </c>
       <c r="D35" s="50">
         <v>1</v>
       </c>
-      <c r="E35" s="50" t="s">
-        <v>96</v>
-      </c>
-      <c r="F35" s="50" t="s">
-        <v>72</v>
+      <c r="E35" s="50">
+        <v>0</v>
+      </c>
+      <c r="F35" s="50">
+        <v>-200</v>
       </c>
       <c r="G35" s="50">
-        <v>300300101</v>
+        <v>300200201</v>
       </c>
       <c r="H35" s="50" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="I35" s="50">
         <v>100</v>
       </c>
       <c r="J35" s="50">
-        <v>300300101</v>
+        <v>300200201</v>
       </c>
       <c r="K35" s="50" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="50">
-        <v>300300102</v>
+        <v>300300000</v>
       </c>
       <c r="B36" s="50">
         <v>3</v>
       </c>
       <c r="C36" s="50" t="s">
-        <v>75</v>
+        <v>107</v>
       </c>
       <c r="D36" s="50">
         <v>1</v>
       </c>
       <c r="E36" s="50" t="s">
-        <v>96</v>
+        <v>58</v>
       </c>
       <c r="F36" s="50" t="s">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="G36" s="50">
-        <v>300300102</v>
+        <v>300300000</v>
       </c>
       <c r="H36" s="50">
-        <v>300300101</v>
+        <v>300200000</v>
       </c>
       <c r="I36" s="50">
         <v>100</v>
       </c>
       <c r="J36" s="50">
-        <v>300300102</v>
+        <v>300300000</v>
       </c>
       <c r="K36" s="50" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="50">
-        <v>300300201</v>
+        <v>300300001</v>
       </c>
       <c r="B37" s="50">
         <v>3</v>
       </c>
       <c r="C37" s="50" t="s">
-        <v>95</v>
+        <v>109</v>
       </c>
       <c r="D37" s="50">
         <v>1</v>
       </c>
       <c r="E37" s="50" t="s">
-        <v>96</v>
-      </c>
-      <c r="F37" s="50">
-        <v>-200</v>
+        <v>110</v>
+      </c>
+      <c r="F37" s="50" t="s">
+        <v>28</v>
       </c>
       <c r="G37" s="50">
-        <v>300300201</v>
-      </c>
-      <c r="H37" s="50" t="s">
-        <v>112</v>
+        <v>300300001</v>
+      </c>
+      <c r="H37" s="50">
+        <v>300300000</v>
       </c>
       <c r="I37" s="50">
         <v>100</v>
       </c>
       <c r="J37" s="50">
-        <v>300300201</v>
+        <v>300300001</v>
       </c>
       <c r="K37" s="50" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="50">
-        <v>300400000</v>
+        <v>300300002</v>
       </c>
       <c r="B38" s="50">
         <v>3</v>
       </c>
       <c r="C38" s="50" t="s">
+        <v>112</v>
+      </c>
+      <c r="D38" s="50">
+        <v>1</v>
+      </c>
+      <c r="E38" s="50" t="s">
+        <v>113</v>
+      </c>
+      <c r="F38" s="50" t="s">
+        <v>28</v>
+      </c>
+      <c r="G38" s="50">
+        <v>300300002</v>
+      </c>
+      <c r="H38" s="50">
+        <v>300300000</v>
+      </c>
+      <c r="I38" s="50">
+        <v>100</v>
+      </c>
+      <c r="J38" s="50">
+        <v>300300002</v>
+      </c>
+      <c r="K38" s="50" t="s">
         <v>114</v>
-      </c>
-      <c r="D38" s="50">
-        <v>1</v>
-      </c>
-      <c r="E38" s="50" t="s">
-        <v>115</v>
-      </c>
-      <c r="F38" s="50" t="s">
-        <v>45</v>
-      </c>
-      <c r="G38" s="50">
-        <v>300400000</v>
-      </c>
-      <c r="H38" s="50">
-        <v>300600000</v>
-      </c>
-      <c r="I38" s="50">
-        <v>100</v>
-      </c>
-      <c r="J38" s="50">
-        <v>300400000</v>
-      </c>
-      <c r="K38" s="50" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="50">
-        <v>300400001</v>
+        <v>300300003</v>
       </c>
       <c r="B39" s="50">
         <v>3</v>
       </c>
       <c r="C39" s="50" t="s">
-        <v>59</v>
+        <v>112</v>
       </c>
       <c r="D39" s="50">
         <v>1</v>
       </c>
       <c r="E39" s="50" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F39" s="50" t="s">
         <v>28</v>
       </c>
       <c r="G39" s="50">
-        <v>300400001</v>
+        <v>300300003</v>
       </c>
       <c r="H39" s="50">
-        <v>300400000</v>
+        <v>300300000</v>
       </c>
       <c r="I39" s="50">
         <v>100</v>
       </c>
       <c r="J39" s="50">
-        <v>300400001</v>
+        <v>300300003</v>
       </c>
       <c r="K39" s="50" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="50">
-        <v>300400002</v>
+        <v>300300004</v>
       </c>
       <c r="B40" s="50">
         <v>3</v>
       </c>
       <c r="C40" s="50" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D40" s="50">
         <v>1</v>
       </c>
       <c r="E40" s="50" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F40" s="50" t="s">
         <v>28</v>
       </c>
       <c r="G40" s="50">
-        <v>300400002</v>
+        <v>300300004</v>
       </c>
       <c r="H40" s="50">
-        <v>300400000</v>
+        <v>300300000</v>
       </c>
       <c r="I40" s="50">
         <v>100</v>
       </c>
       <c r="J40" s="50">
-        <v>300400002</v>
+        <v>300300004</v>
       </c>
       <c r="K40" s="50" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="50">
-        <v>300400003</v>
+        <v>300300101</v>
       </c>
       <c r="B41" s="50">
         <v>3</v>
       </c>
       <c r="C41" s="50" t="s">
-        <v>122</v>
+        <v>83</v>
       </c>
       <c r="D41" s="50">
         <v>1</v>
       </c>
       <c r="E41" s="50" t="s">
-        <v>115</v>
+        <v>58</v>
       </c>
       <c r="F41" s="50" t="s">
-        <v>28</v>
+        <v>84</v>
       </c>
       <c r="G41" s="50">
-        <v>300400003</v>
-      </c>
-      <c r="H41" s="50">
-        <v>300400000</v>
+        <v>300300101</v>
+      </c>
+      <c r="H41" s="50" t="s">
+        <v>120</v>
       </c>
       <c r="I41" s="50">
         <v>100</v>
       </c>
       <c r="J41" s="50">
-        <v>300400003</v>
+        <v>300300101</v>
       </c>
       <c r="K41" s="50" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="50">
-        <v>300400004</v>
+        <v>300300102</v>
       </c>
       <c r="B42" s="50">
         <v>3</v>
       </c>
       <c r="C42" s="50" t="s">
-        <v>124</v>
+        <v>87</v>
       </c>
       <c r="D42" s="50">
         <v>1</v>
       </c>
       <c r="E42" s="50" t="s">
-        <v>125</v>
+        <v>58</v>
       </c>
       <c r="F42" s="50" t="s">
-        <v>28</v>
+        <v>88</v>
       </c>
       <c r="G42" s="50">
-        <v>300400004</v>
+        <v>300300102</v>
       </c>
       <c r="H42" s="50">
-        <v>300400000</v>
+        <v>300300101</v>
       </c>
       <c r="I42" s="50">
         <v>100</v>
       </c>
       <c r="J42" s="50">
-        <v>300400004</v>
+        <v>300300102</v>
       </c>
       <c r="K42" s="50" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="50">
-        <v>300400005</v>
+        <v>300300201</v>
       </c>
       <c r="B43" s="50">
         <v>3</v>
       </c>
       <c r="C43" s="50" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="D43" s="50">
         <v>1</v>
       </c>
       <c r="E43" s="50" t="s">
-        <v>127</v>
-      </c>
-      <c r="F43" s="50" t="s">
-        <v>28</v>
+        <v>58</v>
+      </c>
+      <c r="F43" s="50">
+        <v>-200</v>
       </c>
       <c r="G43" s="50">
-        <v>300400005</v>
-      </c>
-      <c r="H43" s="50">
-        <v>300400000</v>
+        <v>300300201</v>
+      </c>
+      <c r="H43" s="50" t="s">
+        <v>123</v>
       </c>
       <c r="I43" s="50">
         <v>100</v>
       </c>
       <c r="J43" s="50">
-        <v>300400005</v>
+        <v>300300201</v>
       </c>
       <c r="K43" s="50" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="50">
-        <v>300400101</v>
+        <v>300400000</v>
       </c>
       <c r="B44" s="50">
         <v>3</v>
       </c>
       <c r="C44" s="50" t="s">
-        <v>71</v>
+        <v>125</v>
       </c>
       <c r="D44" s="50">
         <v>1</v>
       </c>
       <c r="E44" s="50" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="F44" s="50" t="s">
-        <v>72</v>
+        <v>45</v>
       </c>
       <c r="G44" s="50">
-        <v>300400101</v>
-      </c>
-      <c r="H44" s="50" t="s">
-        <v>129</v>
+        <v>300400000</v>
+      </c>
+      <c r="H44" s="50">
+        <v>300600000</v>
       </c>
       <c r="I44" s="50">
         <v>100</v>
       </c>
       <c r="J44" s="50">
-        <v>300400101</v>
+        <v>300400000</v>
       </c>
       <c r="K44" s="50" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="50">
-        <v>300400102</v>
+        <v>300400001</v>
       </c>
       <c r="B45" s="50">
         <v>3</v>
       </c>
       <c r="C45" s="50" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D45" s="50">
         <v>1</v>
       </c>
       <c r="E45" s="50" t="s">
-        <v>115</v>
+        <v>128</v>
       </c>
       <c r="F45" s="50" t="s">
-        <v>76</v>
+        <v>28</v>
       </c>
       <c r="G45" s="50">
-        <v>300400102</v>
+        <v>300400001</v>
       </c>
       <c r="H45" s="50">
-        <v>300400101</v>
+        <v>300400000</v>
       </c>
       <c r="I45" s="50">
         <v>100</v>
       </c>
       <c r="J45" s="50">
-        <v>300400102</v>
+        <v>300400001</v>
       </c>
       <c r="K45" s="50" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="50">
-        <v>300400201</v>
+        <v>300400002</v>
       </c>
       <c r="B46" s="50">
         <v>3</v>
       </c>
       <c r="C46" s="50" t="s">
-        <v>114</v>
+        <v>130</v>
       </c>
       <c r="D46" s="50">
         <v>1</v>
       </c>
       <c r="E46" s="50" t="s">
-        <v>115</v>
-      </c>
-      <c r="F46" s="50">
-        <v>-200</v>
+        <v>131</v>
+      </c>
+      <c r="F46" s="50" t="s">
+        <v>28</v>
       </c>
       <c r="G46" s="50">
-        <v>300400201</v>
-      </c>
-      <c r="H46" s="50" t="s">
+        <v>300400002</v>
+      </c>
+      <c r="H46" s="50">
+        <v>300400000</v>
+      </c>
+      <c r="I46" s="50">
+        <v>100</v>
+      </c>
+      <c r="J46" s="50">
+        <v>300400002</v>
+      </c>
+      <c r="K46" s="50" t="s">
         <v>132</v>
       </c>
-      <c r="I46" s="50">
-        <v>100</v>
-      </c>
-      <c r="J46" s="50">
-        <v>300400201</v>
-      </c>
-      <c r="K46" s="50" t="s">
+    </row>
+    <row r="47">
+      <c r="A47" s="50">
+        <v>300400003</v>
+      </c>
+      <c r="B47" s="50">
+        <v>3</v>
+      </c>
+      <c r="C47" s="50" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="47" ht="12" customHeight="1">
-      <c r="A47" s="50">
-        <v>300500000</v>
-      </c>
-      <c r="B47" s="50">
-        <v>3</v>
-      </c>
-      <c r="C47" s="50" t="s">
+      <c r="D47" s="50">
+        <v>1</v>
+      </c>
+      <c r="E47" s="50" t="s">
+        <v>126</v>
+      </c>
+      <c r="F47" s="50" t="s">
+        <v>28</v>
+      </c>
+      <c r="G47" s="50">
+        <v>300400003</v>
+      </c>
+      <c r="H47" s="50">
+        <v>300400000</v>
+      </c>
+      <c r="I47" s="50">
+        <v>100</v>
+      </c>
+      <c r="J47" s="50">
+        <v>300400003</v>
+      </c>
+      <c r="K47" s="50" t="s">
         <v>134</v>
       </c>
-      <c r="D47" s="50">
-        <v>1</v>
-      </c>
-      <c r="E47" s="50" t="s">
+    </row>
+    <row r="48">
+      <c r="A48" s="50">
+        <v>300400004</v>
+      </c>
+      <c r="B48" s="50">
+        <v>3</v>
+      </c>
+      <c r="C48" s="50" t="s">
         <v>135</v>
       </c>
-      <c r="F47" s="50" t="s">
-        <v>45</v>
-      </c>
-      <c r="G47" s="50">
-        <v>300500000</v>
-      </c>
-      <c r="H47" s="50">
-        <v>300700000</v>
-      </c>
-      <c r="I47" s="50">
-        <v>100</v>
-      </c>
-      <c r="J47" s="50">
-        <v>300500000</v>
-      </c>
-      <c r="K47" s="50" t="s">
+      <c r="D48" s="50">
+        <v>1</v>
+      </c>
+      <c r="E48" s="50" t="s">
         <v>136</v>
-      </c>
-    </row>
-    <row r="48" ht="12" customHeight="1">
-      <c r="A48" s="50">
-        <v>300500001</v>
-      </c>
-      <c r="B48" s="50">
-        <v>3</v>
-      </c>
-      <c r="C48" s="50" t="s">
-        <v>59</v>
-      </c>
-      <c r="D48" s="50">
-        <v>1</v>
-      </c>
-      <c r="E48" s="50" t="s">
-        <v>137</v>
       </c>
       <c r="F48" s="50" t="s">
         <v>28</v>
       </c>
       <c r="G48" s="50">
-        <v>300500001</v>
+        <v>300400004</v>
       </c>
       <c r="H48" s="50">
-        <v>300500000</v>
+        <v>300400000</v>
       </c>
       <c r="I48" s="50">
         <v>100</v>
       </c>
       <c r="J48" s="50">
-        <v>300500001</v>
+        <v>300400004</v>
       </c>
       <c r="K48" s="50" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="50">
+        <v>300400005</v>
+      </c>
+      <c r="B49" s="50">
+        <v>3</v>
+      </c>
+      <c r="C49" s="50" t="s">
+        <v>109</v>
+      </c>
+      <c r="D49" s="50">
+        <v>1</v>
+      </c>
+      <c r="E49" s="50" t="s">
         <v>138</v>
-      </c>
-    </row>
-    <row r="49" ht="12" customHeight="1">
-      <c r="A49" s="50">
-        <v>300500002</v>
-      </c>
-      <c r="B49" s="50">
-        <v>3</v>
-      </c>
-      <c r="C49" s="50" t="s">
-        <v>62</v>
-      </c>
-      <c r="D49" s="50">
-        <v>1</v>
-      </c>
-      <c r="E49" s="50" t="s">
-        <v>139</v>
       </c>
       <c r="F49" s="50" t="s">
         <v>28</v>
       </c>
       <c r="G49" s="50">
-        <v>300500002</v>
+        <v>300400005</v>
       </c>
       <c r="H49" s="50">
-        <v>300500000</v>
+        <v>300400000</v>
       </c>
       <c r="I49" s="50">
         <v>100</v>
       </c>
       <c r="J49" s="50">
-        <v>300500002</v>
+        <v>300400005</v>
       </c>
       <c r="K49" s="50" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="50">
+        <v>300400101</v>
+      </c>
+      <c r="B50" s="50">
+        <v>3</v>
+      </c>
+      <c r="C50" s="50" t="s">
+        <v>83</v>
+      </c>
+      <c r="D50" s="50">
+        <v>1</v>
+      </c>
+      <c r="E50" s="50" t="s">
+        <v>126</v>
+      </c>
+      <c r="F50" s="50" t="s">
+        <v>84</v>
+      </c>
+      <c r="G50" s="50">
+        <v>300400101</v>
+      </c>
+      <c r="H50" s="50" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="50" ht="12" customHeight="1">
-      <c r="A50" s="50">
-        <v>300500003</v>
-      </c>
-      <c r="B50" s="50">
-        <v>3</v>
-      </c>
-      <c r="C50" s="50" t="s">
-        <v>65</v>
-      </c>
-      <c r="D50" s="50">
-        <v>1</v>
-      </c>
-      <c r="E50" s="50" t="s">
+      <c r="I50" s="50">
+        <v>100</v>
+      </c>
+      <c r="J50" s="50">
+        <v>300400101</v>
+      </c>
+      <c r="K50" s="50" t="s">
         <v>141</v>
       </c>
-      <c r="F50" s="50" t="s">
-        <v>28</v>
-      </c>
-      <c r="G50" s="50">
-        <v>300500003</v>
-      </c>
-      <c r="H50" s="50">
-        <v>300500000</v>
-      </c>
-      <c r="I50" s="50">
-        <v>100</v>
-      </c>
-      <c r="J50" s="50">
-        <v>300500003</v>
-      </c>
-      <c r="K50" s="50" t="s">
+    </row>
+    <row r="51">
+      <c r="A51" s="50">
+        <v>300400102</v>
+      </c>
+      <c r="B51" s="50">
+        <v>3</v>
+      </c>
+      <c r="C51" s="50" t="s">
+        <v>87</v>
+      </c>
+      <c r="D51" s="50">
+        <v>1</v>
+      </c>
+      <c r="E51" s="50" t="s">
+        <v>126</v>
+      </c>
+      <c r="F51" s="50" t="s">
+        <v>88</v>
+      </c>
+      <c r="G51" s="50">
+        <v>300400102</v>
+      </c>
+      <c r="H51" s="50">
+        <v>300400101</v>
+      </c>
+      <c r="I51" s="50">
+        <v>100</v>
+      </c>
+      <c r="J51" s="50">
+        <v>300400102</v>
+      </c>
+      <c r="K51" s="50" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="51" ht="12" customHeight="1">
-      <c r="A51" s="50">
-        <v>300500004</v>
-      </c>
-      <c r="B51" s="50">
-        <v>3</v>
-      </c>
-      <c r="C51" s="50" t="s">
-        <v>68</v>
-      </c>
-      <c r="D51" s="50">
-        <v>1</v>
-      </c>
-      <c r="E51" s="50" t="s">
+    <row r="52">
+      <c r="A52" s="50">
+        <v>300400201</v>
+      </c>
+      <c r="B52" s="50">
+        <v>3</v>
+      </c>
+      <c r="C52" s="50" t="s">
+        <v>125</v>
+      </c>
+      <c r="D52" s="50">
+        <v>1</v>
+      </c>
+      <c r="E52" s="50" t="s">
+        <v>126</v>
+      </c>
+      <c r="F52" s="50">
+        <v>-200</v>
+      </c>
+      <c r="G52" s="50">
+        <v>300400201</v>
+      </c>
+      <c r="H52" s="50" t="s">
         <v>143</v>
       </c>
-      <c r="F51" s="50" t="s">
-        <v>28</v>
-      </c>
-      <c r="G51" s="50">
-        <v>300500004</v>
-      </c>
-      <c r="H51" s="50">
-        <v>300500000</v>
-      </c>
-      <c r="I51" s="50">
-        <v>100</v>
-      </c>
-      <c r="J51" s="50">
-        <v>300500004</v>
-      </c>
-      <c r="K51" s="50" t="s">
+      <c r="I52" s="50">
+        <v>100</v>
+      </c>
+      <c r="J52" s="50">
+        <v>300400201</v>
+      </c>
+      <c r="K52" s="50" t="s">
         <v>144</v>
-      </c>
-    </row>
-    <row r="52" ht="12" customHeight="1">
-      <c r="A52" s="50">
-        <v>300500101</v>
-      </c>
-      <c r="B52" s="50">
-        <v>3</v>
-      </c>
-      <c r="C52" s="50" t="s">
-        <v>71</v>
-      </c>
-      <c r="D52" s="50">
-        <v>1</v>
-      </c>
-      <c r="E52" s="50" t="s">
-        <v>135</v>
-      </c>
-      <c r="F52" s="50" t="s">
-        <v>72</v>
-      </c>
-      <c r="G52" s="50">
-        <v>300500101</v>
-      </c>
-      <c r="H52" s="50" t="s">
-        <v>145</v>
-      </c>
-      <c r="I52" s="50">
-        <v>100</v>
-      </c>
-      <c r="J52" s="50">
-        <v>300500101</v>
-      </c>
-      <c r="K52" s="50" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="53" ht="12" customHeight="1">
       <c r="A53" s="50">
-        <v>300500102</v>
+        <v>300500000</v>
       </c>
       <c r="B53" s="50">
         <v>3</v>
       </c>
       <c r="C53" s="50" t="s">
-        <v>75</v>
+        <v>145</v>
       </c>
       <c r="D53" s="50">
         <v>1</v>
       </c>
       <c r="E53" s="50" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="F53" s="50" t="s">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="G53" s="50">
-        <v>300500102</v>
+        <v>300500000</v>
       </c>
       <c r="H53" s="50">
-        <v>300500101</v>
+        <v>300700000</v>
       </c>
       <c r="I53" s="50">
         <v>100</v>
       </c>
       <c r="J53" s="50">
-        <v>300500102</v>
+        <v>300500000</v>
       </c>
       <c r="K53" s="50" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" ht="12" customHeight="1">
       <c r="A54" s="50">
-        <v>300500201</v>
+        <v>300500001</v>
       </c>
       <c r="B54" s="50">
         <v>3</v>
       </c>
       <c r="C54" s="50" t="s">
-        <v>134</v>
+        <v>71</v>
       </c>
       <c r="D54" s="50">
         <v>1</v>
       </c>
       <c r="E54" s="50" t="s">
-        <v>135</v>
-      </c>
-      <c r="F54" s="50">
-        <v>-200</v>
+        <v>148</v>
+      </c>
+      <c r="F54" s="50" t="s">
+        <v>28</v>
       </c>
       <c r="G54" s="50">
-        <v>300500201</v>
-      </c>
-      <c r="H54" s="50" t="s">
-        <v>148</v>
+        <v>300500001</v>
+      </c>
+      <c r="H54" s="50">
+        <v>300500000</v>
       </c>
       <c r="I54" s="50">
         <v>100</v>
       </c>
       <c r="J54" s="50">
-        <v>300500201</v>
+        <v>300500001</v>
       </c>
       <c r="K54" s="50" t="s">
         <v>149</v>
@@ -3562,608 +3595,818 @@
     </row>
     <row r="55" ht="12" customHeight="1">
       <c r="A55" s="50">
-        <v>300600000</v>
+        <v>300500002</v>
       </c>
       <c r="B55" s="50">
         <v>3</v>
       </c>
       <c r="C55" s="50" t="s">
+        <v>74</v>
+      </c>
+      <c r="D55" s="50">
+        <v>1</v>
+      </c>
+      <c r="E55" s="50" t="s">
         <v>150</v>
       </c>
-      <c r="D55" s="50">
-        <v>1</v>
-      </c>
-      <c r="E55" s="50" t="s">
+      <c r="F55" s="50" t="s">
+        <v>28</v>
+      </c>
+      <c r="G55" s="50">
+        <v>300500002</v>
+      </c>
+      <c r="H55" s="50">
+        <v>300500000</v>
+      </c>
+      <c r="I55" s="50">
+        <v>100</v>
+      </c>
+      <c r="J55" s="50">
+        <v>300500002</v>
+      </c>
+      <c r="K55" s="50" t="s">
         <v>151</v>
-      </c>
-      <c r="F55" s="50" t="s">
-        <v>45</v>
-      </c>
-      <c r="G55" s="50">
-        <v>300600000</v>
-      </c>
-      <c r="H55" s="50">
-        <v>300300000</v>
-      </c>
-      <c r="I55" s="50">
-        <v>100</v>
-      </c>
-      <c r="J55" s="50">
-        <v>300600000</v>
-      </c>
-      <c r="K55" s="50" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="56" ht="12" customHeight="1">
       <c r="A56" s="50">
-        <v>300600001</v>
+        <v>300500003</v>
       </c>
       <c r="B56" s="50">
         <v>3</v>
       </c>
       <c r="C56" s="50" t="s">
-        <v>153</v>
+        <v>77</v>
       </c>
       <c r="D56" s="50">
         <v>1</v>
       </c>
       <c r="E56" s="50" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F56" s="50" t="s">
         <v>28</v>
       </c>
       <c r="G56" s="50">
-        <v>300600001</v>
+        <v>300500003</v>
       </c>
       <c r="H56" s="50">
-        <v>300600000</v>
+        <v>300500000</v>
       </c>
       <c r="I56" s="50">
         <v>100</v>
       </c>
       <c r="J56" s="50">
-        <v>300600001</v>
+        <v>300500003</v>
       </c>
       <c r="K56" s="50" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="57" ht="12" customHeight="1">
       <c r="A57" s="50">
-        <v>300600002</v>
+        <v>300500004</v>
       </c>
       <c r="B57" s="50">
         <v>3</v>
       </c>
       <c r="C57" s="50" t="s">
-        <v>59</v>
+        <v>80</v>
       </c>
       <c r="D57" s="50">
         <v>1</v>
       </c>
       <c r="E57" s="50" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F57" s="50" t="s">
         <v>28</v>
       </c>
       <c r="G57" s="50">
-        <v>300600002</v>
+        <v>300500004</v>
       </c>
       <c r="H57" s="50">
-        <v>300600000</v>
+        <v>300500000</v>
       </c>
       <c r="I57" s="50">
         <v>100</v>
       </c>
       <c r="J57" s="50">
-        <v>300600002</v>
+        <v>300500004</v>
       </c>
       <c r="K57" s="50" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="58" ht="12" customHeight="1">
       <c r="A58" s="50">
-        <v>300600003</v>
+        <v>300500101</v>
       </c>
       <c r="B58" s="50">
         <v>3</v>
       </c>
       <c r="C58" s="50" t="s">
-        <v>62</v>
+        <v>83</v>
       </c>
       <c r="D58" s="50">
         <v>1</v>
       </c>
       <c r="E58" s="50" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="F58" s="50" t="s">
-        <v>28</v>
+        <v>84</v>
       </c>
       <c r="G58" s="50">
-        <v>300600003</v>
-      </c>
-      <c r="H58" s="50">
-        <v>300600000</v>
+        <v>300500101</v>
+      </c>
+      <c r="H58" s="50" t="s">
+        <v>156</v>
       </c>
       <c r="I58" s="50">
         <v>100</v>
       </c>
       <c r="J58" s="50">
-        <v>300600003</v>
+        <v>300500101</v>
       </c>
       <c r="K58" s="50" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="59" ht="12" customHeight="1">
       <c r="A59" s="50">
-        <v>300600004</v>
+        <v>300500102</v>
       </c>
       <c r="B59" s="50">
         <v>3</v>
       </c>
       <c r="C59" s="50" t="s">
-        <v>65</v>
+        <v>87</v>
       </c>
       <c r="D59" s="50">
         <v>1</v>
       </c>
       <c r="E59" s="50" t="s">
+        <v>146</v>
+      </c>
+      <c r="F59" s="50" t="s">
+        <v>88</v>
+      </c>
+      <c r="G59" s="50">
+        <v>300500102</v>
+      </c>
+      <c r="H59" s="50">
+        <v>300500101</v>
+      </c>
+      <c r="I59" s="50">
+        <v>100</v>
+      </c>
+      <c r="J59" s="50">
+        <v>300500102</v>
+      </c>
+      <c r="K59" s="50" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="50">
+        <v>300500201</v>
+      </c>
+      <c r="B60" s="50">
+        <v>3</v>
+      </c>
+      <c r="C60" s="50" t="s">
+        <v>145</v>
+      </c>
+      <c r="D60" s="50">
+        <v>1</v>
+      </c>
+      <c r="E60" s="50" t="s">
+        <v>146</v>
+      </c>
+      <c r="F60" s="50">
+        <v>-200</v>
+      </c>
+      <c r="G60" s="50">
+        <v>300500201</v>
+      </c>
+      <c r="H60" s="50" t="s">
         <v>159</v>
       </c>
-      <c r="F59" s="50" t="s">
-        <v>28</v>
-      </c>
-      <c r="G59" s="50">
-        <v>300600004</v>
-      </c>
-      <c r="H59" s="50">
-        <v>300600000</v>
-      </c>
-      <c r="I59" s="50">
-        <v>100</v>
-      </c>
-      <c r="J59" s="50">
-        <v>300600004</v>
-      </c>
-      <c r="K59" s="50" t="s">
+      <c r="I60" s="50">
+        <v>100</v>
+      </c>
+      <c r="J60" s="50">
+        <v>300500201</v>
+      </c>
+      <c r="K60" s="50" t="s">
         <v>160</v>
-      </c>
-    </row>
-    <row r="60" ht="12" customHeight="1">
-      <c r="A60" s="50">
-        <v>300600005</v>
-      </c>
-      <c r="B60" s="50">
-        <v>3</v>
-      </c>
-      <c r="C60" s="50" t="s">
-        <v>68</v>
-      </c>
-      <c r="D60" s="50">
-        <v>1</v>
-      </c>
-      <c r="E60" s="50" t="s">
-        <v>161</v>
-      </c>
-      <c r="F60" s="50" t="s">
-        <v>28</v>
-      </c>
-      <c r="G60" s="50">
-        <v>300600005</v>
-      </c>
-      <c r="H60" s="50">
-        <v>300600000</v>
-      </c>
-      <c r="I60" s="50">
-        <v>100</v>
-      </c>
-      <c r="J60" s="50">
-        <v>300600005</v>
-      </c>
-      <c r="K60" s="50" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="61" ht="12" customHeight="1">
       <c r="A61" s="50">
-        <v>300600101</v>
+        <v>300600000</v>
       </c>
       <c r="B61" s="50">
         <v>3</v>
       </c>
       <c r="C61" s="50" t="s">
-        <v>71</v>
+        <v>161</v>
       </c>
       <c r="D61" s="50">
         <v>1</v>
       </c>
       <c r="E61" s="50" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="F61" s="50" t="s">
-        <v>72</v>
+        <v>45</v>
       </c>
       <c r="G61" s="50">
-        <v>300600101</v>
-      </c>
-      <c r="H61" s="50" t="s">
+        <v>300600000</v>
+      </c>
+      <c r="H61" s="50">
+        <v>300300000</v>
+      </c>
+      <c r="I61" s="50">
+        <v>100</v>
+      </c>
+      <c r="J61" s="50">
+        <v>300600000</v>
+      </c>
+      <c r="K61" s="50" t="s">
         <v>163</v>
-      </c>
-      <c r="I61" s="50">
-        <v>100</v>
-      </c>
-      <c r="J61" s="50">
-        <v>300600101</v>
-      </c>
-      <c r="K61" s="50" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="62" ht="12" customHeight="1">
       <c r="A62" s="50">
-        <v>300600102</v>
+        <v>300600001</v>
       </c>
       <c r="B62" s="50">
         <v>3</v>
       </c>
       <c r="C62" s="50" t="s">
-        <v>75</v>
+        <v>164</v>
       </c>
       <c r="D62" s="50">
         <v>1</v>
       </c>
       <c r="E62" s="50" t="s">
-        <v>151</v>
+        <v>165</v>
       </c>
       <c r="F62" s="50" t="s">
-        <v>76</v>
+        <v>28</v>
       </c>
       <c r="G62" s="50">
-        <v>300600102</v>
+        <v>300600001</v>
       </c>
       <c r="H62" s="50">
-        <v>300600101</v>
+        <v>300600000</v>
       </c>
       <c r="I62" s="50">
         <v>100</v>
       </c>
       <c r="J62" s="50">
-        <v>300600102</v>
+        <v>300600001</v>
       </c>
       <c r="K62" s="50" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="63">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="63" ht="12" customHeight="1">
       <c r="A63" s="50">
-        <v>300600201</v>
+        <v>300600002</v>
       </c>
       <c r="B63" s="50">
         <v>3</v>
       </c>
       <c r="C63" s="50" t="s">
-        <v>150</v>
+        <v>71</v>
       </c>
       <c r="D63" s="50">
         <v>1</v>
       </c>
       <c r="E63" s="50" t="s">
-        <v>151</v>
-      </c>
-      <c r="F63" s="50">
-        <v>-200</v>
+        <v>167</v>
+      </c>
+      <c r="F63" s="50" t="s">
+        <v>28</v>
       </c>
       <c r="G63" s="50">
-        <v>300600201</v>
-      </c>
-      <c r="H63" s="50" t="s">
-        <v>166</v>
+        <v>300600002</v>
+      </c>
+      <c r="H63" s="50">
+        <v>300600000</v>
       </c>
       <c r="I63" s="50">
         <v>100</v>
       </c>
       <c r="J63" s="50">
-        <v>300600201</v>
+        <v>300600002</v>
       </c>
       <c r="K63" s="50" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="64">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="64" ht="12" customHeight="1">
       <c r="A64" s="50">
-        <v>300700000</v>
+        <v>300600003</v>
       </c>
       <c r="B64" s="50">
         <v>3</v>
       </c>
       <c r="C64" s="50" t="s">
-        <v>168</v>
+        <v>74</v>
       </c>
       <c r="D64" s="50">
         <v>1</v>
       </c>
       <c r="E64" s="50" t="s">
+        <v>162</v>
+      </c>
+      <c r="F64" s="50" t="s">
+        <v>28</v>
+      </c>
+      <c r="G64" s="50">
+        <v>300600003</v>
+      </c>
+      <c r="H64" s="50">
+        <v>300600000</v>
+      </c>
+      <c r="I64" s="50">
+        <v>100</v>
+      </c>
+      <c r="J64" s="50">
+        <v>300600003</v>
+      </c>
+      <c r="K64" s="50" t="s">
         <v>169</v>
       </c>
-      <c r="F64" s="50" t="s">
-        <v>45</v>
-      </c>
-      <c r="G64" s="50">
-        <v>300700000</v>
-      </c>
-      <c r="H64" s="50">
-        <v>300100000</v>
-      </c>
-      <c r="I64" s="50">
-        <v>100</v>
-      </c>
-      <c r="J64" s="50">
-        <v>300700000</v>
-      </c>
-      <c r="K64" s="50" t="s">
+    </row>
+    <row r="65" ht="12" customHeight="1">
+      <c r="A65" s="50">
+        <v>300600004</v>
+      </c>
+      <c r="B65" s="50">
+        <v>3</v>
+      </c>
+      <c r="C65" s="50" t="s">
+        <v>77</v>
+      </c>
+      <c r="D65" s="50">
+        <v>1</v>
+      </c>
+      <c r="E65" s="50" t="s">
         <v>170</v>
-      </c>
-    </row>
-    <row r="65" ht="15" customHeight="1">
-      <c r="A65" s="50">
-        <v>300700001</v>
-      </c>
-      <c r="B65" s="50">
-        <v>3</v>
-      </c>
-      <c r="C65" s="50" t="s">
-        <v>59</v>
-      </c>
-      <c r="D65" s="50">
-        <v>1</v>
-      </c>
-      <c r="E65" s="50" t="s">
-        <v>171</v>
       </c>
       <c r="F65" s="50" t="s">
         <v>28</v>
       </c>
       <c r="G65" s="50">
-        <v>300700001</v>
+        <v>300600004</v>
       </c>
       <c r="H65" s="50">
-        <v>300700000</v>
+        <v>300600000</v>
       </c>
       <c r="I65" s="50">
         <v>100</v>
       </c>
       <c r="J65" s="50">
-        <v>300700001</v>
+        <v>300600004</v>
       </c>
       <c r="K65" s="50" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="66" ht="12" customHeight="1">
+      <c r="A66" s="50">
+        <v>300600005</v>
+      </c>
+      <c r="B66" s="50">
+        <v>3</v>
+      </c>
+      <c r="C66" s="50" t="s">
+        <v>80</v>
+      </c>
+      <c r="D66" s="50">
+        <v>1</v>
+      </c>
+      <c r="E66" s="50" t="s">
         <v>172</v>
-      </c>
-    </row>
-    <row r="66" ht="15" customHeight="1">
-      <c r="A66" s="50">
-        <v>300700002</v>
-      </c>
-      <c r="B66" s="50">
-        <v>3</v>
-      </c>
-      <c r="C66" s="50" t="s">
-        <v>62</v>
-      </c>
-      <c r="D66" s="50">
-        <v>1</v>
-      </c>
-      <c r="E66" s="50" t="s">
-        <v>173</v>
       </c>
       <c r="F66" s="50" t="s">
         <v>28</v>
       </c>
       <c r="G66" s="50">
-        <v>300700002</v>
+        <v>300600005</v>
       </c>
       <c r="H66" s="50">
+        <v>300600000</v>
+      </c>
+      <c r="I66" s="50">
+        <v>100</v>
+      </c>
+      <c r="J66" s="50">
+        <v>300600005</v>
+      </c>
+      <c r="K66" s="50" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="67" ht="12" customHeight="1">
+      <c r="A67" s="50">
+        <v>300600101</v>
+      </c>
+      <c r="B67" s="50">
+        <v>3</v>
+      </c>
+      <c r="C67" s="50" t="s">
+        <v>83</v>
+      </c>
+      <c r="D67" s="50">
+        <v>1</v>
+      </c>
+      <c r="E67" s="50" t="s">
+        <v>162</v>
+      </c>
+      <c r="F67" s="50" t="s">
+        <v>84</v>
+      </c>
+      <c r="G67" s="50">
+        <v>300600101</v>
+      </c>
+      <c r="H67" s="50" t="s">
+        <v>174</v>
+      </c>
+      <c r="I67" s="50">
+        <v>100</v>
+      </c>
+      <c r="J67" s="50">
+        <v>300600101</v>
+      </c>
+      <c r="K67" s="50" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="68" ht="12" customHeight="1">
+      <c r="A68" s="50">
+        <v>300600102</v>
+      </c>
+      <c r="B68" s="50">
+        <v>3</v>
+      </c>
+      <c r="C68" s="50" t="s">
+        <v>87</v>
+      </c>
+      <c r="D68" s="50">
+        <v>1</v>
+      </c>
+      <c r="E68" s="50" t="s">
+        <v>162</v>
+      </c>
+      <c r="F68" s="50" t="s">
+        <v>88</v>
+      </c>
+      <c r="G68" s="50">
+        <v>300600102</v>
+      </c>
+      <c r="H68" s="50">
+        <v>300600101</v>
+      </c>
+      <c r="I68" s="50">
+        <v>100</v>
+      </c>
+      <c r="J68" s="50">
+        <v>300600102</v>
+      </c>
+      <c r="K68" s="50" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="50">
+        <v>300600201</v>
+      </c>
+      <c r="B69" s="50">
+        <v>3</v>
+      </c>
+      <c r="C69" s="50" t="s">
+        <v>161</v>
+      </c>
+      <c r="D69" s="50">
+        <v>1</v>
+      </c>
+      <c r="E69" s="50" t="s">
+        <v>162</v>
+      </c>
+      <c r="F69" s="50">
+        <v>-200</v>
+      </c>
+      <c r="G69" s="50">
+        <v>300600201</v>
+      </c>
+      <c r="H69" s="50" t="s">
+        <v>177</v>
+      </c>
+      <c r="I69" s="50">
+        <v>100</v>
+      </c>
+      <c r="J69" s="50">
+        <v>300600201</v>
+      </c>
+      <c r="K69" s="50" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="50">
         <v>300700000</v>
       </c>
-      <c r="I66" s="50">
-        <v>100</v>
-      </c>
-      <c r="J66" s="50">
-        <v>300700002</v>
-      </c>
-      <c r="K66" s="50" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="67" ht="15" customHeight="1">
-      <c r="A67" s="50">
-        <v>300700003</v>
-      </c>
-      <c r="B67" s="50">
-        <v>3</v>
-      </c>
-      <c r="C67" s="50" t="s">
-        <v>65</v>
-      </c>
-      <c r="D67" s="50">
-        <v>1</v>
-      </c>
-      <c r="E67" s="50" t="s">
-        <v>175</v>
-      </c>
-      <c r="F67" s="50" t="s">
-        <v>28</v>
-      </c>
-      <c r="G67" s="50">
-        <v>300700003</v>
-      </c>
-      <c r="H67" s="50">
+      <c r="B70" s="50">
+        <v>3</v>
+      </c>
+      <c r="C70" s="50" t="s">
+        <v>179</v>
+      </c>
+      <c r="D70" s="50">
+        <v>1</v>
+      </c>
+      <c r="E70" s="50" t="s">
+        <v>180</v>
+      </c>
+      <c r="F70" s="50" t="s">
+        <v>45</v>
+      </c>
+      <c r="G70" s="50">
         <v>300700000</v>
       </c>
-      <c r="I67" s="50">
-        <v>100</v>
-      </c>
-      <c r="J67" s="50">
-        <v>300700003</v>
-      </c>
-      <c r="K67" s="50" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="68" ht="15" customHeight="1">
-      <c r="A68" s="50">
-        <v>300700004</v>
-      </c>
-      <c r="B68" s="50">
-        <v>3</v>
-      </c>
-      <c r="C68" s="50" t="s">
-        <v>68</v>
-      </c>
-      <c r="D68" s="50">
-        <v>1</v>
-      </c>
-      <c r="E68" s="50" t="s">
-        <v>177</v>
-      </c>
-      <c r="F68" s="50" t="s">
-        <v>28</v>
-      </c>
-      <c r="G68" s="50">
-        <v>300700004</v>
-      </c>
-      <c r="H68" s="50">
+      <c r="H70" s="50">
+        <v>300100000</v>
+      </c>
+      <c r="I70" s="50">
+        <v>100</v>
+      </c>
+      <c r="J70" s="50">
         <v>300700000</v>
-      </c>
-      <c r="I68" s="50">
-        <v>100</v>
-      </c>
-      <c r="J68" s="50">
-        <v>300700004</v>
-      </c>
-      <c r="K68" s="50" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="69" ht="15" customHeight="1">
-      <c r="A69" s="50">
-        <v>300700101</v>
-      </c>
-      <c r="B69" s="50">
-        <v>3</v>
-      </c>
-      <c r="C69" s="50" t="s">
-        <v>71</v>
-      </c>
-      <c r="D69" s="50">
-        <v>1</v>
-      </c>
-      <c r="E69" s="50" t="s">
-        <v>169</v>
-      </c>
-      <c r="F69" s="50" t="s">
-        <v>72</v>
-      </c>
-      <c r="G69" s="50">
-        <v>300700101</v>
-      </c>
-      <c r="H69" s="50" t="s">
-        <v>179</v>
-      </c>
-      <c r="I69" s="50">
-        <v>100</v>
-      </c>
-      <c r="J69" s="50">
-        <v>300700101</v>
-      </c>
-      <c r="K69" s="50" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="70" ht="15" customHeight="1">
-      <c r="A70" s="50">
-        <v>300700102</v>
-      </c>
-      <c r="B70" s="50">
-        <v>3</v>
-      </c>
-      <c r="C70" s="50" t="s">
-        <v>75</v>
-      </c>
-      <c r="D70" s="50">
-        <v>1</v>
-      </c>
-      <c r="E70" s="50" t="s">
-        <v>169</v>
-      </c>
-      <c r="F70" s="50" t="s">
-        <v>76</v>
-      </c>
-      <c r="G70" s="50">
-        <v>300700102</v>
-      </c>
-      <c r="H70" s="50">
-        <v>300700101</v>
-      </c>
-      <c r="I70" s="50">
-        <v>100</v>
-      </c>
-      <c r="J70" s="50">
-        <v>300700102</v>
       </c>
       <c r="K70" s="50" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="71">
+    <row r="71" ht="15" customHeight="1">
       <c r="A71" s="50">
-        <v>300700201</v>
+        <v>300700001</v>
       </c>
       <c r="B71" s="50">
         <v>3</v>
       </c>
       <c r="C71" s="50" t="s">
-        <v>168</v>
+        <v>71</v>
       </c>
       <c r="D71" s="50">
         <v>1</v>
       </c>
       <c r="E71" s="50" t="s">
-        <v>169</v>
-      </c>
-      <c r="F71" s="50">
-        <v>-200</v>
+        <v>182</v>
+      </c>
+      <c r="F71" s="50" t="s">
+        <v>28</v>
       </c>
       <c r="G71" s="50">
-        <v>300700201</v>
-      </c>
-      <c r="H71" s="50" t="s">
-        <v>182</v>
+        <v>300700001</v>
+      </c>
+      <c r="H71" s="50">
+        <v>300700000</v>
       </c>
       <c r="I71" s="50">
         <v>100</v>
       </c>
       <c r="J71" s="50">
-        <v>300700201</v>
+        <v>300700001</v>
       </c>
       <c r="K71" s="50" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="102" ht="12" customHeight="1"/>
-    <row r="103" ht="12" customHeight="1"/>
-    <row r="104" ht="12" customHeight="1"/>
-    <row r="105" ht="12" customHeight="1"/>
-    <row r="106" ht="12" customHeight="1"/>
-    <row r="107" ht="12" customHeight="1"/>
+    <row r="72" ht="15" customHeight="1">
+      <c r="A72" s="50">
+        <v>300700002</v>
+      </c>
+      <c r="B72" s="50">
+        <v>3</v>
+      </c>
+      <c r="C72" s="50" t="s">
+        <v>74</v>
+      </c>
+      <c r="D72" s="50">
+        <v>1</v>
+      </c>
+      <c r="E72" s="50" t="s">
+        <v>184</v>
+      </c>
+      <c r="F72" s="50" t="s">
+        <v>28</v>
+      </c>
+      <c r="G72" s="50">
+        <v>300700002</v>
+      </c>
+      <c r="H72" s="50">
+        <v>300700000</v>
+      </c>
+      <c r="I72" s="50">
+        <v>100</v>
+      </c>
+      <c r="J72" s="50">
+        <v>300700002</v>
+      </c>
+      <c r="K72" s="50" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="73" ht="15" customHeight="1">
+      <c r="A73" s="50">
+        <v>300700003</v>
+      </c>
+      <c r="B73" s="50">
+        <v>3</v>
+      </c>
+      <c r="C73" s="50" t="s">
+        <v>77</v>
+      </c>
+      <c r="D73" s="50">
+        <v>1</v>
+      </c>
+      <c r="E73" s="50" t="s">
+        <v>186</v>
+      </c>
+      <c r="F73" s="50" t="s">
+        <v>28</v>
+      </c>
+      <c r="G73" s="50">
+        <v>300700003</v>
+      </c>
+      <c r="H73" s="50">
+        <v>300700000</v>
+      </c>
+      <c r="I73" s="50">
+        <v>100</v>
+      </c>
+      <c r="J73" s="50">
+        <v>300700003</v>
+      </c>
+      <c r="K73" s="50" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="74" ht="15" customHeight="1">
+      <c r="A74" s="50">
+        <v>300700004</v>
+      </c>
+      <c r="B74" s="50">
+        <v>3</v>
+      </c>
+      <c r="C74" s="50" t="s">
+        <v>80</v>
+      </c>
+      <c r="D74" s="50">
+        <v>1</v>
+      </c>
+      <c r="E74" s="50" t="s">
+        <v>188</v>
+      </c>
+      <c r="F74" s="50" t="s">
+        <v>28</v>
+      </c>
+      <c r="G74" s="50">
+        <v>300700004</v>
+      </c>
+      <c r="H74" s="50">
+        <v>300700000</v>
+      </c>
+      <c r="I74" s="50">
+        <v>100</v>
+      </c>
+      <c r="J74" s="50">
+        <v>300700004</v>
+      </c>
+      <c r="K74" s="50" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="75" ht="15" customHeight="1">
+      <c r="A75" s="50">
+        <v>300700101</v>
+      </c>
+      <c r="B75" s="50">
+        <v>3</v>
+      </c>
+      <c r="C75" s="50" t="s">
+        <v>83</v>
+      </c>
+      <c r="D75" s="50">
+        <v>1</v>
+      </c>
+      <c r="E75" s="50" t="s">
+        <v>180</v>
+      </c>
+      <c r="F75" s="50" t="s">
+        <v>84</v>
+      </c>
+      <c r="G75" s="50">
+        <v>300700101</v>
+      </c>
+      <c r="H75" s="50" t="s">
+        <v>190</v>
+      </c>
+      <c r="I75" s="50">
+        <v>100</v>
+      </c>
+      <c r="J75" s="50">
+        <v>300700101</v>
+      </c>
+      <c r="K75" s="50" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="76" ht="15" customHeight="1">
+      <c r="A76" s="50">
+        <v>300700102</v>
+      </c>
+      <c r="B76" s="50">
+        <v>3</v>
+      </c>
+      <c r="C76" s="50" t="s">
+        <v>87</v>
+      </c>
+      <c r="D76" s="50">
+        <v>1</v>
+      </c>
+      <c r="E76" s="50" t="s">
+        <v>180</v>
+      </c>
+      <c r="F76" s="50" t="s">
+        <v>88</v>
+      </c>
+      <c r="G76" s="50">
+        <v>300700102</v>
+      </c>
+      <c r="H76" s="50">
+        <v>300700101</v>
+      </c>
+      <c r="I76" s="50">
+        <v>100</v>
+      </c>
+      <c r="J76" s="50">
+        <v>300700102</v>
+      </c>
+      <c r="K76" s="50" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="50">
+        <v>300700201</v>
+      </c>
+      <c r="B77" s="50">
+        <v>3</v>
+      </c>
+      <c r="C77" s="50" t="s">
+        <v>179</v>
+      </c>
+      <c r="D77" s="50">
+        <v>1</v>
+      </c>
+      <c r="E77" s="50" t="s">
+        <v>180</v>
+      </c>
+      <c r="F77" s="50">
+        <v>-200</v>
+      </c>
+      <c r="G77" s="50">
+        <v>300700201</v>
+      </c>
+      <c r="H77" s="50" t="s">
+        <v>193</v>
+      </c>
+      <c r="I77" s="50">
+        <v>100</v>
+      </c>
+      <c r="J77" s="50">
+        <v>300700201</v>
+      </c>
+      <c r="K77" s="50" t="s">
+        <v>194</v>
+      </c>
+    </row>
     <row r="108" ht="12" customHeight="1"/>
     <row r="109" ht="12" customHeight="1"/>
     <row r="110" ht="12" customHeight="1"/>
+    <row r="111" ht="12" customHeight="1"/>
+    <row r="112" ht="12" customHeight="1"/>
+    <row r="113" ht="12" customHeight="1"/>
+    <row r="114" ht="12" customHeight="1"/>
+    <row r="115" ht="12" customHeight="1"/>
+    <row r="116" ht="12" customHeight="1"/>
   </sheetData>
   <sortState ref="A4:V88">
     <sortCondition ref="A4"/>

--- a/Demon Lord Roguelike/Assets/Data/Excel/excel_research_info[研究信息].xlsx
+++ b/Demon Lord Roguelike/Assets/Data/Excel/excel_research_info[研究信息].xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255"/>
+    <workbookView windowHeight="17655"/>
   </bookViews>
   <sheets>
     <sheet name="ResearchInfo" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="195">
   <si>
     <t>id</t>
   </si>
@@ -629,6 +629,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -636,6 +637,7 @@
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -643,12 +645,14 @@
       <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -656,6 +660,7 @@
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -663,6 +668,7 @@
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -670,6 +676,7 @@
       <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -677,6 +684,7 @@
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -684,12 +692,14 @@
       <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -697,6 +707,7 @@
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -704,6 +715,7 @@
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -711,12 +723,14 @@
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -724,30 +738,35 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1201,158 +1220,8 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="51">
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="1" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="2" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="3" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="4" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="5" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="6" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="7" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="2" applyFill="1" borderId="1" applyBorder="1" xfId="8" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="9" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="4" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="10" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="5" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="11" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="0" applyFill="1" borderId="2" applyBorder="1" xfId="12" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="7" applyFont="1" fillId="0" applyFill="1" borderId="2" applyBorder="1" xfId="13" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="8" applyFont="1" fillId="0" applyFill="1" borderId="3" applyBorder="1" xfId="14" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="8" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="15" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="9" applyFont="1" fillId="3" applyFill="1" borderId="4" applyBorder="1" xfId="16" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="10" applyFont="1" fillId="4" applyFill="1" borderId="5" applyBorder="1" xfId="17" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="11" applyFont="1" fillId="4" applyFill="1" borderId="4" applyBorder="1" xfId="18" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="12" applyFont="1" fillId="5" applyFill="1" borderId="6" applyBorder="1" xfId="19" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="13" applyFont="1" fillId="0" applyFill="1" borderId="7" applyBorder="1" xfId="20" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="14" applyFont="1" fillId="0" applyFill="1" borderId="8" applyBorder="1" xfId="21" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="15" applyFont="1" fillId="6" applyFill="1" borderId="0" applyBorder="1" xfId="22" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="16" applyFont="1" fillId="7" applyFill="1" borderId="0" applyBorder="1" xfId="23" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="17" applyFont="1" fillId="8" applyFill="1" borderId="0" applyBorder="1" xfId="24" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="9" applyFill="1" borderId="0" applyBorder="1" xfId="25" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="10" applyFill="1" borderId="0" applyBorder="1" xfId="26" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="11" applyFill="1" borderId="0" applyBorder="1" xfId="27" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="12" applyFill="1" borderId="0" applyBorder="1" xfId="28" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="13" applyFill="1" borderId="0" applyBorder="1" xfId="29" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="14" applyFill="1" borderId="0" applyBorder="1" xfId="30" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="15" applyFill="1" borderId="0" applyBorder="1" xfId="31" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="16" applyFill="1" borderId="0" applyBorder="1" xfId="32" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="17" applyFill="1" borderId="0" applyBorder="1" xfId="33" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="18" applyFill="1" borderId="0" applyBorder="1" xfId="34" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="19" applyFill="1" borderId="0" applyBorder="1" xfId="35" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="20" applyFill="1" borderId="0" applyBorder="1" xfId="36" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="21" applyFill="1" borderId="0" applyBorder="1" xfId="37" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="22" applyFill="1" borderId="0" applyBorder="1" xfId="38" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="23" applyFill="1" borderId="0" applyBorder="1" xfId="39" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="24" applyFill="1" borderId="0" applyBorder="1" xfId="40" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="25" applyFill="1" borderId="0" applyBorder="1" xfId="41" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="26" applyFill="1" borderId="0" applyBorder="1" xfId="42" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="27" applyFill="1" borderId="0" applyBorder="1" xfId="43" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="28" applyFill="1" borderId="0" applyBorder="1" xfId="44" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="29" applyFill="1" borderId="0" applyBorder="1" xfId="45" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="30" applyFill="1" borderId="0" applyBorder="1" xfId="46" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="31" applyFill="1" borderId="0" applyBorder="1" xfId="47" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="32" applyFill="1" borderId="0" applyBorder="1" xfId="48" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+  <cellXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1703,2698 +1572,2698 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K77"/>
+  <dimension ref="A1:K116"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="E1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="K21" sqref="K21"/>
+      <selection pane="topRight" activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="37.75" customWidth="1" style="50"/>
-    <col min="2" max="2" width="23.75" customWidth="1" style="50"/>
-    <col min="3" max="3" width="21.5" customWidth="1" style="50"/>
-    <col min="4" max="4" width="12.625" customWidth="1" style="50"/>
-    <col min="5" max="5" width="11.5" customWidth="1" style="50"/>
-    <col min="6" max="6" width="9.375" customWidth="1" style="50"/>
-    <col min="7" max="7" width="11.5" customWidth="1" style="50"/>
-    <col min="8" max="8" width="56" customWidth="1" style="50"/>
-    <col min="9" max="9" width="14.875" customWidth="1" style="50"/>
-    <col min="10" max="10" width="20" customWidth="1" style="50"/>
-    <col min="11" max="11" width="42.875" customWidth="1" style="50"/>
-    <col min="12" max="12" width="25.125" customWidth="1" style="50"/>
+    <col min="1" max="1" width="37.75" customWidth="1"/>
+    <col min="2" max="2" width="23.75" customWidth="1"/>
+    <col min="3" max="3" width="21.5" customWidth="1"/>
+    <col min="4" max="4" width="12.625" customWidth="1"/>
+    <col min="5" max="5" width="11.5" customWidth="1"/>
+    <col min="6" max="6" width="9.375" customWidth="1"/>
+    <col min="7" max="7" width="11.5" customWidth="1"/>
+    <col min="8" max="8" width="56" customWidth="1"/>
+    <col min="9" max="9" width="14.875" customWidth="1"/>
+    <col min="10" max="10" width="20" customWidth="1"/>
+    <col min="11" max="11" width="42.875" customWidth="1"/>
+    <col min="12" max="12" width="25.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="50" t="s">
+    <row r="1" spans="1:11">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="50" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="50" t="s">
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="50" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="50" t="s">
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="50" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="50" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="50" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="50" t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="50" t="s">
+      <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="50" t="s">
+      <c r="K1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="50" t="s">
+    <row r="2" spans="1:11">
+      <c r="A2" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="50" t="s">
+      <c r="B2" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="50" t="s">
+      <c r="C2" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="50" t="s">
+      <c r="D2" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="50" t="s">
+      <c r="E2" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="50" t="s">
+      <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="50" t="s">
+      <c r="G2" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="50" t="s">
+      <c r="H2" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="50" t="s">
+      <c r="I2" t="s">
         <v>13</v>
       </c>
-      <c r="J2" s="50" t="s">
+      <c r="J2" t="s">
         <v>11</v>
       </c>
-      <c r="K2" s="50" t="s">
+      <c r="K2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="50" t="s">
+    <row r="3" spans="1:11">
+      <c r="A3" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="50" t="s">
+      <c r="B3" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="50" t="s">
+      <c r="C3" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="50" t="s">
+      <c r="D3" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="50" t="s">
+      <c r="E3" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="50" t="s">
+      <c r="F3" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="50" t="s">
+      <c r="G3" t="s">
         <v>21</v>
       </c>
-      <c r="H3" s="50" t="s">
+      <c r="H3" t="s">
         <v>22</v>
       </c>
-      <c r="I3" s="50" t="s">
+      <c r="I3" t="s">
         <v>23</v>
       </c>
-      <c r="J3" s="50" t="s">
+      <c r="J3" t="s">
         <v>24</v>
       </c>
-      <c r="K3" s="50" t="s">
+      <c r="K3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="50">
+    <row r="4" spans="1:11">
+      <c r="A4">
         <v>100000001</v>
       </c>
-      <c r="B4" s="50">
-        <v>1</v>
-      </c>
-      <c r="C4" s="50" t="s">
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="50">
-        <v>1</v>
-      </c>
-      <c r="E4" s="50" t="s">
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s">
         <v>27</v>
       </c>
-      <c r="F4" s="50" t="s">
+      <c r="F4" t="s">
         <v>28</v>
       </c>
-      <c r="G4" s="50">
+      <c r="G4">
         <v>100000000</v>
       </c>
-      <c r="I4" s="50">
-        <v>100</v>
-      </c>
-      <c r="J4" s="50">
+      <c r="I4">
+        <v>100</v>
+      </c>
+      <c r="J4">
         <v>100000000</v>
       </c>
-      <c r="K4" s="50" t="s">
+      <c r="K4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="50">
+    <row r="5" spans="1:11">
+      <c r="A5">
         <v>100000002</v>
       </c>
-      <c r="B5" s="50">
-        <v>1</v>
-      </c>
-      <c r="C5" s="50" t="s">
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
         <v>30</v>
       </c>
-      <c r="D5" s="50">
+      <c r="D5">
         <v>5</v>
       </c>
-      <c r="E5" s="50" t="s">
+      <c r="E5" t="s">
         <v>31</v>
       </c>
-      <c r="F5" s="50" t="s">
+      <c r="F5" t="s">
         <v>32</v>
       </c>
-      <c r="G5" s="50">
+      <c r="G5">
         <v>100000001</v>
       </c>
-      <c r="H5" s="50">
+      <c r="H5">
         <v>100000000</v>
       </c>
-      <c r="I5" s="50" t="s">
+      <c r="I5" t="s">
         <v>33</v>
       </c>
-      <c r="J5" s="50">
+      <c r="J5">
         <v>100000001</v>
       </c>
-      <c r="K5" s="50" t="s">
+      <c r="K5" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="50">
+    <row r="6" spans="1:11">
+      <c r="A6">
         <v>100100001</v>
       </c>
-      <c r="B6" s="50">
-        <v>1</v>
-      </c>
-      <c r="C6" s="50" t="s">
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
         <v>35</v>
       </c>
-      <c r="D6" s="50">
-        <v>1</v>
-      </c>
-      <c r="E6" s="50" t="s">
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6" t="s">
         <v>28</v>
       </c>
-      <c r="F6" s="50" t="s">
+      <c r="F6" t="s">
         <v>28</v>
       </c>
-      <c r="G6" s="50">
+      <c r="G6">
         <v>100100001</v>
       </c>
-      <c r="I6" s="50">
-        <v>100</v>
-      </c>
-      <c r="J6" s="50">
+      <c r="I6">
+        <v>100</v>
+      </c>
+      <c r="J6">
         <v>100100001</v>
       </c>
-      <c r="K6" s="50" t="s">
+      <c r="K6" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="50">
+    <row r="7" spans="1:11">
+      <c r="A7">
         <v>100200001</v>
       </c>
-      <c r="B7" s="50">
-        <v>1</v>
-      </c>
-      <c r="C7" s="50" t="s">
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
         <v>37</v>
       </c>
-      <c r="D7" s="50">
-        <v>1</v>
-      </c>
-      <c r="E7" s="50" t="s">
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7" t="s">
         <v>28</v>
       </c>
-      <c r="F7" s="50" t="s">
+      <c r="F7" t="s">
         <v>27</v>
       </c>
-      <c r="G7" s="50">
+      <c r="G7">
         <v>100200001</v>
       </c>
-      <c r="I7" s="50">
-        <v>100</v>
-      </c>
-      <c r="J7" s="50">
+      <c r="I7">
+        <v>100</v>
+      </c>
+      <c r="J7">
         <v>100200001</v>
       </c>
-      <c r="K7" s="50" t="s">
+      <c r="K7" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="50">
+    <row r="8" spans="1:11">
+      <c r="A8">
         <v>100200002</v>
       </c>
-      <c r="B8" s="50">
-        <v>1</v>
-      </c>
-      <c r="C8" s="50" t="s">
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
         <v>39</v>
       </c>
-      <c r="D8" s="50">
-        <v>1</v>
-      </c>
-      <c r="E8" s="50" t="s">
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8" t="s">
         <v>28</v>
       </c>
-      <c r="F8" s="50" t="s">
+      <c r="F8" t="s">
         <v>40</v>
       </c>
-      <c r="G8" s="50">
+      <c r="G8">
         <v>100200002</v>
       </c>
-      <c r="H8" s="50">
+      <c r="H8">
         <v>100200001</v>
       </c>
-      <c r="I8" s="50">
-        <v>100</v>
-      </c>
-      <c r="J8" s="50">
+      <c r="I8">
+        <v>100</v>
+      </c>
+      <c r="J8">
         <v>100200002</v>
       </c>
-      <c r="K8" s="50" t="s">
+      <c r="K8" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="50">
+    <row r="9" spans="1:11">
+      <c r="A9">
         <v>100200003</v>
       </c>
-      <c r="B9" s="50">
-        <v>1</v>
-      </c>
-      <c r="C9" s="50" t="s">
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
         <v>39</v>
       </c>
-      <c r="D9" s="50">
-        <v>1</v>
-      </c>
-      <c r="E9" s="50" t="s">
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9" t="s">
         <v>28</v>
       </c>
-      <c r="F9" s="50" t="s">
+      <c r="F9" t="s">
         <v>42</v>
       </c>
-      <c r="G9" s="50">
+      <c r="G9">
         <v>100200003</v>
       </c>
-      <c r="H9" s="50">
+      <c r="H9">
         <v>100200001</v>
       </c>
-      <c r="I9" s="50">
-        <v>100</v>
-      </c>
-      <c r="J9" s="50">
+      <c r="I9">
+        <v>100</v>
+      </c>
+      <c r="J9">
         <v>100200003</v>
       </c>
-      <c r="K9" s="50" t="s">
+      <c r="K9" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="50">
+    <row r="10" spans="1:11">
+      <c r="A10">
         <v>100300001</v>
       </c>
-      <c r="B10" s="50">
-        <v>1</v>
-      </c>
-      <c r="C10" s="50" t="s">
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
         <v>44</v>
       </c>
-      <c r="D10" s="50">
+      <c r="D10">
         <v>10</v>
       </c>
-      <c r="E10" s="50" t="s">
+      <c r="E10" t="s">
         <v>45</v>
       </c>
-      <c r="F10" s="50" t="s">
+      <c r="F10" t="s">
         <v>46</v>
       </c>
-      <c r="G10" s="50">
+      <c r="G10">
         <v>100300001</v>
       </c>
-      <c r="I10" s="50" t="s">
+      <c r="I10" t="s">
         <v>47</v>
       </c>
-      <c r="J10" s="50">
+      <c r="J10">
         <v>100300001</v>
       </c>
-      <c r="K10" s="50" t="s">
+      <c r="K10" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="50">
+    <row r="11" spans="1:11">
+      <c r="A11">
         <v>100400001</v>
       </c>
-      <c r="B11" s="50">
-        <v>1</v>
-      </c>
-      <c r="C11" s="50" t="s">
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
         <v>49</v>
       </c>
-      <c r="D11" s="50">
-        <v>1</v>
-      </c>
-      <c r="E11" s="50" t="s">
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11" t="s">
         <v>27</v>
       </c>
-      <c r="F11" s="50" t="s">
+      <c r="F11" t="s">
         <v>27</v>
       </c>
-      <c r="G11" s="50">
+      <c r="G11">
         <v>100400001</v>
       </c>
-      <c r="I11" s="50">
-        <v>100</v>
-      </c>
-      <c r="J11" s="50">
+      <c r="I11">
+        <v>100</v>
+      </c>
+      <c r="J11">
         <v>100400001</v>
       </c>
-      <c r="K11" s="50" t="s">
+      <c r="K11" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="50">
+    <row r="12" spans="1:11">
+      <c r="A12">
         <v>100401000</v>
       </c>
-      <c r="B12" s="50">
-        <v>1</v>
-      </c>
-      <c r="C12" s="50" t="s">
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12" t="s">
         <v>49</v>
       </c>
-      <c r="D12" s="50">
-        <v>1</v>
-      </c>
-      <c r="E12" s="50" t="s">
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12" t="s">
         <v>27</v>
       </c>
-      <c r="F12" s="50" t="s">
+      <c r="F12" t="s">
         <v>40</v>
       </c>
-      <c r="G12" s="50">
+      <c r="G12">
         <v>100401000</v>
       </c>
-      <c r="H12" s="50">
+      <c r="H12">
         <v>100400001</v>
       </c>
-      <c r="I12" s="50">
-        <v>100</v>
-      </c>
-      <c r="J12" s="50">
+      <c r="I12">
+        <v>100</v>
+      </c>
+      <c r="J12">
         <v>100401000</v>
       </c>
-      <c r="K12" s="50" t="s">
+      <c r="K12" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="50">
+    <row r="13" spans="1:11">
+      <c r="A13">
         <v>100401001</v>
       </c>
-      <c r="B13" s="50">
-        <v>1</v>
-      </c>
-      <c r="C13" s="50" t="s">
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13" t="s">
         <v>49</v>
       </c>
-      <c r="D13" s="50">
+      <c r="D13">
         <v>50</v>
       </c>
-      <c r="E13" s="50" t="s">
+      <c r="E13" t="s">
         <v>40</v>
       </c>
-      <c r="F13" s="50" t="s">
+      <c r="F13" t="s">
         <v>40</v>
       </c>
-      <c r="G13" s="50">
+      <c r="G13">
         <v>100401001</v>
       </c>
-      <c r="H13" s="50">
+      <c r="H13">
         <v>100401000</v>
       </c>
-      <c r="I13" s="50" t="s">
+      <c r="I13" t="s">
         <v>52</v>
       </c>
-      <c r="J13" s="50">
+      <c r="J13">
         <v>100401001</v>
       </c>
-      <c r="K13" s="50" t="s">
+      <c r="K13" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="50">
+    <row r="14" spans="1:11">
+      <c r="A14">
         <v>100402000</v>
       </c>
-      <c r="B14" s="50">
-        <v>1</v>
-      </c>
-      <c r="C14" s="50" t="s">
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14" t="s">
         <v>49</v>
       </c>
-      <c r="D14" s="50">
-        <v>1</v>
-      </c>
-      <c r="E14" s="50" t="s">
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14" t="s">
         <v>27</v>
       </c>
-      <c r="F14" s="50" t="s">
+      <c r="F14" t="s">
         <v>42</v>
       </c>
-      <c r="G14" s="50">
+      <c r="G14">
         <v>100402000</v>
       </c>
-      <c r="H14" s="50" t="s">
+      <c r="H14" t="s">
         <v>54</v>
       </c>
-      <c r="I14" s="50">
+      <c r="I14">
         <v>1000</v>
       </c>
-      <c r="J14" s="50">
+      <c r="J14">
         <v>100402000</v>
       </c>
-      <c r="K14" s="50" t="s">
+      <c r="K14" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="50">
+    <row r="15" spans="1:11">
+      <c r="A15">
         <v>100402001</v>
       </c>
-      <c r="B15" s="50">
-        <v>1</v>
-      </c>
-      <c r="C15" s="50" t="s">
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15" t="s">
         <v>49</v>
       </c>
-      <c r="D15" s="50">
+      <c r="D15">
         <v>40</v>
       </c>
-      <c r="E15" s="50" t="s">
+      <c r="E15" t="s">
         <v>40</v>
       </c>
-      <c r="F15" s="50" t="s">
+      <c r="F15" t="s">
         <v>42</v>
       </c>
-      <c r="G15" s="50">
+      <c r="G15">
         <v>100402001</v>
       </c>
-      <c r="H15" s="50">
+      <c r="H15">
         <v>100402000</v>
       </c>
-      <c r="I15" s="50" t="s">
+      <c r="I15" t="s">
         <v>56</v>
       </c>
-      <c r="J15" s="50">
+      <c r="J15">
         <v>100402001</v>
       </c>
-      <c r="K15" s="50" t="s">
+      <c r="K15" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="50">
+    <row r="16" spans="1:11">
+      <c r="A16">
         <v>100403000</v>
       </c>
-      <c r="B16" s="50">
-        <v>1</v>
-      </c>
-      <c r="C16" s="50" t="s">
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16" t="s">
         <v>49</v>
       </c>
-      <c r="D16" s="50">
-        <v>1</v>
-      </c>
-      <c r="E16" s="50" t="s">
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16" t="s">
         <v>27</v>
       </c>
-      <c r="F16" s="50" t="s">
+      <c r="F16" t="s">
         <v>58</v>
       </c>
-      <c r="G16" s="50">
+      <c r="G16">
         <v>100403000</v>
       </c>
-      <c r="H16" s="50" t="s">
+      <c r="H16" t="s">
         <v>59</v>
       </c>
-      <c r="I16" s="50">
+      <c r="I16">
         <v>10000</v>
       </c>
-      <c r="J16" s="50">
+      <c r="J16">
         <v>100403000</v>
       </c>
-      <c r="K16" s="50" t="s">
+      <c r="K16" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="50">
+    <row r="17" spans="1:11">
+      <c r="A17">
         <v>100403001</v>
       </c>
-      <c r="B17" s="50">
-        <v>1</v>
-      </c>
-      <c r="C17" s="50" t="s">
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17" t="s">
         <v>49</v>
       </c>
-      <c r="D17" s="50">
+      <c r="D17">
         <v>30</v>
       </c>
-      <c r="E17" s="50" t="s">
+      <c r="E17" t="s">
         <v>40</v>
       </c>
-      <c r="F17" s="50" t="s">
+      <c r="F17" t="s">
         <v>58</v>
       </c>
-      <c r="G17" s="50">
+      <c r="G17">
         <v>100403001</v>
       </c>
-      <c r="H17" s="50">
+      <c r="H17">
         <v>100403000</v>
       </c>
-      <c r="I17" s="50" t="s">
+      <c r="I17" t="s">
         <v>61</v>
       </c>
-      <c r="J17" s="50">
+      <c r="J17">
         <v>100403001</v>
       </c>
-      <c r="K17" s="50" t="s">
+      <c r="K17" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="50">
+    <row r="18" spans="1:11">
+      <c r="A18">
         <v>200000001</v>
       </c>
-      <c r="B18" s="50">
+      <c r="B18">
         <v>2</v>
       </c>
-      <c r="C18" s="50" t="s">
+      <c r="C18" t="s">
         <v>63</v>
       </c>
-      <c r="D18" s="50">
+      <c r="D18">
         <v>30</v>
       </c>
-      <c r="E18" s="50">
+      <c r="E18">
         <v>-200</v>
       </c>
-      <c r="F18" s="50">
+      <c r="F18">
         <v>0</v>
       </c>
-      <c r="G18" s="50">
+      <c r="G18">
         <v>200000001</v>
       </c>
-      <c r="I18" s="50" t="s">
+      <c r="I18" t="s">
         <v>47</v>
       </c>
-      <c r="J18" s="50">
+      <c r="J18">
         <v>200000001</v>
       </c>
-      <c r="K18" s="50" t="s">
+      <c r="K18" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="50">
+    <row r="19" spans="1:11">
+      <c r="A19">
         <v>200100001</v>
       </c>
-      <c r="B19" s="50">
+      <c r="B19">
         <v>2</v>
       </c>
-      <c r="C19" s="50" t="s">
+      <c r="C19" t="s">
         <v>65</v>
       </c>
-      <c r="D19" s="50">
+      <c r="D19">
         <v>4</v>
       </c>
-      <c r="E19" s="50" t="s">
+      <c r="E19" t="s">
         <v>28</v>
       </c>
-      <c r="F19" s="50" t="s">
+      <c r="F19" t="s">
         <v>45</v>
       </c>
-      <c r="G19" s="50">
+      <c r="G19">
         <v>200100001</v>
       </c>
-      <c r="I19" s="50" t="s">
+      <c r="I19" t="s">
         <v>66</v>
       </c>
-      <c r="J19" s="50">
+      <c r="J19">
         <v>200100001</v>
       </c>
-      <c r="K19" s="50" t="s">
+      <c r="K19" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" s="50">
+    <row r="20" spans="1:11">
+      <c r="A20">
         <v>300100000</v>
       </c>
-      <c r="B20" s="50">
-        <v>3</v>
-      </c>
-      <c r="C20" s="50" t="s">
+      <c r="B20">
+        <v>3</v>
+      </c>
+      <c r="C20" t="s">
         <v>68</v>
       </c>
-      <c r="D20" s="50">
-        <v>1</v>
-      </c>
-      <c r="E20" s="50" t="s">
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20" t="s">
         <v>69</v>
       </c>
-      <c r="F20" s="50" t="s">
+      <c r="F20" t="s">
         <v>45</v>
       </c>
-      <c r="G20" s="50">
+      <c r="G20">
         <v>300100000</v>
       </c>
-      <c r="H20" s="50">
+      <c r="H20">
         <v>300200000</v>
       </c>
-      <c r="I20" s="50">
-        <v>100</v>
-      </c>
-      <c r="J20" s="50">
+      <c r="I20">
+        <v>100</v>
+      </c>
+      <c r="J20">
         <v>300100000</v>
       </c>
-      <c r="K20" s="50" t="s">
+      <c r="K20" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" s="50">
+    <row r="21" spans="1:11">
+      <c r="A21">
         <v>300100001</v>
       </c>
-      <c r="B21" s="50">
-        <v>3</v>
-      </c>
-      <c r="C21" s="50" t="s">
+      <c r="B21">
+        <v>3</v>
+      </c>
+      <c r="C21" t="s">
         <v>71</v>
       </c>
-      <c r="D21" s="50">
-        <v>1</v>
-      </c>
-      <c r="E21" s="50" t="s">
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21" t="s">
         <v>72</v>
       </c>
-      <c r="F21" s="50" t="s">
+      <c r="F21" t="s">
         <v>28</v>
       </c>
-      <c r="G21" s="50">
+      <c r="G21">
         <v>300100001</v>
       </c>
-      <c r="H21" s="50">
+      <c r="H21">
         <v>300100000</v>
       </c>
-      <c r="I21" s="50">
-        <v>100</v>
-      </c>
-      <c r="J21" s="50">
+      <c r="I21">
+        <v>100</v>
+      </c>
+      <c r="J21">
         <v>300100001</v>
       </c>
-      <c r="K21" s="50" t="s">
+      <c r="K21" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" s="50">
+    <row r="22" spans="1:11">
+      <c r="A22">
         <v>300100002</v>
       </c>
-      <c r="B22" s="50">
-        <v>3</v>
-      </c>
-      <c r="C22" s="50" t="s">
+      <c r="B22">
+        <v>3</v>
+      </c>
+      <c r="C22" t="s">
         <v>74</v>
       </c>
-      <c r="D22" s="50">
-        <v>1</v>
-      </c>
-      <c r="E22" s="50" t="s">
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22" t="s">
         <v>75</v>
       </c>
-      <c r="F22" s="50" t="s">
+      <c r="F22" t="s">
         <v>28</v>
       </c>
-      <c r="G22" s="50">
+      <c r="G22">
         <v>300100002</v>
       </c>
-      <c r="H22" s="50">
+      <c r="H22">
         <v>300100000</v>
       </c>
-      <c r="I22" s="50">
-        <v>100</v>
-      </c>
-      <c r="J22" s="50">
+      <c r="I22">
+        <v>100</v>
+      </c>
+      <c r="J22">
         <v>300100002</v>
       </c>
-      <c r="K22" s="50" t="s">
+      <c r="K22" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" s="50">
+    <row r="23" spans="1:11">
+      <c r="A23">
         <v>300100003</v>
       </c>
-      <c r="B23" s="50">
-        <v>3</v>
-      </c>
-      <c r="C23" s="50" t="s">
+      <c r="B23">
+        <v>3</v>
+      </c>
+      <c r="C23" t="s">
         <v>77</v>
       </c>
-      <c r="D23" s="50">
-        <v>1</v>
-      </c>
-      <c r="E23" s="50" t="s">
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23" t="s">
         <v>78</v>
       </c>
-      <c r="F23" s="50" t="s">
+      <c r="F23" t="s">
         <v>28</v>
       </c>
-      <c r="G23" s="50">
+      <c r="G23">
         <v>300100003</v>
       </c>
-      <c r="H23" s="50">
+      <c r="H23">
         <v>300100000</v>
       </c>
-      <c r="I23" s="50">
-        <v>100</v>
-      </c>
-      <c r="J23" s="50">
+      <c r="I23">
+        <v>100</v>
+      </c>
+      <c r="J23">
         <v>300100003</v>
       </c>
-      <c r="K23" s="50" t="s">
+      <c r="K23" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" s="50">
+    <row r="24" spans="1:11">
+      <c r="A24">
         <v>300100004</v>
       </c>
-      <c r="B24" s="50">
-        <v>3</v>
-      </c>
-      <c r="C24" s="50" t="s">
+      <c r="B24">
+        <v>3</v>
+      </c>
+      <c r="C24" t="s">
         <v>80</v>
       </c>
-      <c r="D24" s="50">
-        <v>1</v>
-      </c>
-      <c r="E24" s="50" t="s">
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24" t="s">
         <v>81</v>
       </c>
-      <c r="F24" s="50" t="s">
+      <c r="F24" t="s">
         <v>28</v>
       </c>
-      <c r="G24" s="50">
+      <c r="G24">
         <v>300100004</v>
       </c>
-      <c r="H24" s="50">
+      <c r="H24">
         <v>300100000</v>
       </c>
-      <c r="I24" s="50">
-        <v>100</v>
-      </c>
-      <c r="J24" s="50">
+      <c r="I24">
+        <v>100</v>
+      </c>
+      <c r="J24">
         <v>300100004</v>
       </c>
-      <c r="K24" s="50" t="s">
+      <c r="K24" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" s="50">
+    <row r="25" spans="1:11">
+      <c r="A25">
         <v>300100101</v>
       </c>
-      <c r="B25" s="50">
-        <v>3</v>
-      </c>
-      <c r="C25" s="50" t="s">
+      <c r="B25">
+        <v>3</v>
+      </c>
+      <c r="C25" t="s">
         <v>83</v>
       </c>
-      <c r="D25" s="50">
-        <v>1</v>
-      </c>
-      <c r="E25" s="50" t="s">
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25" t="s">
         <v>69</v>
       </c>
-      <c r="F25" s="50" t="s">
+      <c r="F25" t="s">
         <v>84</v>
       </c>
-      <c r="G25" s="50">
+      <c r="G25">
         <v>300100101</v>
       </c>
-      <c r="H25" s="50" t="s">
+      <c r="H25" t="s">
         <v>85</v>
       </c>
-      <c r="I25" s="50">
-        <v>100</v>
-      </c>
-      <c r="J25" s="50">
+      <c r="I25">
+        <v>100</v>
+      </c>
+      <c r="J25">
         <v>300100101</v>
       </c>
-      <c r="K25" s="50" t="s">
+      <c r="K25" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" s="50">
+    <row r="26" spans="1:11">
+      <c r="A26">
         <v>300100102</v>
       </c>
-      <c r="B26" s="50">
-        <v>3</v>
-      </c>
-      <c r="C26" s="50" t="s">
+      <c r="B26">
+        <v>3</v>
+      </c>
+      <c r="C26" t="s">
         <v>87</v>
       </c>
-      <c r="D26" s="50">
-        <v>1</v>
-      </c>
-      <c r="E26" s="50" t="s">
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26" t="s">
         <v>69</v>
       </c>
-      <c r="F26" s="50" t="s">
+      <c r="F26" t="s">
         <v>88</v>
       </c>
-      <c r="G26" s="50">
+      <c r="G26">
         <v>300100102</v>
       </c>
-      <c r="H26" s="50">
+      <c r="H26">
         <v>300100101</v>
       </c>
-      <c r="I26" s="50">
-        <v>100</v>
-      </c>
-      <c r="J26" s="50">
+      <c r="I26">
+        <v>100</v>
+      </c>
+      <c r="J26">
         <v>300100102</v>
       </c>
-      <c r="K26" s="50" t="s">
+      <c r="K26" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" s="50">
+    <row r="27" spans="1:11">
+      <c r="A27">
         <v>300100201</v>
       </c>
-      <c r="B27" s="50">
-        <v>3</v>
-      </c>
-      <c r="C27" s="50" t="s">
+      <c r="B27">
+        <v>3</v>
+      </c>
+      <c r="C27" t="s">
         <v>68</v>
       </c>
-      <c r="D27" s="50">
-        <v>1</v>
-      </c>
-      <c r="E27" s="50" t="s">
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27" t="s">
         <v>69</v>
       </c>
-      <c r="F27" s="50">
+      <c r="F27">
         <v>-200</v>
       </c>
-      <c r="G27" s="50">
+      <c r="G27">
         <v>300100201</v>
       </c>
-      <c r="H27" s="50" t="s">
+      <c r="H27" t="s">
         <v>90</v>
       </c>
-      <c r="I27" s="50">
-        <v>100</v>
-      </c>
-      <c r="J27" s="50">
+      <c r="I27">
+        <v>100</v>
+      </c>
+      <c r="J27">
         <v>300100201</v>
       </c>
-      <c r="K27" s="50" t="s">
+      <c r="K27" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" s="50">
+    <row r="28" spans="1:11">
+      <c r="A28">
         <v>300200000</v>
       </c>
-      <c r="B28" s="50">
-        <v>3</v>
-      </c>
-      <c r="C28" s="50" t="s">
+      <c r="B28">
+        <v>3</v>
+      </c>
+      <c r="C28" t="s">
         <v>92</v>
       </c>
-      <c r="D28" s="50">
-        <v>1</v>
-      </c>
-      <c r="E28" s="50" t="s">
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28" t="s">
         <v>45</v>
       </c>
-      <c r="F28" s="50" t="s">
+      <c r="F28" t="s">
         <v>45</v>
       </c>
-      <c r="G28" s="50">
+      <c r="G28">
         <v>300200000</v>
       </c>
-      <c r="I28" s="50">
-        <v>100</v>
-      </c>
-      <c r="J28" s="50">
+      <c r="I28">
+        <v>100</v>
+      </c>
+      <c r="J28">
         <v>300200000</v>
       </c>
-      <c r="K28" s="50" t="s">
+      <c r="K28" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" s="50">
+    <row r="29" spans="1:11">
+      <c r="A29">
         <v>300200001</v>
       </c>
-      <c r="B29" s="50">
-        <v>3</v>
-      </c>
-      <c r="C29" s="50" t="s">
+      <c r="B29">
+        <v>3</v>
+      </c>
+      <c r="C29" t="s">
         <v>71</v>
       </c>
-      <c r="D29" s="50">
-        <v>1</v>
-      </c>
-      <c r="E29" s="50" t="s">
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="E29" t="s">
         <v>94</v>
       </c>
-      <c r="F29" s="50" t="s">
+      <c r="F29" t="s">
         <v>28</v>
       </c>
-      <c r="G29" s="50">
+      <c r="G29">
         <v>300200001</v>
       </c>
-      <c r="H29" s="50">
+      <c r="H29">
         <v>300200000</v>
       </c>
-      <c r="I29" s="50">
-        <v>100</v>
-      </c>
-      <c r="J29" s="50">
+      <c r="I29">
+        <v>100</v>
+      </c>
+      <c r="J29">
         <v>300200001</v>
       </c>
-      <c r="K29" s="50" t="s">
+      <c r="K29" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" s="50">
+    <row r="30" spans="1:11">
+      <c r="A30">
         <v>300200002</v>
       </c>
-      <c r="B30" s="50">
-        <v>3</v>
-      </c>
-      <c r="C30" s="50" t="s">
+      <c r="B30">
+        <v>3</v>
+      </c>
+      <c r="C30" t="s">
         <v>74</v>
       </c>
-      <c r="D30" s="50">
-        <v>1</v>
-      </c>
-      <c r="E30" s="50" t="s">
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="E30" t="s">
         <v>96</v>
       </c>
-      <c r="F30" s="50" t="s">
+      <c r="F30" t="s">
         <v>28</v>
       </c>
-      <c r="G30" s="50">
+      <c r="G30">
         <v>300200002</v>
       </c>
-      <c r="H30" s="50">
+      <c r="H30">
         <v>300200000</v>
       </c>
-      <c r="I30" s="50">
-        <v>100</v>
-      </c>
-      <c r="J30" s="50">
+      <c r="I30">
+        <v>100</v>
+      </c>
+      <c r="J30">
         <v>300200002</v>
       </c>
-      <c r="K30" s="50" t="s">
+      <c r="K30" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" s="50">
+    <row r="31" spans="1:11">
+      <c r="A31">
         <v>300200003</v>
       </c>
-      <c r="B31" s="50">
-        <v>3</v>
-      </c>
-      <c r="C31" s="50" t="s">
+      <c r="B31">
+        <v>3</v>
+      </c>
+      <c r="C31" t="s">
         <v>77</v>
       </c>
-      <c r="D31" s="50">
-        <v>1</v>
-      </c>
-      <c r="E31" s="50" t="s">
+      <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="E31" t="s">
         <v>98</v>
       </c>
-      <c r="F31" s="50" t="s">
+      <c r="F31" t="s">
         <v>28</v>
       </c>
-      <c r="G31" s="50">
+      <c r="G31">
         <v>300200003</v>
       </c>
-      <c r="H31" s="50">
+      <c r="H31">
         <v>300200000</v>
       </c>
-      <c r="I31" s="50">
-        <v>100</v>
-      </c>
-      <c r="J31" s="50">
+      <c r="I31">
+        <v>100</v>
+      </c>
+      <c r="J31">
         <v>300200003</v>
       </c>
-      <c r="K31" s="50" t="s">
+      <c r="K31" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" s="50">
+    <row r="32" spans="1:11">
+      <c r="A32">
         <v>300200004</v>
       </c>
-      <c r="B32" s="50">
-        <v>3</v>
-      </c>
-      <c r="C32" s="50" t="s">
+      <c r="B32">
+        <v>3</v>
+      </c>
+      <c r="C32" t="s">
         <v>80</v>
       </c>
-      <c r="D32" s="50">
-        <v>1</v>
-      </c>
-      <c r="E32" s="50" t="s">
-        <v>100</v>
-      </c>
-      <c r="F32" s="50" t="s">
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="E32" t="s">
+        <v>100</v>
+      </c>
+      <c r="F32" t="s">
         <v>28</v>
       </c>
-      <c r="G32" s="50">
+      <c r="G32">
         <v>300200004</v>
       </c>
-      <c r="H32" s="50">
+      <c r="H32">
         <v>300200000</v>
       </c>
-      <c r="I32" s="50">
-        <v>100</v>
-      </c>
-      <c r="J32" s="50">
+      <c r="I32">
+        <v>100</v>
+      </c>
+      <c r="J32">
         <v>300200004</v>
       </c>
-      <c r="K32" s="50" t="s">
+      <c r="K32" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" s="50">
+    <row r="33" spans="1:11">
+      <c r="A33">
         <v>300200101</v>
       </c>
-      <c r="B33" s="50">
-        <v>3</v>
-      </c>
-      <c r="C33" s="50" t="s">
+      <c r="B33">
+        <v>3</v>
+      </c>
+      <c r="C33" t="s">
         <v>83</v>
       </c>
-      <c r="D33" s="50">
-        <v>1</v>
-      </c>
-      <c r="E33" s="50" t="s">
+      <c r="D33">
+        <v>1</v>
+      </c>
+      <c r="E33" t="s">
         <v>45</v>
       </c>
-      <c r="F33" s="50" t="s">
+      <c r="F33" t="s">
         <v>84</v>
       </c>
-      <c r="G33" s="50">
+      <c r="G33">
         <v>300200101</v>
       </c>
-      <c r="H33" s="50" t="s">
+      <c r="H33" t="s">
         <v>102</v>
       </c>
-      <c r="I33" s="50">
-        <v>100</v>
-      </c>
-      <c r="J33" s="50">
+      <c r="I33">
+        <v>100</v>
+      </c>
+      <c r="J33">
         <v>300200101</v>
       </c>
-      <c r="K33" s="50" t="s">
+      <c r="K33" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" s="50">
+    <row r="34" spans="1:11">
+      <c r="A34">
         <v>300200102</v>
       </c>
-      <c r="B34" s="50">
-        <v>3</v>
-      </c>
-      <c r="C34" s="50" t="s">
+      <c r="B34">
+        <v>3</v>
+      </c>
+      <c r="C34" t="s">
         <v>87</v>
       </c>
-      <c r="D34" s="50">
-        <v>1</v>
-      </c>
-      <c r="E34" s="50" t="s">
+      <c r="D34">
+        <v>1</v>
+      </c>
+      <c r="E34" t="s">
         <v>45</v>
       </c>
-      <c r="F34" s="50" t="s">
+      <c r="F34" t="s">
         <v>88</v>
       </c>
-      <c r="G34" s="50">
+      <c r="G34">
         <v>300200102</v>
       </c>
-      <c r="H34" s="50">
+      <c r="H34">
         <v>300200101</v>
       </c>
-      <c r="I34" s="50">
-        <v>100</v>
-      </c>
-      <c r="J34" s="50">
+      <c r="I34">
+        <v>100</v>
+      </c>
+      <c r="J34">
         <v>300200102</v>
       </c>
-      <c r="K34" s="50" t="s">
+      <c r="K34" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" s="50">
+    <row r="35" spans="1:11">
+      <c r="A35">
         <v>300200201</v>
       </c>
-      <c r="B35" s="50">
-        <v>3</v>
-      </c>
-      <c r="C35" s="50" t="s">
+      <c r="B35">
+        <v>3</v>
+      </c>
+      <c r="C35" t="s">
         <v>92</v>
       </c>
-      <c r="D35" s="50">
-        <v>1</v>
-      </c>
-      <c r="E35" s="50">
+      <c r="D35">
+        <v>1</v>
+      </c>
+      <c r="E35">
         <v>0</v>
       </c>
-      <c r="F35" s="50">
+      <c r="F35">
         <v>-200</v>
       </c>
-      <c r="G35" s="50">
+      <c r="G35">
         <v>300200201</v>
       </c>
-      <c r="H35" s="50" t="s">
+      <c r="H35" t="s">
         <v>105</v>
       </c>
-      <c r="I35" s="50">
-        <v>100</v>
-      </c>
-      <c r="J35" s="50">
+      <c r="I35">
+        <v>100</v>
+      </c>
+      <c r="J35">
         <v>300200201</v>
       </c>
-      <c r="K35" s="50" t="s">
+      <c r="K35" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" s="50">
+    <row r="36" spans="1:11">
+      <c r="A36">
         <v>300300000</v>
       </c>
-      <c r="B36" s="50">
-        <v>3</v>
-      </c>
-      <c r="C36" s="50" t="s">
+      <c r="B36">
+        <v>3</v>
+      </c>
+      <c r="C36" t="s">
         <v>107</v>
       </c>
-      <c r="D36" s="50">
-        <v>1</v>
-      </c>
-      <c r="E36" s="50" t="s">
+      <c r="D36">
+        <v>1</v>
+      </c>
+      <c r="E36" t="s">
         <v>58</v>
       </c>
-      <c r="F36" s="50" t="s">
+      <c r="F36" t="s">
         <v>45</v>
       </c>
-      <c r="G36" s="50">
+      <c r="G36">
         <v>300300000</v>
       </c>
-      <c r="H36" s="50">
+      <c r="H36">
         <v>300200000</v>
       </c>
-      <c r="I36" s="50">
-        <v>100</v>
-      </c>
-      <c r="J36" s="50">
+      <c r="I36">
+        <v>100</v>
+      </c>
+      <c r="J36">
         <v>300300000</v>
       </c>
-      <c r="K36" s="50" t="s">
+      <c r="K36" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" s="50">
+    <row r="37" spans="1:11">
+      <c r="A37">
         <v>300300001</v>
       </c>
-      <c r="B37" s="50">
-        <v>3</v>
-      </c>
-      <c r="C37" s="50" t="s">
+      <c r="B37">
+        <v>3</v>
+      </c>
+      <c r="C37" t="s">
         <v>109</v>
       </c>
-      <c r="D37" s="50">
-        <v>1</v>
-      </c>
-      <c r="E37" s="50" t="s">
+      <c r="D37">
+        <v>1</v>
+      </c>
+      <c r="E37" t="s">
         <v>110</v>
       </c>
-      <c r="F37" s="50" t="s">
+      <c r="F37" t="s">
         <v>28</v>
       </c>
-      <c r="G37" s="50">
+      <c r="G37">
         <v>300300001</v>
       </c>
-      <c r="H37" s="50">
+      <c r="H37">
         <v>300300000</v>
       </c>
-      <c r="I37" s="50">
-        <v>100</v>
-      </c>
-      <c r="J37" s="50">
+      <c r="I37">
+        <v>100</v>
+      </c>
+      <c r="J37">
         <v>300300001</v>
       </c>
-      <c r="K37" s="50" t="s">
+      <c r="K37" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" s="50">
+    <row r="38" spans="1:11">
+      <c r="A38">
         <v>300300002</v>
       </c>
-      <c r="B38" s="50">
-        <v>3</v>
-      </c>
-      <c r="C38" s="50" t="s">
+      <c r="B38">
+        <v>3</v>
+      </c>
+      <c r="C38" t="s">
         <v>112</v>
       </c>
-      <c r="D38" s="50">
-        <v>1</v>
-      </c>
-      <c r="E38" s="50" t="s">
+      <c r="D38">
+        <v>1</v>
+      </c>
+      <c r="E38" t="s">
         <v>113</v>
       </c>
-      <c r="F38" s="50" t="s">
+      <c r="F38" t="s">
         <v>28</v>
       </c>
-      <c r="G38" s="50">
+      <c r="G38">
         <v>300300002</v>
       </c>
-      <c r="H38" s="50">
+      <c r="H38">
         <v>300300000</v>
       </c>
-      <c r="I38" s="50">
-        <v>100</v>
-      </c>
-      <c r="J38" s="50">
+      <c r="I38">
+        <v>100</v>
+      </c>
+      <c r="J38">
         <v>300300002</v>
       </c>
-      <c r="K38" s="50" t="s">
+      <c r="K38" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" s="50">
+    <row r="39" spans="1:11">
+      <c r="A39">
         <v>300300003</v>
       </c>
-      <c r="B39" s="50">
-        <v>3</v>
-      </c>
-      <c r="C39" s="50" t="s">
+      <c r="B39">
+        <v>3</v>
+      </c>
+      <c r="C39" t="s">
         <v>112</v>
       </c>
-      <c r="D39" s="50">
-        <v>1</v>
-      </c>
-      <c r="E39" s="50" t="s">
+      <c r="D39">
+        <v>1</v>
+      </c>
+      <c r="E39" t="s">
         <v>115</v>
       </c>
-      <c r="F39" s="50" t="s">
+      <c r="F39" t="s">
         <v>28</v>
       </c>
-      <c r="G39" s="50">
+      <c r="G39">
         <v>300300003</v>
       </c>
-      <c r="H39" s="50">
+      <c r="H39">
         <v>300300000</v>
       </c>
-      <c r="I39" s="50">
-        <v>100</v>
-      </c>
-      <c r="J39" s="50">
+      <c r="I39">
+        <v>100</v>
+      </c>
+      <c r="J39">
         <v>300300003</v>
       </c>
-      <c r="K39" s="50" t="s">
+      <c r="K39" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" s="50">
+    <row r="40" spans="1:11">
+      <c r="A40">
         <v>300300004</v>
       </c>
-      <c r="B40" s="50">
-        <v>3</v>
-      </c>
-      <c r="C40" s="50" t="s">
+      <c r="B40">
+        <v>3</v>
+      </c>
+      <c r="C40" t="s">
         <v>117</v>
       </c>
-      <c r="D40" s="50">
-        <v>1</v>
-      </c>
-      <c r="E40" s="50" t="s">
+      <c r="D40">
+        <v>1</v>
+      </c>
+      <c r="E40" t="s">
         <v>118</v>
       </c>
-      <c r="F40" s="50" t="s">
+      <c r="F40" t="s">
         <v>28</v>
       </c>
-      <c r="G40" s="50">
+      <c r="G40">
         <v>300300004</v>
       </c>
-      <c r="H40" s="50">
+      <c r="H40">
         <v>300300000</v>
       </c>
-      <c r="I40" s="50">
-        <v>100</v>
-      </c>
-      <c r="J40" s="50">
+      <c r="I40">
+        <v>100</v>
+      </c>
+      <c r="J40">
         <v>300300004</v>
       </c>
-      <c r="K40" s="50" t="s">
+      <c r="K40" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" s="50">
+    <row r="41" spans="1:11">
+      <c r="A41">
         <v>300300101</v>
       </c>
-      <c r="B41" s="50">
-        <v>3</v>
-      </c>
-      <c r="C41" s="50" t="s">
+      <c r="B41">
+        <v>3</v>
+      </c>
+      <c r="C41" t="s">
         <v>83</v>
       </c>
-      <c r="D41" s="50">
-        <v>1</v>
-      </c>
-      <c r="E41" s="50" t="s">
+      <c r="D41">
+        <v>1</v>
+      </c>
+      <c r="E41" t="s">
         <v>58</v>
       </c>
-      <c r="F41" s="50" t="s">
+      <c r="F41" t="s">
         <v>84</v>
       </c>
-      <c r="G41" s="50">
+      <c r="G41">
         <v>300300101</v>
       </c>
-      <c r="H41" s="50" t="s">
+      <c r="H41" t="s">
         <v>120</v>
       </c>
-      <c r="I41" s="50">
-        <v>100</v>
-      </c>
-      <c r="J41" s="50">
+      <c r="I41">
+        <v>100</v>
+      </c>
+      <c r="J41">
         <v>300300101</v>
       </c>
-      <c r="K41" s="50" t="s">
+      <c r="K41" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" s="50">
+    <row r="42" spans="1:11">
+      <c r="A42">
         <v>300300102</v>
       </c>
-      <c r="B42" s="50">
-        <v>3</v>
-      </c>
-      <c r="C42" s="50" t="s">
+      <c r="B42">
+        <v>3</v>
+      </c>
+      <c r="C42" t="s">
         <v>87</v>
       </c>
-      <c r="D42" s="50">
-        <v>1</v>
-      </c>
-      <c r="E42" s="50" t="s">
+      <c r="D42">
+        <v>1</v>
+      </c>
+      <c r="E42" t="s">
         <v>58</v>
       </c>
-      <c r="F42" s="50" t="s">
+      <c r="F42" t="s">
         <v>88</v>
       </c>
-      <c r="G42" s="50">
+      <c r="G42">
         <v>300300102</v>
       </c>
-      <c r="H42" s="50">
+      <c r="H42">
         <v>300300101</v>
       </c>
-      <c r="I42" s="50">
-        <v>100</v>
-      </c>
-      <c r="J42" s="50">
+      <c r="I42">
+        <v>100</v>
+      </c>
+      <c r="J42">
         <v>300300102</v>
       </c>
-      <c r="K42" s="50" t="s">
+      <c r="K42" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" s="50">
+    <row r="43" spans="1:11">
+      <c r="A43">
         <v>300300201</v>
       </c>
-      <c r="B43" s="50">
-        <v>3</v>
-      </c>
-      <c r="C43" s="50" t="s">
+      <c r="B43">
+        <v>3</v>
+      </c>
+      <c r="C43" t="s">
         <v>107</v>
       </c>
-      <c r="D43" s="50">
-        <v>1</v>
-      </c>
-      <c r="E43" s="50" t="s">
+      <c r="D43">
+        <v>1</v>
+      </c>
+      <c r="E43" t="s">
         <v>58</v>
       </c>
-      <c r="F43" s="50">
+      <c r="F43">
         <v>-200</v>
       </c>
-      <c r="G43" s="50">
+      <c r="G43">
         <v>300300201</v>
       </c>
-      <c r="H43" s="50" t="s">
+      <c r="H43" t="s">
         <v>123</v>
       </c>
-      <c r="I43" s="50">
-        <v>100</v>
-      </c>
-      <c r="J43" s="50">
+      <c r="I43">
+        <v>100</v>
+      </c>
+      <c r="J43">
         <v>300300201</v>
       </c>
-      <c r="K43" s="50" t="s">
+      <c r="K43" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" s="50">
+    <row r="44" spans="1:11">
+      <c r="A44">
         <v>300400000</v>
       </c>
-      <c r="B44" s="50">
-        <v>3</v>
-      </c>
-      <c r="C44" s="50" t="s">
+      <c r="B44">
+        <v>3</v>
+      </c>
+      <c r="C44" t="s">
         <v>125</v>
       </c>
-      <c r="D44" s="50">
-        <v>1</v>
-      </c>
-      <c r="E44" s="50" t="s">
+      <c r="D44">
+        <v>1</v>
+      </c>
+      <c r="E44" t="s">
         <v>126</v>
       </c>
-      <c r="F44" s="50" t="s">
+      <c r="F44" t="s">
         <v>45</v>
       </c>
-      <c r="G44" s="50">
+      <c r="G44">
         <v>300400000</v>
       </c>
-      <c r="H44" s="50">
+      <c r="H44">
         <v>300600000</v>
       </c>
-      <c r="I44" s="50">
-        <v>100</v>
-      </c>
-      <c r="J44" s="50">
+      <c r="I44">
+        <v>100</v>
+      </c>
+      <c r="J44">
         <v>300400000</v>
       </c>
-      <c r="K44" s="50" t="s">
+      <c r="K44" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" s="50">
+    <row r="45" spans="1:11">
+      <c r="A45">
         <v>300400001</v>
       </c>
-      <c r="B45" s="50">
-        <v>3</v>
-      </c>
-      <c r="C45" s="50" t="s">
+      <c r="B45">
+        <v>3</v>
+      </c>
+      <c r="C45" t="s">
         <v>71</v>
       </c>
-      <c r="D45" s="50">
-        <v>1</v>
-      </c>
-      <c r="E45" s="50" t="s">
+      <c r="D45">
+        <v>1</v>
+      </c>
+      <c r="E45" t="s">
         <v>128</v>
       </c>
-      <c r="F45" s="50" t="s">
+      <c r="F45" t="s">
         <v>28</v>
       </c>
-      <c r="G45" s="50">
+      <c r="G45">
         <v>300400001</v>
       </c>
-      <c r="H45" s="50">
+      <c r="H45">
         <v>300400000</v>
       </c>
-      <c r="I45" s="50">
-        <v>100</v>
-      </c>
-      <c r="J45" s="50">
+      <c r="I45">
+        <v>100</v>
+      </c>
+      <c r="J45">
         <v>300400001</v>
       </c>
-      <c r="K45" s="50" t="s">
+      <c r="K45" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" s="50">
+    <row r="46" spans="1:11">
+      <c r="A46">
         <v>300400002</v>
       </c>
-      <c r="B46" s="50">
-        <v>3</v>
-      </c>
-      <c r="C46" s="50" t="s">
+      <c r="B46">
+        <v>3</v>
+      </c>
+      <c r="C46" t="s">
         <v>130</v>
       </c>
-      <c r="D46" s="50">
-        <v>1</v>
-      </c>
-      <c r="E46" s="50" t="s">
+      <c r="D46">
+        <v>1</v>
+      </c>
+      <c r="E46" t="s">
         <v>131</v>
       </c>
-      <c r="F46" s="50" t="s">
+      <c r="F46" t="s">
         <v>28</v>
       </c>
-      <c r="G46" s="50">
+      <c r="G46">
         <v>300400002</v>
       </c>
-      <c r="H46" s="50">
+      <c r="H46">
         <v>300400000</v>
       </c>
-      <c r="I46" s="50">
-        <v>100</v>
-      </c>
-      <c r="J46" s="50">
+      <c r="I46">
+        <v>100</v>
+      </c>
+      <c r="J46">
         <v>300400002</v>
       </c>
-      <c r="K46" s="50" t="s">
+      <c r="K46" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" s="50">
+    <row r="47" spans="1:11">
+      <c r="A47">
         <v>300400003</v>
       </c>
-      <c r="B47" s="50">
-        <v>3</v>
-      </c>
-      <c r="C47" s="50" t="s">
+      <c r="B47">
+        <v>3</v>
+      </c>
+      <c r="C47" t="s">
         <v>133</v>
       </c>
-      <c r="D47" s="50">
-        <v>1</v>
-      </c>
-      <c r="E47" s="50" t="s">
+      <c r="D47">
+        <v>1</v>
+      </c>
+      <c r="E47" t="s">
         <v>126</v>
       </c>
-      <c r="F47" s="50" t="s">
+      <c r="F47" t="s">
         <v>28</v>
       </c>
-      <c r="G47" s="50">
+      <c r="G47">
         <v>300400003</v>
       </c>
-      <c r="H47" s="50">
+      <c r="H47">
         <v>300400000</v>
       </c>
-      <c r="I47" s="50">
-        <v>100</v>
-      </c>
-      <c r="J47" s="50">
+      <c r="I47">
+        <v>100</v>
+      </c>
+      <c r="J47">
         <v>300400003</v>
       </c>
-      <c r="K47" s="50" t="s">
+      <c r="K47" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="48">
-      <c r="A48" s="50">
+    <row r="48" spans="1:11">
+      <c r="A48">
         <v>300400004</v>
       </c>
-      <c r="B48" s="50">
-        <v>3</v>
-      </c>
-      <c r="C48" s="50" t="s">
+      <c r="B48">
+        <v>3</v>
+      </c>
+      <c r="C48" t="s">
         <v>135</v>
       </c>
-      <c r="D48" s="50">
-        <v>1</v>
-      </c>
-      <c r="E48" s="50" t="s">
+      <c r="D48">
+        <v>1</v>
+      </c>
+      <c r="E48" t="s">
         <v>136</v>
       </c>
-      <c r="F48" s="50" t="s">
+      <c r="F48" t="s">
         <v>28</v>
       </c>
-      <c r="G48" s="50">
+      <c r="G48">
         <v>300400004</v>
       </c>
-      <c r="H48" s="50">
+      <c r="H48">
         <v>300400000</v>
       </c>
-      <c r="I48" s="50">
-        <v>100</v>
-      </c>
-      <c r="J48" s="50">
+      <c r="I48">
+        <v>100</v>
+      </c>
+      <c r="J48">
         <v>300400004</v>
       </c>
-      <c r="K48" s="50" t="s">
+      <c r="K48" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="49">
-      <c r="A49" s="50">
+    <row r="49" spans="1:11">
+      <c r="A49">
         <v>300400005</v>
       </c>
-      <c r="B49" s="50">
-        <v>3</v>
-      </c>
-      <c r="C49" s="50" t="s">
+      <c r="B49">
+        <v>3</v>
+      </c>
+      <c r="C49" t="s">
         <v>109</v>
       </c>
-      <c r="D49" s="50">
-        <v>1</v>
-      </c>
-      <c r="E49" s="50" t="s">
+      <c r="D49">
+        <v>1</v>
+      </c>
+      <c r="E49" t="s">
         <v>138</v>
       </c>
-      <c r="F49" s="50" t="s">
+      <c r="F49" t="s">
         <v>28</v>
       </c>
-      <c r="G49" s="50">
+      <c r="G49">
         <v>300400005</v>
       </c>
-      <c r="H49" s="50">
+      <c r="H49">
         <v>300400000</v>
       </c>
-      <c r="I49" s="50">
-        <v>100</v>
-      </c>
-      <c r="J49" s="50">
+      <c r="I49">
+        <v>100</v>
+      </c>
+      <c r="J49">
         <v>300400005</v>
       </c>
-      <c r="K49" s="50" t="s">
+      <c r="K49" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="50">
-      <c r="A50" s="50">
+    <row r="50" spans="1:11">
+      <c r="A50">
         <v>300400101</v>
       </c>
-      <c r="B50" s="50">
-        <v>3</v>
-      </c>
-      <c r="C50" s="50" t="s">
+      <c r="B50">
+        <v>3</v>
+      </c>
+      <c r="C50" t="s">
         <v>83</v>
       </c>
-      <c r="D50" s="50">
-        <v>1</v>
-      </c>
-      <c r="E50" s="50" t="s">
+      <c r="D50">
+        <v>1</v>
+      </c>
+      <c r="E50" t="s">
         <v>126</v>
       </c>
-      <c r="F50" s="50" t="s">
+      <c r="F50" t="s">
         <v>84</v>
       </c>
-      <c r="G50" s="50">
+      <c r="G50">
         <v>300400101</v>
       </c>
-      <c r="H50" s="50" t="s">
+      <c r="H50" t="s">
         <v>140</v>
       </c>
-      <c r="I50" s="50">
-        <v>100</v>
-      </c>
-      <c r="J50" s="50">
+      <c r="I50">
+        <v>100</v>
+      </c>
+      <c r="J50">
         <v>300400101</v>
       </c>
-      <c r="K50" s="50" t="s">
+      <c r="K50" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="51">
-      <c r="A51" s="50">
+    <row r="51" spans="1:11">
+      <c r="A51">
         <v>300400102</v>
       </c>
-      <c r="B51" s="50">
-        <v>3</v>
-      </c>
-      <c r="C51" s="50" t="s">
+      <c r="B51">
+        <v>3</v>
+      </c>
+      <c r="C51" t="s">
         <v>87</v>
       </c>
-      <c r="D51" s="50">
-        <v>1</v>
-      </c>
-      <c r="E51" s="50" t="s">
+      <c r="D51">
+        <v>1</v>
+      </c>
+      <c r="E51" t="s">
         <v>126</v>
       </c>
-      <c r="F51" s="50" t="s">
+      <c r="F51" t="s">
         <v>88</v>
       </c>
-      <c r="G51" s="50">
+      <c r="G51">
         <v>300400102</v>
       </c>
-      <c r="H51" s="50">
+      <c r="H51">
         <v>300400101</v>
       </c>
-      <c r="I51" s="50">
-        <v>100</v>
-      </c>
-      <c r="J51" s="50">
+      <c r="I51">
+        <v>100</v>
+      </c>
+      <c r="J51">
         <v>300400102</v>
       </c>
-      <c r="K51" s="50" t="s">
+      <c r="K51" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="52">
-      <c r="A52" s="50">
+    <row r="52" spans="1:11">
+      <c r="A52">
         <v>300400201</v>
       </c>
-      <c r="B52" s="50">
-        <v>3</v>
-      </c>
-      <c r="C52" s="50" t="s">
+      <c r="B52">
+        <v>3</v>
+      </c>
+      <c r="C52" t="s">
         <v>125</v>
       </c>
-      <c r="D52" s="50">
-        <v>1</v>
-      </c>
-      <c r="E52" s="50" t="s">
+      <c r="D52">
+        <v>1</v>
+      </c>
+      <c r="E52" t="s">
         <v>126</v>
       </c>
-      <c r="F52" s="50">
+      <c r="F52">
         <v>-200</v>
       </c>
-      <c r="G52" s="50">
+      <c r="G52">
         <v>300400201</v>
       </c>
-      <c r="H52" s="50" t="s">
+      <c r="H52" t="s">
         <v>143</v>
       </c>
-      <c r="I52" s="50">
-        <v>100</v>
-      </c>
-      <c r="J52" s="50">
+      <c r="I52">
+        <v>100</v>
+      </c>
+      <c r="J52">
         <v>300400201</v>
       </c>
-      <c r="K52" s="50" t="s">
+      <c r="K52" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="53" ht="12" customHeight="1">
-      <c r="A53" s="50">
+    <row r="53" ht="12" customHeight="1" spans="1:11">
+      <c r="A53">
         <v>300500000</v>
       </c>
-      <c r="B53" s="50">
-        <v>3</v>
-      </c>
-      <c r="C53" s="50" t="s">
+      <c r="B53">
+        <v>3</v>
+      </c>
+      <c r="C53" t="s">
         <v>145</v>
       </c>
-      <c r="D53" s="50">
-        <v>1</v>
-      </c>
-      <c r="E53" s="50" t="s">
+      <c r="D53">
+        <v>1</v>
+      </c>
+      <c r="E53" t="s">
         <v>146</v>
       </c>
-      <c r="F53" s="50" t="s">
+      <c r="F53" t="s">
         <v>45</v>
       </c>
-      <c r="G53" s="50">
+      <c r="G53">
         <v>300500000</v>
       </c>
-      <c r="H53" s="50">
+      <c r="H53">
         <v>300700000</v>
       </c>
-      <c r="I53" s="50">
-        <v>100</v>
-      </c>
-      <c r="J53" s="50">
+      <c r="I53">
+        <v>100</v>
+      </c>
+      <c r="J53">
         <v>300500000</v>
       </c>
-      <c r="K53" s="50" t="s">
+      <c r="K53" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="54" ht="12" customHeight="1">
-      <c r="A54" s="50">
+    <row r="54" ht="12" customHeight="1" spans="1:11">
+      <c r="A54">
         <v>300500001</v>
       </c>
-      <c r="B54" s="50">
-        <v>3</v>
-      </c>
-      <c r="C54" s="50" t="s">
+      <c r="B54">
+        <v>3</v>
+      </c>
+      <c r="C54" t="s">
         <v>71</v>
       </c>
-      <c r="D54" s="50">
-        <v>1</v>
-      </c>
-      <c r="E54" s="50" t="s">
+      <c r="D54">
+        <v>1</v>
+      </c>
+      <c r="E54" t="s">
         <v>148</v>
       </c>
-      <c r="F54" s="50" t="s">
+      <c r="F54" t="s">
         <v>28</v>
       </c>
-      <c r="G54" s="50">
+      <c r="G54">
         <v>300500001</v>
       </c>
-      <c r="H54" s="50">
+      <c r="H54">
         <v>300500000</v>
       </c>
-      <c r="I54" s="50">
-        <v>100</v>
-      </c>
-      <c r="J54" s="50">
+      <c r="I54">
+        <v>100</v>
+      </c>
+      <c r="J54">
         <v>300500001</v>
       </c>
-      <c r="K54" s="50" t="s">
+      <c r="K54" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="55" ht="12" customHeight="1">
-      <c r="A55" s="50">
+    <row r="55" ht="12" customHeight="1" spans="1:11">
+      <c r="A55">
         <v>300500002</v>
       </c>
-      <c r="B55" s="50">
-        <v>3</v>
-      </c>
-      <c r="C55" s="50" t="s">
+      <c r="B55">
+        <v>3</v>
+      </c>
+      <c r="C55" t="s">
         <v>74</v>
       </c>
-      <c r="D55" s="50">
-        <v>1</v>
-      </c>
-      <c r="E55" s="50" t="s">
+      <c r="D55">
+        <v>1</v>
+      </c>
+      <c r="E55" t="s">
         <v>150</v>
       </c>
-      <c r="F55" s="50" t="s">
+      <c r="F55" t="s">
         <v>28</v>
       </c>
-      <c r="G55" s="50">
+      <c r="G55">
         <v>300500002</v>
       </c>
-      <c r="H55" s="50">
+      <c r="H55">
         <v>300500000</v>
       </c>
-      <c r="I55" s="50">
-        <v>100</v>
-      </c>
-      <c r="J55" s="50">
+      <c r="I55">
+        <v>100</v>
+      </c>
+      <c r="J55">
         <v>300500002</v>
       </c>
-      <c r="K55" s="50" t="s">
+      <c r="K55" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="56" ht="12" customHeight="1">
-      <c r="A56" s="50">
+    <row r="56" ht="12" customHeight="1" spans="1:11">
+      <c r="A56">
         <v>300500003</v>
       </c>
-      <c r="B56" s="50">
-        <v>3</v>
-      </c>
-      <c r="C56" s="50" t="s">
+      <c r="B56">
+        <v>3</v>
+      </c>
+      <c r="C56" t="s">
         <v>77</v>
       </c>
-      <c r="D56" s="50">
-        <v>1</v>
-      </c>
-      <c r="E56" s="50" t="s">
+      <c r="D56">
+        <v>1</v>
+      </c>
+      <c r="E56" t="s">
         <v>152</v>
       </c>
-      <c r="F56" s="50" t="s">
+      <c r="F56" t="s">
         <v>28</v>
       </c>
-      <c r="G56" s="50">
+      <c r="G56">
         <v>300500003</v>
       </c>
-      <c r="H56" s="50">
+      <c r="H56">
         <v>300500000</v>
       </c>
-      <c r="I56" s="50">
-        <v>100</v>
-      </c>
-      <c r="J56" s="50">
+      <c r="I56">
+        <v>100</v>
+      </c>
+      <c r="J56">
         <v>300500003</v>
       </c>
-      <c r="K56" s="50" t="s">
+      <c r="K56" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="57" ht="12" customHeight="1">
-      <c r="A57" s="50">
+    <row r="57" ht="12" customHeight="1" spans="1:11">
+      <c r="A57">
         <v>300500004</v>
       </c>
-      <c r="B57" s="50">
-        <v>3</v>
-      </c>
-      <c r="C57" s="50" t="s">
+      <c r="B57">
+        <v>3</v>
+      </c>
+      <c r="C57" t="s">
         <v>80</v>
       </c>
-      <c r="D57" s="50">
-        <v>1</v>
-      </c>
-      <c r="E57" s="50" t="s">
+      <c r="D57">
+        <v>1</v>
+      </c>
+      <c r="E57" t="s">
         <v>154</v>
       </c>
-      <c r="F57" s="50" t="s">
+      <c r="F57" t="s">
         <v>28</v>
       </c>
-      <c r="G57" s="50">
+      <c r="G57">
         <v>300500004</v>
       </c>
-      <c r="H57" s="50">
+      <c r="H57">
         <v>300500000</v>
       </c>
-      <c r="I57" s="50">
-        <v>100</v>
-      </c>
-      <c r="J57" s="50">
+      <c r="I57">
+        <v>100</v>
+      </c>
+      <c r="J57">
         <v>300500004</v>
       </c>
-      <c r="K57" s="50" t="s">
+      <c r="K57" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="58" ht="12" customHeight="1">
-      <c r="A58" s="50">
+    <row r="58" ht="12" customHeight="1" spans="1:11">
+      <c r="A58">
         <v>300500101</v>
       </c>
-      <c r="B58" s="50">
-        <v>3</v>
-      </c>
-      <c r="C58" s="50" t="s">
+      <c r="B58">
+        <v>3</v>
+      </c>
+      <c r="C58" t="s">
         <v>83</v>
       </c>
-      <c r="D58" s="50">
-        <v>1</v>
-      </c>
-      <c r="E58" s="50" t="s">
+      <c r="D58">
+        <v>1</v>
+      </c>
+      <c r="E58" t="s">
         <v>146</v>
       </c>
-      <c r="F58" s="50" t="s">
+      <c r="F58" t="s">
         <v>84</v>
       </c>
-      <c r="G58" s="50">
+      <c r="G58">
         <v>300500101</v>
       </c>
-      <c r="H58" s="50" t="s">
+      <c r="H58" t="s">
         <v>156</v>
       </c>
-      <c r="I58" s="50">
-        <v>100</v>
-      </c>
-      <c r="J58" s="50">
+      <c r="I58">
+        <v>100</v>
+      </c>
+      <c r="J58">
         <v>300500101</v>
       </c>
-      <c r="K58" s="50" t="s">
+      <c r="K58" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="59" ht="12" customHeight="1">
-      <c r="A59" s="50">
+    <row r="59" ht="12" customHeight="1" spans="1:11">
+      <c r="A59">
         <v>300500102</v>
       </c>
-      <c r="B59" s="50">
-        <v>3</v>
-      </c>
-      <c r="C59" s="50" t="s">
+      <c r="B59">
+        <v>3</v>
+      </c>
+      <c r="C59" t="s">
         <v>87</v>
       </c>
-      <c r="D59" s="50">
-        <v>1</v>
-      </c>
-      <c r="E59" s="50" t="s">
+      <c r="D59">
+        <v>1</v>
+      </c>
+      <c r="E59" t="s">
         <v>146</v>
       </c>
-      <c r="F59" s="50" t="s">
+      <c r="F59" t="s">
         <v>88</v>
       </c>
-      <c r="G59" s="50">
+      <c r="G59">
         <v>300500102</v>
       </c>
-      <c r="H59" s="50">
+      <c r="H59">
         <v>300500101</v>
       </c>
-      <c r="I59" s="50">
-        <v>100</v>
-      </c>
-      <c r="J59" s="50">
+      <c r="I59">
+        <v>100</v>
+      </c>
+      <c r="J59">
         <v>300500102</v>
       </c>
-      <c r="K59" s="50" t="s">
+      <c r="K59" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="60">
-      <c r="A60" s="50">
+    <row r="60" spans="1:11">
+      <c r="A60">
         <v>300500201</v>
       </c>
-      <c r="B60" s="50">
-        <v>3</v>
-      </c>
-      <c r="C60" s="50" t="s">
+      <c r="B60">
+        <v>3</v>
+      </c>
+      <c r="C60" t="s">
         <v>145</v>
       </c>
-      <c r="D60" s="50">
-        <v>1</v>
-      </c>
-      <c r="E60" s="50" t="s">
+      <c r="D60">
+        <v>1</v>
+      </c>
+      <c r="E60" t="s">
         <v>146</v>
       </c>
-      <c r="F60" s="50">
+      <c r="F60">
         <v>-200</v>
       </c>
-      <c r="G60" s="50">
+      <c r="G60">
         <v>300500201</v>
       </c>
-      <c r="H60" s="50" t="s">
+      <c r="H60" t="s">
         <v>159</v>
       </c>
-      <c r="I60" s="50">
-        <v>100</v>
-      </c>
-      <c r="J60" s="50">
+      <c r="I60">
+        <v>100</v>
+      </c>
+      <c r="J60">
         <v>300500201</v>
       </c>
-      <c r="K60" s="50" t="s">
+      <c r="K60" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="61" ht="12" customHeight="1">
-      <c r="A61" s="50">
+    <row r="61" ht="12" customHeight="1" spans="1:11">
+      <c r="A61">
         <v>300600000</v>
       </c>
-      <c r="B61" s="50">
-        <v>3</v>
-      </c>
-      <c r="C61" s="50" t="s">
+      <c r="B61">
+        <v>3</v>
+      </c>
+      <c r="C61" t="s">
         <v>161</v>
       </c>
-      <c r="D61" s="50">
-        <v>1</v>
-      </c>
-      <c r="E61" s="50" t="s">
+      <c r="D61">
+        <v>1</v>
+      </c>
+      <c r="E61" t="s">
         <v>162</v>
       </c>
-      <c r="F61" s="50" t="s">
+      <c r="F61" t="s">
         <v>45</v>
       </c>
-      <c r="G61" s="50">
+      <c r="G61">
         <v>300600000</v>
       </c>
-      <c r="H61" s="50">
+      <c r="H61">
         <v>300300000</v>
       </c>
-      <c r="I61" s="50">
-        <v>100</v>
-      </c>
-      <c r="J61" s="50">
+      <c r="I61">
+        <v>100</v>
+      </c>
+      <c r="J61">
         <v>300600000</v>
       </c>
-      <c r="K61" s="50" t="s">
+      <c r="K61" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="62" ht="12" customHeight="1">
-      <c r="A62" s="50">
+    <row r="62" ht="12" customHeight="1" spans="1:11">
+      <c r="A62">
         <v>300600001</v>
       </c>
-      <c r="B62" s="50">
-        <v>3</v>
-      </c>
-      <c r="C62" s="50" t="s">
+      <c r="B62">
+        <v>3</v>
+      </c>
+      <c r="C62" t="s">
         <v>164</v>
       </c>
-      <c r="D62" s="50">
-        <v>1</v>
-      </c>
-      <c r="E62" s="50" t="s">
+      <c r="D62">
+        <v>1</v>
+      </c>
+      <c r="E62" t="s">
         <v>165</v>
       </c>
-      <c r="F62" s="50" t="s">
+      <c r="F62" t="s">
         <v>28</v>
       </c>
-      <c r="G62" s="50">
+      <c r="G62">
         <v>300600001</v>
       </c>
-      <c r="H62" s="50">
+      <c r="H62">
         <v>300600000</v>
       </c>
-      <c r="I62" s="50">
-        <v>100</v>
-      </c>
-      <c r="J62" s="50">
+      <c r="I62">
+        <v>100</v>
+      </c>
+      <c r="J62">
         <v>300600001</v>
       </c>
-      <c r="K62" s="50" t="s">
+      <c r="K62" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="63" ht="12" customHeight="1">
-      <c r="A63" s="50">
+    <row r="63" ht="12" customHeight="1" spans="1:11">
+      <c r="A63">
         <v>300600002</v>
       </c>
-      <c r="B63" s="50">
-        <v>3</v>
-      </c>
-      <c r="C63" s="50" t="s">
+      <c r="B63">
+        <v>3</v>
+      </c>
+      <c r="C63" t="s">
         <v>71</v>
       </c>
-      <c r="D63" s="50">
-        <v>1</v>
-      </c>
-      <c r="E63" s="50" t="s">
+      <c r="D63">
+        <v>1</v>
+      </c>
+      <c r="E63" t="s">
         <v>167</v>
       </c>
-      <c r="F63" s="50" t="s">
+      <c r="F63" t="s">
         <v>28</v>
       </c>
-      <c r="G63" s="50">
+      <c r="G63">
         <v>300600002</v>
       </c>
-      <c r="H63" s="50">
+      <c r="H63">
         <v>300600000</v>
       </c>
-      <c r="I63" s="50">
-        <v>100</v>
-      </c>
-      <c r="J63" s="50">
+      <c r="I63">
+        <v>100</v>
+      </c>
+      <c r="J63">
         <v>300600002</v>
       </c>
-      <c r="K63" s="50" t="s">
+      <c r="K63" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="64" ht="12" customHeight="1">
-      <c r="A64" s="50">
+    <row r="64" ht="12" customHeight="1" spans="1:11">
+      <c r="A64">
         <v>300600003</v>
       </c>
-      <c r="B64" s="50">
-        <v>3</v>
-      </c>
-      <c r="C64" s="50" t="s">
+      <c r="B64">
+        <v>3</v>
+      </c>
+      <c r="C64" t="s">
         <v>74</v>
       </c>
-      <c r="D64" s="50">
-        <v>1</v>
-      </c>
-      <c r="E64" s="50" t="s">
+      <c r="D64">
+        <v>1</v>
+      </c>
+      <c r="E64" t="s">
         <v>162</v>
       </c>
-      <c r="F64" s="50" t="s">
+      <c r="F64" t="s">
         <v>28</v>
       </c>
-      <c r="G64" s="50">
+      <c r="G64">
         <v>300600003</v>
       </c>
-      <c r="H64" s="50">
+      <c r="H64">
         <v>300600000</v>
       </c>
-      <c r="I64" s="50">
-        <v>100</v>
-      </c>
-      <c r="J64" s="50">
+      <c r="I64">
+        <v>100</v>
+      </c>
+      <c r="J64">
         <v>300600003</v>
       </c>
-      <c r="K64" s="50" t="s">
+      <c r="K64" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="65" ht="12" customHeight="1">
-      <c r="A65" s="50">
+    <row r="65" ht="12" customHeight="1" spans="1:11">
+      <c r="A65">
         <v>300600004</v>
       </c>
-      <c r="B65" s="50">
-        <v>3</v>
-      </c>
-      <c r="C65" s="50" t="s">
+      <c r="B65">
+        <v>3</v>
+      </c>
+      <c r="C65" t="s">
         <v>77</v>
       </c>
-      <c r="D65" s="50">
-        <v>1</v>
-      </c>
-      <c r="E65" s="50" t="s">
+      <c r="D65">
+        <v>1</v>
+      </c>
+      <c r="E65" t="s">
         <v>170</v>
       </c>
-      <c r="F65" s="50" t="s">
+      <c r="F65" t="s">
         <v>28</v>
       </c>
-      <c r="G65" s="50">
+      <c r="G65">
         <v>300600004</v>
       </c>
-      <c r="H65" s="50">
+      <c r="H65">
         <v>300600000</v>
       </c>
-      <c r="I65" s="50">
-        <v>100</v>
-      </c>
-      <c r="J65" s="50">
+      <c r="I65">
+        <v>100</v>
+      </c>
+      <c r="J65">
         <v>300600004</v>
       </c>
-      <c r="K65" s="50" t="s">
+      <c r="K65" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="66" ht="12" customHeight="1">
-      <c r="A66" s="50">
+    <row r="66" ht="12" customHeight="1" spans="1:11">
+      <c r="A66">
         <v>300600005</v>
       </c>
-      <c r="B66" s="50">
-        <v>3</v>
-      </c>
-      <c r="C66" s="50" t="s">
+      <c r="B66">
+        <v>3</v>
+      </c>
+      <c r="C66" t="s">
         <v>80</v>
       </c>
-      <c r="D66" s="50">
-        <v>1</v>
-      </c>
-      <c r="E66" s="50" t="s">
+      <c r="D66">
+        <v>1</v>
+      </c>
+      <c r="E66" t="s">
         <v>172</v>
       </c>
-      <c r="F66" s="50" t="s">
+      <c r="F66" t="s">
         <v>28</v>
       </c>
-      <c r="G66" s="50">
+      <c r="G66">
         <v>300600005</v>
       </c>
-      <c r="H66" s="50">
+      <c r="H66">
         <v>300600000</v>
       </c>
-      <c r="I66" s="50">
-        <v>100</v>
-      </c>
-      <c r="J66" s="50">
+      <c r="I66">
+        <v>100</v>
+      </c>
+      <c r="J66">
         <v>300600005</v>
       </c>
-      <c r="K66" s="50" t="s">
+      <c r="K66" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="67" ht="12" customHeight="1">
-      <c r="A67" s="50">
+    <row r="67" ht="12" customHeight="1" spans="1:11">
+      <c r="A67">
         <v>300600101</v>
       </c>
-      <c r="B67" s="50">
-        <v>3</v>
-      </c>
-      <c r="C67" s="50" t="s">
+      <c r="B67">
+        <v>3</v>
+      </c>
+      <c r="C67" t="s">
         <v>83</v>
       </c>
-      <c r="D67" s="50">
-        <v>1</v>
-      </c>
-      <c r="E67" s="50" t="s">
+      <c r="D67">
+        <v>1</v>
+      </c>
+      <c r="E67" t="s">
         <v>162</v>
       </c>
-      <c r="F67" s="50" t="s">
+      <c r="F67" t="s">
         <v>84</v>
       </c>
-      <c r="G67" s="50">
+      <c r="G67">
         <v>300600101</v>
       </c>
-      <c r="H67" s="50" t="s">
+      <c r="H67" t="s">
         <v>174</v>
       </c>
-      <c r="I67" s="50">
-        <v>100</v>
-      </c>
-      <c r="J67" s="50">
+      <c r="I67">
+        <v>100</v>
+      </c>
+      <c r="J67">
         <v>300600101</v>
       </c>
-      <c r="K67" s="50" t="s">
+      <c r="K67" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="68" ht="12" customHeight="1">
-      <c r="A68" s="50">
+    <row r="68" ht="12" customHeight="1" spans="1:11">
+      <c r="A68">
         <v>300600102</v>
       </c>
-      <c r="B68" s="50">
-        <v>3</v>
-      </c>
-      <c r="C68" s="50" t="s">
+      <c r="B68">
+        <v>3</v>
+      </c>
+      <c r="C68" t="s">
         <v>87</v>
       </c>
-      <c r="D68" s="50">
-        <v>1</v>
-      </c>
-      <c r="E68" s="50" t="s">
+      <c r="D68">
+        <v>1</v>
+      </c>
+      <c r="E68" t="s">
         <v>162</v>
       </c>
-      <c r="F68" s="50" t="s">
+      <c r="F68" t="s">
         <v>88</v>
       </c>
-      <c r="G68" s="50">
+      <c r="G68">
         <v>300600102</v>
       </c>
-      <c r="H68" s="50">
+      <c r="H68">
         <v>300600101</v>
       </c>
-      <c r="I68" s="50">
-        <v>100</v>
-      </c>
-      <c r="J68" s="50">
+      <c r="I68">
+        <v>100</v>
+      </c>
+      <c r="J68">
         <v>300600102</v>
       </c>
-      <c r="K68" s="50" t="s">
+      <c r="K68" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="69">
-      <c r="A69" s="50">
+    <row r="69" spans="1:11">
+      <c r="A69">
         <v>300600201</v>
       </c>
-      <c r="B69" s="50">
-        <v>3</v>
-      </c>
-      <c r="C69" s="50" t="s">
+      <c r="B69">
+        <v>3</v>
+      </c>
+      <c r="C69" t="s">
         <v>161</v>
       </c>
-      <c r="D69" s="50">
-        <v>1</v>
-      </c>
-      <c r="E69" s="50" t="s">
+      <c r="D69">
+        <v>1</v>
+      </c>
+      <c r="E69" t="s">
         <v>162</v>
       </c>
-      <c r="F69" s="50">
+      <c r="F69">
         <v>-200</v>
       </c>
-      <c r="G69" s="50">
+      <c r="G69">
         <v>300600201</v>
       </c>
-      <c r="H69" s="50" t="s">
+      <c r="H69" t="s">
         <v>177</v>
       </c>
-      <c r="I69" s="50">
-        <v>100</v>
-      </c>
-      <c r="J69" s="50">
+      <c r="I69">
+        <v>100</v>
+      </c>
+      <c r="J69">
         <v>300600201</v>
       </c>
-      <c r="K69" s="50" t="s">
+      <c r="K69" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="70">
-      <c r="A70" s="50">
+    <row r="70" spans="1:11">
+      <c r="A70">
         <v>300700000</v>
       </c>
-      <c r="B70" s="50">
-        <v>3</v>
-      </c>
-      <c r="C70" s="50" t="s">
+      <c r="B70">
+        <v>3</v>
+      </c>
+      <c r="C70" t="s">
         <v>179</v>
       </c>
-      <c r="D70" s="50">
-        <v>1</v>
-      </c>
-      <c r="E70" s="50" t="s">
+      <c r="D70">
+        <v>1</v>
+      </c>
+      <c r="E70" t="s">
         <v>180</v>
       </c>
-      <c r="F70" s="50" t="s">
+      <c r="F70" t="s">
         <v>45</v>
       </c>
-      <c r="G70" s="50">
+      <c r="G70">
         <v>300700000</v>
       </c>
-      <c r="H70" s="50">
+      <c r="H70">
         <v>300100000</v>
       </c>
-      <c r="I70" s="50">
-        <v>100</v>
-      </c>
-      <c r="J70" s="50">
+      <c r="I70">
+        <v>100</v>
+      </c>
+      <c r="J70">
         <v>300700000</v>
       </c>
-      <c r="K70" s="50" t="s">
+      <c r="K70" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="71" ht="15" customHeight="1">
-      <c r="A71" s="50">
+    <row r="71" ht="15" customHeight="1" spans="1:11">
+      <c r="A71">
         <v>300700001</v>
       </c>
-      <c r="B71" s="50">
-        <v>3</v>
-      </c>
-      <c r="C71" s="50" t="s">
+      <c r="B71">
+        <v>3</v>
+      </c>
+      <c r="C71" t="s">
         <v>71</v>
       </c>
-      <c r="D71" s="50">
-        <v>1</v>
-      </c>
-      <c r="E71" s="50" t="s">
+      <c r="D71">
+        <v>1</v>
+      </c>
+      <c r="E71" t="s">
         <v>182</v>
       </c>
-      <c r="F71" s="50" t="s">
+      <c r="F71" t="s">
         <v>28</v>
       </c>
-      <c r="G71" s="50">
+      <c r="G71">
         <v>300700001</v>
       </c>
-      <c r="H71" s="50">
+      <c r="H71">
         <v>300700000</v>
       </c>
-      <c r="I71" s="50">
-        <v>100</v>
-      </c>
-      <c r="J71" s="50">
+      <c r="I71">
+        <v>100</v>
+      </c>
+      <c r="J71">
         <v>300700001</v>
       </c>
-      <c r="K71" s="50" t="s">
+      <c r="K71" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="72" ht="15" customHeight="1">
-      <c r="A72" s="50">
+    <row r="72" ht="15" customHeight="1" spans="1:11">
+      <c r="A72">
         <v>300700002</v>
       </c>
-      <c r="B72" s="50">
-        <v>3</v>
-      </c>
-      <c r="C72" s="50" t="s">
+      <c r="B72">
+        <v>3</v>
+      </c>
+      <c r="C72" t="s">
         <v>74</v>
       </c>
-      <c r="D72" s="50">
-        <v>1</v>
-      </c>
-      <c r="E72" s="50" t="s">
+      <c r="D72">
+        <v>1</v>
+      </c>
+      <c r="E72" t="s">
         <v>184</v>
       </c>
-      <c r="F72" s="50" t="s">
+      <c r="F72" t="s">
         <v>28</v>
       </c>
-      <c r="G72" s="50">
+      <c r="G72">
         <v>300700002</v>
       </c>
-      <c r="H72" s="50">
+      <c r="H72">
         <v>300700000</v>
       </c>
-      <c r="I72" s="50">
-        <v>100</v>
-      </c>
-      <c r="J72" s="50">
+      <c r="I72">
+        <v>100</v>
+      </c>
+      <c r="J72">
         <v>300700002</v>
       </c>
-      <c r="K72" s="50" t="s">
+      <c r="K72" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="73" ht="15" customHeight="1">
-      <c r="A73" s="50">
+    <row r="73" ht="15" customHeight="1" spans="1:11">
+      <c r="A73">
         <v>300700003</v>
       </c>
-      <c r="B73" s="50">
-        <v>3</v>
-      </c>
-      <c r="C73" s="50" t="s">
+      <c r="B73">
+        <v>3</v>
+      </c>
+      <c r="C73" t="s">
         <v>77</v>
       </c>
-      <c r="D73" s="50">
-        <v>1</v>
-      </c>
-      <c r="E73" s="50" t="s">
+      <c r="D73">
+        <v>1</v>
+      </c>
+      <c r="E73" t="s">
         <v>186</v>
       </c>
-      <c r="F73" s="50" t="s">
+      <c r="F73" t="s">
         <v>28</v>
       </c>
-      <c r="G73" s="50">
+      <c r="G73">
         <v>300700003</v>
       </c>
-      <c r="H73" s="50">
+      <c r="H73">
         <v>300700000</v>
       </c>
-      <c r="I73" s="50">
-        <v>100</v>
-      </c>
-      <c r="J73" s="50">
+      <c r="I73">
+        <v>100</v>
+      </c>
+      <c r="J73">
         <v>300700003</v>
       </c>
-      <c r="K73" s="50" t="s">
+      <c r="K73" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="74" ht="15" customHeight="1">
-      <c r="A74" s="50">
+    <row r="74" ht="15" customHeight="1" spans="1:11">
+      <c r="A74">
         <v>300700004</v>
       </c>
-      <c r="B74" s="50">
-        <v>3</v>
-      </c>
-      <c r="C74" s="50" t="s">
+      <c r="B74">
+        <v>3</v>
+      </c>
+      <c r="C74" t="s">
         <v>80</v>
       </c>
-      <c r="D74" s="50">
-        <v>1</v>
-      </c>
-      <c r="E74" s="50" t="s">
+      <c r="D74">
+        <v>1</v>
+      </c>
+      <c r="E74" t="s">
         <v>188</v>
       </c>
-      <c r="F74" s="50" t="s">
+      <c r="F74" t="s">
         <v>28</v>
       </c>
-      <c r="G74" s="50">
+      <c r="G74">
         <v>300700004</v>
       </c>
-      <c r="H74" s="50">
+      <c r="H74">
         <v>300700000</v>
       </c>
-      <c r="I74" s="50">
-        <v>100</v>
-      </c>
-      <c r="J74" s="50">
+      <c r="I74">
+        <v>100</v>
+      </c>
+      <c r="J74">
         <v>300700004</v>
       </c>
-      <c r="K74" s="50" t="s">
+      <c r="K74" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="75" ht="15" customHeight="1">
-      <c r="A75" s="50">
+    <row r="75" ht="15" customHeight="1" spans="1:11">
+      <c r="A75">
         <v>300700101</v>
       </c>
-      <c r="B75" s="50">
-        <v>3</v>
-      </c>
-      <c r="C75" s="50" t="s">
+      <c r="B75">
+        <v>3</v>
+      </c>
+      <c r="C75" t="s">
         <v>83</v>
       </c>
-      <c r="D75" s="50">
-        <v>1</v>
-      </c>
-      <c r="E75" s="50" t="s">
+      <c r="D75">
+        <v>1</v>
+      </c>
+      <c r="E75" t="s">
         <v>180</v>
       </c>
-      <c r="F75" s="50" t="s">
+      <c r="F75" t="s">
         <v>84</v>
       </c>
-      <c r="G75" s="50">
+      <c r="G75">
         <v>300700101</v>
       </c>
-      <c r="H75" s="50" t="s">
+      <c r="H75" t="s">
         <v>190</v>
       </c>
-      <c r="I75" s="50">
-        <v>100</v>
-      </c>
-      <c r="J75" s="50">
+      <c r="I75">
+        <v>100</v>
+      </c>
+      <c r="J75">
         <v>300700101</v>
       </c>
-      <c r="K75" s="50" t="s">
+      <c r="K75" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="76" ht="15" customHeight="1">
-      <c r="A76" s="50">
+    <row r="76" ht="15" customHeight="1" spans="1:11">
+      <c r="A76">
         <v>300700102</v>
       </c>
-      <c r="B76" s="50">
-        <v>3</v>
-      </c>
-      <c r="C76" s="50" t="s">
+      <c r="B76">
+        <v>3</v>
+      </c>
+      <c r="C76" t="s">
         <v>87</v>
       </c>
-      <c r="D76" s="50">
-        <v>1</v>
-      </c>
-      <c r="E76" s="50" t="s">
+      <c r="D76">
+        <v>1</v>
+      </c>
+      <c r="E76" t="s">
         <v>180</v>
       </c>
-      <c r="F76" s="50" t="s">
+      <c r="F76" t="s">
         <v>88</v>
       </c>
-      <c r="G76" s="50">
+      <c r="G76">
         <v>300700102</v>
       </c>
-      <c r="H76" s="50">
+      <c r="H76">
         <v>300700101</v>
       </c>
-      <c r="I76" s="50">
-        <v>100</v>
-      </c>
-      <c r="J76" s="50">
+      <c r="I76">
+        <v>100</v>
+      </c>
+      <c r="J76">
         <v>300700102</v>
       </c>
-      <c r="K76" s="50" t="s">
+      <c r="K76" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="77">
-      <c r="A77" s="50">
+    <row r="77" spans="1:11">
+      <c r="A77">
         <v>300700201</v>
       </c>
-      <c r="B77" s="50">
-        <v>3</v>
-      </c>
-      <c r="C77" s="50" t="s">
+      <c r="B77">
+        <v>3</v>
+      </c>
+      <c r="C77" t="s">
         <v>179</v>
       </c>
-      <c r="D77" s="50">
-        <v>1</v>
-      </c>
-      <c r="E77" s="50" t="s">
+      <c r="D77">
+        <v>1</v>
+      </c>
+      <c r="E77" t="s">
         <v>180</v>
       </c>
-      <c r="F77" s="50">
+      <c r="F77">
         <v>-200</v>
       </c>
-      <c r="G77" s="50">
+      <c r="G77">
         <v>300700201</v>
       </c>
-      <c r="H77" s="50" t="s">
+      <c r="H77" t="s">
         <v>193</v>
       </c>
-      <c r="I77" s="50">
-        <v>100</v>
-      </c>
-      <c r="J77" s="50">
+      <c r="I77">
+        <v>100</v>
+      </c>
+      <c r="J77">
         <v>300700201</v>
       </c>
-      <c r="K77" s="50" t="s">
+      <c r="K77" t="s">
         <v>194</v>
       </c>
     </row>
